--- a/OpenStudio-analysis-spreadsheet/projects/slab.xlsx
+++ b/OpenStudio-analysis-spreadsheet/projects/slab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="3000" windowWidth="10290" windowHeight="2370" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="10290" windowHeight="2370" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$AA$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$AA$108</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="1193">
   <si>
     <t>type</t>
   </si>
@@ -2137,131 +2137,1496 @@
     <t>Experiment Type</t>
   </si>
   <si>
+    <t>doe</t>
+  </si>
+  <si>
+    <t>full_factorial</t>
+  </si>
+  <si>
+    <t>../../measures</t>
+  </si>
+  <si>
+    <t>../measures</t>
+  </si>
+  <si>
+    <t>jrobert1</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>OpenStudio-BEopt - slab</t>
+  </si>
+  <si>
+    <t>ProcessConstructionsSlab</t>
+  </si>
+  <si>
+    <t>Of what space type is the living space?</t>
+  </si>
+  <si>
+    <t>Slab insulation type.</t>
+  </si>
+  <si>
+    <t>Slab perimeter insulation R-value or exterior insulation R-value [hr-ft^2-R/Btu].</t>
+  </si>
+  <si>
+    <t>Slab perimeter insulation width or exterior insulation depth [ft].</t>
+  </si>
+  <si>
+    <t>Perimeter gap R-value or whole slab gap R-value [hr-ft^2-R/Btu].</t>
+  </si>
+  <si>
+    <t>Whole slab insulation R-value [hr-ft^2-R/Btu].</t>
+  </si>
+  <si>
+    <t>Carpet pad R-value [hr-ft^2-R/Btu].</t>
+  </si>
+  <si>
+    <t>Carpet floor fraction [frac].</t>
+  </si>
+  <si>
+    <t>Area of the slab foundation [ft^2].</t>
+  </si>
+  <si>
+    <t>userdefinedslabarea</t>
+  </si>
+  <si>
+    <t>Perimeter of the slab foundation [ft].</t>
+  </si>
+  <si>
+    <t>userdefinedslabextperim</t>
+  </si>
+  <si>
+    <t>selectedliving</t>
+  </si>
+  <si>
+    <t>selectedslabins</t>
+  </si>
+  <si>
+    <t>userdefinedslabperiextr</t>
+  </si>
+  <si>
+    <t>userdefinedslabperiextwidthdepth</t>
+  </si>
+  <si>
+    <t>userdefinedslabgapr</t>
+  </si>
+  <si>
+    <t>userdefinedslabwholer</t>
+  </si>
+  <si>
+    <t>userdefinedcarpetr</t>
+  </si>
+  <si>
+    <t>userdefinedcarpetfrac</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>../weather/USA_CO_Denver.Intl.AP.725650_TMY3.epw</t>
+  </si>
+  <si>
+    <t>../../geometries/Res_Garage_IZFloor_slab_windows_fix2.osm</t>
+  </si>
+  <si>
+    <t>ResidentialCookingRange</t>
+  </si>
+  <si>
+    <t>ResidentialClothesWasherandDryer</t>
+  </si>
+  <si>
+    <t>ProcessConstructionsInteriorInsulatedWalls</t>
+  </si>
+  <si>
+    <t>ProcessConstructionsInteriorUninsulatedFloors</t>
+  </si>
+  <si>
+    <t>ProcessConstructionsInteriorInsulatedFloors</t>
+  </si>
+  <si>
+    <t>ProcessConstructionsExteriorUninsulatedWalls</t>
+  </si>
+  <si>
+    <t>ProcessConstructionsGarageSlab</t>
+  </si>
+  <si>
+    <t>ProcessConstructionsWindows</t>
+  </si>
+  <si>
+    <t>ProcessConstructionsDoors</t>
+  </si>
+  <si>
+    <t>ProcessThermalMassPartitionWall</t>
+  </si>
+  <si>
+    <t>ProcessThermalMassFurniture</t>
+  </si>
+  <si>
+    <t>ProcessHeatingandCoolingSeasons</t>
+  </si>
+  <si>
+    <t>ProcessHeatingandCoolingSetpoints</t>
+  </si>
+  <si>
+    <t>ProcessFurnace</t>
+  </si>
+  <si>
+    <t>ProcessCentralAirConditioner</t>
+  </si>
+  <si>
+    <t>ProcessAirflow</t>
+  </si>
+  <si>
+    <t>ResidentialMiscellaneousElectricLoads</t>
+  </si>
+  <si>
+    <t>ResidentialMiscellaneousGasLoads</t>
+  </si>
+  <si>
+    <t>ResidentialDishwasher</t>
+  </si>
+  <si>
+    <t>ResidentialRefrigerator</t>
+  </si>
+  <si>
+    <t>AddHotWaterDrawandDistribution</t>
+  </si>
+  <si>
+    <t>AddOSWaterHeaterMixedStorageGas</t>
+  </si>
+  <si>
+    <t>ProcessConstructionsExteriorInsulatedWallsWoodStud</t>
+  </si>
+  <si>
+    <t>ProcessConstructionsUnfinishedAttic</t>
+  </si>
+  <si>
+    <t>living spacetype</t>
+  </si>
+  <si>
+    <t>Uninsulated</t>
+  </si>
+  <si>
+    <t>Cooking Range Energy Consumption Option</t>
+  </si>
+  <si>
+    <t>Cooking Range Fuel</t>
+  </si>
+  <si>
+    <t>Simple Range Annual Consumption (kWh/yr or therms/yr)</t>
+  </si>
+  <si>
+    <t>Building America Benchmark Multiplier</t>
+  </si>
+  <si>
+    <t>Number of Bedrooms</t>
+  </si>
+  <si>
+    <t>Oven Energy Factor</t>
+  </si>
+  <si>
+    <t>Cooktop Energy Factor</t>
+  </si>
+  <si>
+    <t>Has glo bar ignition</t>
+  </si>
+  <si>
+    <t>Select the space where the cooking range is located</t>
+  </si>
+  <si>
+    <t>selected_range</t>
+  </si>
+  <si>
+    <t>range_fuel</t>
+  </si>
+  <si>
+    <t>range_E</t>
+  </si>
+  <si>
+    <t>BAB_mult</t>
+  </si>
+  <si>
+    <t>Num_Br</t>
+  </si>
+  <si>
+    <t>O_ef</t>
+  </si>
+  <si>
+    <t>C_ef</t>
+  </si>
+  <si>
+    <t>Glo_Bar</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Clothes Dryer Energy Consumption Option</t>
+  </si>
+  <si>
+    <t>Clothes Dryer Fuel</t>
+  </si>
+  <si>
+    <t>Clothes Dryer Building America Benchmark Multiplier</t>
+  </si>
+  <si>
+    <t>Clothes Dryer Energy Factor</t>
+  </si>
+  <si>
+    <t>Clothes Washer Energy Consumption Option</t>
+  </si>
+  <si>
+    <t>Clothes Washer Building America Benchmark Multiplier</t>
+  </si>
+  <si>
+    <t>Clothes Washer Energy Factor</t>
+  </si>
+  <si>
+    <t>Clothes Washer Drum Volume (ft^3)</t>
+  </si>
+  <si>
+    <t>Clothes Washer Test Date</t>
+  </si>
+  <si>
+    <t>Select the space where the clothes washer and dryer are located</t>
+  </si>
+  <si>
+    <t>selected_cd</t>
+  </si>
+  <si>
+    <t>cd_fuel</t>
+  </si>
+  <si>
+    <t>BAB_mult_cd</t>
+  </si>
+  <si>
+    <t>EF_cd</t>
+  </si>
+  <si>
+    <t>selected_cw</t>
+  </si>
+  <si>
+    <t>BAB_mult_cw</t>
+  </si>
+  <si>
+    <t>EF_cw</t>
+  </si>
+  <si>
+    <t>DV_cw</t>
+  </si>
+  <si>
+    <t>CW_testdate</t>
+  </si>
+  <si>
+    <t>MEL Energy Consumption Option</t>
+  </si>
+  <si>
+    <t>Simple MEL Annual Energy Consumption (kWh/yr)</t>
+  </si>
+  <si>
+    <t>Living Space Floor Area (ft^2)</t>
+  </si>
+  <si>
+    <t>Select the space where the miscellaneous electric loads are located</t>
+  </si>
+  <si>
+    <t>selected_mel</t>
+  </si>
+  <si>
+    <t>mel_E</t>
+  </si>
+  <si>
+    <t>CondFA</t>
+  </si>
+  <si>
+    <t>MGL Energy Consumption Option</t>
+  </si>
+  <si>
+    <t>Simple MGL Annual Energy Consumption (therm/yr)</t>
+  </si>
+  <si>
+    <t>Select the space where the miscellaneous gas loads are located</t>
+  </si>
+  <si>
+    <t>selected_mgl</t>
+  </si>
+  <si>
+    <t>mgl_E</t>
+  </si>
+  <si>
+    <t>Dishwasher Energy Consumption Option</t>
+  </si>
+  <si>
+    <t>Simple Dishwasher Annual Energy Consumption (kWh/yr)</t>
+  </si>
+  <si>
+    <t>Select the space where the dishwasher is located</t>
+  </si>
+  <si>
+    <t>selected_dw</t>
+  </si>
+  <si>
+    <t>dw_E</t>
+  </si>
+  <si>
+    <t>Refrigerator Energy Consumption Option</t>
+  </si>
+  <si>
+    <t>User Defined Refrigerator Annual Energy Consumption (kWh/yr)</t>
+  </si>
+  <si>
+    <t>Select the space where the refrigerator is located</t>
+  </si>
+  <si>
+    <t>selected_fridge</t>
+  </si>
+  <si>
+    <t>fridge_E</t>
+  </si>
+  <si>
+    <t>AddResidentialRefrigerator</t>
+  </si>
+  <si>
+    <t>Hot Water Loop WaterUseEquipment will be assigned to</t>
+  </si>
+  <si>
+    <t>Check to use the standard SHW Event schedules and event draws from the spreadsheet found in the "Hourly Profiles" tab of the B10 Analysis - New Construction 2011.1.26.xlsm spreadsheet. If this box is checked, user arguments entered for gallons per day flow amounts below will be ignored. If this box is not checked, user arguments for gallons per day of usage will be used, and a schedule of constant hourly usage values (1.0 for each hour) will be created.</t>
+  </si>
+  <si>
+    <t>Number of Bedrooms in the Proposed Home. If more than 5 bedrooms enter 5.</t>
+  </si>
+  <si>
+    <t>Gallons per day of shower water usage (combined hot and cold water draw, delivered at 110F). If standard event schedules are used this value is ignored.</t>
+  </si>
+  <si>
+    <t>Gallons per day of bath water usage (combined hot and cold water draw, delivered at 110F). If standard event schedules are used this value is ignored.</t>
+  </si>
+  <si>
+    <t>Gallons per day of sinks water usage (combined hot and cold water draw, delivered at 110F). If standard event schedules are used this value is ignored.</t>
+  </si>
+  <si>
+    <t>Location of Showers, Sinks and Baths</t>
+  </si>
+  <si>
+    <t>Gallons per day of clothes washer usage (hot water only, delivered at the hot water setpoint). If standard event schedules are used this value is ignored.</t>
+  </si>
+  <si>
+    <t>Location of Clothes Washer</t>
+  </si>
+  <si>
+    <t>Gallons per day of dishwasher usage (hot water only, delivered at the hot water setpoint). If standard event schedules are used this value is ignored.</t>
+  </si>
+  <si>
+    <t>Location of Dishwasher</t>
+  </si>
+  <si>
+    <t>The average annual outside dry bulb temperature of the building's location (Deg F).</t>
+  </si>
+  <si>
+    <t>The minimum value of the monthly average temperatures of the building's location (Deg F).</t>
+  </si>
+  <si>
+    <t>The maximum value of the monthly average temperatures of the building's location (Deg F).</t>
+  </si>
+  <si>
+    <t>Include distribution and recirculation adjustments for draw schedules and internal gains</t>
+  </si>
+  <si>
+    <t>Primary location of the service hot water distribution piping.</t>
+  </si>
+  <si>
+    <t>The plumbing layout of the hot water distribution system. Trunk and branch uses a main trunk branch to supply various branch take-offs to specific fixtures. In the home run layout, all fixtures are fed from dedicated piping that runs directly from central manifolds.</t>
+  </si>
+  <si>
+    <t>The plumbing material.</t>
+  </si>
+  <si>
+    <t>The type of hot water recirculation control, if any. Timer recirculation assumes 16 hrs of daily pump operation (from 0600 to 2200). Demand recirculation assumes push button control at all non-appliance fixtures with 100% ideal control (button pushed for every draw event no false signals, and immediate use of hot water when it arrives at the fixture.</t>
+  </si>
+  <si>
+    <t>Nominal R value for hot water pipe insulation in units of Deg F-ft2-h/Btu. This variable is used to adjust the internal gains and fixture flows based on domestic hot water distribution description.</t>
+  </si>
+  <si>
+    <t>existing_plant_loop_name</t>
+  </si>
+  <si>
+    <t>using_standard_dhw_event_schedules</t>
+  </si>
+  <si>
+    <t>number_of_bedrooms</t>
+  </si>
+  <si>
+    <t>shower_gpd</t>
+  </si>
+  <si>
+    <t>bath_gpd</t>
+  </si>
+  <si>
+    <t>sinks_gpd</t>
+  </si>
+  <si>
+    <t>shower_sinks_bath_space_name</t>
+  </si>
+  <si>
+    <t>clothes_washer_gpd</t>
+  </si>
+  <si>
+    <t>clothes_washer_space_name</t>
+  </si>
+  <si>
+    <t>dishwasher_gpd</t>
+  </si>
+  <si>
+    <t>dishwasher_space_name</t>
+  </si>
+  <si>
+    <t>avg_annual_temp</t>
+  </si>
+  <si>
+    <t>min_monthly_avg_temp</t>
+  </si>
+  <si>
+    <t>max_monthly_avg_temp</t>
+  </si>
+  <si>
+    <t>using_distribution</t>
+  </si>
+  <si>
+    <t>distribution_location</t>
+  </si>
+  <si>
+    <t>pipe_material</t>
+  </si>
+  <si>
+    <t>recirculation_type</t>
+  </si>
+  <si>
+    <t>distribution_type</t>
+  </si>
+  <si>
+    <t>insulation_nominal_r_value</t>
+  </si>
+  <si>
+    <t>New Plant Loop</t>
+  </si>
+  <si>
+    <t>first floor living</t>
+  </si>
+  <si>
+    <t>Basement or Interior Space</t>
+  </si>
+  <si>
+    <t>Trunk and Branch</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>AddDistributionTimerAndRecirc</t>
+  </si>
+  <si>
+    <t>How will this measure be used?</t>
+  </si>
+  <si>
+    <t>Number of Bedrooms in the Proposed Home</t>
+  </si>
+  <si>
+    <t>Number of Bathrooms in the Proposed Home</t>
+  </si>
+  <si>
+    <t>Plant Loop to assign Water heater as a Supply Equipment</t>
+  </si>
+  <si>
+    <t>Volume of the Storage Tank (gallons) of the Gas Hot Water Heater. Set to 0 to have Storage tank volume autosized. This field is ignored for NCTH and B10 protocols.</t>
+  </si>
+  <si>
+    <t>Hot Water Temperature Setpoint (Deg F).</t>
+  </si>
+  <si>
+    <t>Thermal Zone where the Gas Storage Water Heater is located</t>
+  </si>
+  <si>
+    <t>The nominal capacity [kBtu/hr] of the gas storage water heater. Set to 0 to have this field autosized. This field is ignored for NCTH and B10 protocols.</t>
+  </si>
+  <si>
+    <t>Rated Energy Factor of Gas Storage Tank Water Heater. This field is ignored for NCTH and B10 protocols.</t>
+  </si>
+  <si>
+    <t>Rated Recovery Efficiency of the water heater equal to the ratio of energy delivered to the water to the energy content of the fuel consumed by the water heater. Test procedures to test recovery efficiency are defined by the DOE in 10 CFR Part 430, Appendix E to Subpart B. Enter a number between 0 and 1.0. This is used to calculate the thermal efficiency. Users wil need to review the E+out.eio file to confirm Calculated recovery efficiency - Rated recovery efficiency.</t>
+  </si>
+  <si>
+    <t>The Type of Fuel used for heating.</t>
+  </si>
+  <si>
+    <t>use_case</t>
+  </si>
+  <si>
+    <t>number_of_bathrooms</t>
+  </si>
+  <si>
+    <t>storage_tank_volume</t>
+  </si>
+  <si>
+    <t>shw_setpoint_temperature</t>
+  </si>
+  <si>
+    <t>water_heater_location</t>
+  </si>
+  <si>
+    <t>water_heater_capacity</t>
+  </si>
+  <si>
+    <t>rated_energy_factor</t>
+  </si>
+  <si>
+    <t>water_heater_recovery_efficiency</t>
+  </si>
+  <si>
+    <t>water_heater_fuel_type</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Avg Annual Outdoor Air Temperature (?F)</t>
+  </si>
+  <si>
+    <t>Max Difference in Monthly Outdoor Air Temp (?F)</t>
+  </si>
+  <si>
+    <t>avgOAT</t>
+  </si>
+  <si>
+    <t>maxDiffOAT</t>
+  </si>
+  <si>
+    <t>Thickness of drywall layers [in].</t>
+  </si>
+  <si>
+    <t>Number of drywall layers.</t>
+  </si>
+  <si>
+    <t>userdefinedgypthickness</t>
+  </si>
+  <si>
+    <t>userdefinedgyplayers</t>
+  </si>
+  <si>
+    <t>Wood stud size of wall cavity.</t>
+  </si>
+  <si>
+    <t>selectedstudsize</t>
+  </si>
+  <si>
+    <t>Wood stud spacing of wall cavity.</t>
+  </si>
+  <si>
+    <t>selectedspacing</t>
+  </si>
+  <si>
+    <t>Installed R-value of cavity insulation [hr-ft^2-R/Btu].</t>
+  </si>
+  <si>
+    <t>userdefinedinstcavr</t>
+  </si>
+  <si>
+    <t>Insulation installation grade of wood stud wall cavity.</t>
+  </si>
+  <si>
+    <t>selectedinstallgrade</t>
+  </si>
+  <si>
+    <t>Cavity insulation fills the cavity?</t>
+  </si>
+  <si>
+    <t>selectedinsfills</t>
+  </si>
+  <si>
+    <t>Rigid insulation thickness of wall cavity [in].</t>
+  </si>
+  <si>
+    <t>userdefinedrigidinsthickness</t>
+  </si>
+  <si>
+    <t>Rigid insulation R-value of wall cavity [hr-ft^2-R/Btu].</t>
+  </si>
+  <si>
+    <t>userdefinedrigidinsr</t>
+  </si>
+  <si>
+    <t>Wood stud wall has OSB sheathing?</t>
+  </si>
+  <si>
+    <t>userdefinedhasosb</t>
+  </si>
+  <si>
+    <t>Exterior finish thickness of wall cavity [in].</t>
+  </si>
+  <si>
+    <t>userdefinedextfinthickness</t>
+  </si>
+  <si>
+    <t>Exterior finish R-value of wall cavity [hr-ft^2-R/Btu].</t>
+  </si>
+  <si>
+    <t>userdefinedextfinr</t>
+  </si>
+  <si>
+    <t>Exterior finish density of wall cavity [lb/ft^3].</t>
+  </si>
+  <si>
+    <t>userdefinedextfindensity</t>
+  </si>
+  <si>
+    <t>Exterior finish specific heat of wall cavity [Btu/lb-R].</t>
+  </si>
+  <si>
+    <t>userdefinedextfinspecheat</t>
+  </si>
+  <si>
+    <t>Exterior finish emissivity of wall cavity.</t>
+  </si>
+  <si>
+    <t>userdefinedextfinthermalabs</t>
+  </si>
+  <si>
+    <t>Exterior finish absorptance of wall cavity.</t>
+  </si>
+  <si>
+    <t>userdefinedextfinabs</t>
+  </si>
+  <si>
+    <t>2x4</t>
+  </si>
+  <si>
+    <t>16 in o.c.</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Of what space type is the attic?</t>
+  </si>
+  <si>
+    <t>selectedattic</t>
+  </si>
+  <si>
+    <t>attic spacetype</t>
+  </si>
+  <si>
+    <t>Unfinished attic insulation type.</t>
+  </si>
+  <si>
+    <t>selecteduains</t>
+  </si>
+  <si>
+    <t>Unfinished attic ceiling or roof cavity insulation thickness [in].</t>
+  </si>
+  <si>
+    <t>userdefinedceilroofinsthickness</t>
+  </si>
+  <si>
+    <t>Unfinished attic ceiling or roof cavity insulation R-value [hr-ft^2-R/Btu].</t>
+  </si>
+  <si>
+    <t>userdefineduaceilroofr</t>
+  </si>
+  <si>
+    <t>Thickness of joists in the ceiling.</t>
+  </si>
+  <si>
+    <t>selecteduaceiljoistthickness</t>
+  </si>
+  <si>
+    <t>Unfinished attic ceiling framing factor [frac].</t>
+  </si>
+  <si>
+    <t>userdefineduaceilff</t>
+  </si>
+  <si>
+    <t>selecteduaroofframethickness</t>
+  </si>
+  <si>
+    <t>Unfinished attic roof framing factor [frac].</t>
+  </si>
+  <si>
+    <t>userdefineduaroofff</t>
+  </si>
+  <si>
+    <t>Rigid insulation thickness of roof cavity [in].</t>
+  </si>
+  <si>
+    <t>Rigid insulation R-value of roof cavity [hr-ft^2-R/Btu].</t>
+  </si>
+  <si>
+    <t>Roof has radiant barrier?</t>
+  </si>
+  <si>
+    <t>userdefinedhasradiantbarrier</t>
+  </si>
+  <si>
+    <t>Roofing material emissivity of unfinished attic.</t>
+  </si>
+  <si>
+    <t>Roofing material absorptance of unfinished attic.</t>
+  </si>
+  <si>
+    <t>userdefinedroofmatthermalabs</t>
+  </si>
+  <si>
+    <t>userdefinedroofmatabs</t>
+  </si>
+  <si>
+    <t>Of what space type is the garage?</t>
+  </si>
+  <si>
+    <t>selectedgarage</t>
+  </si>
+  <si>
+    <t>garage spacetype</t>
+  </si>
+  <si>
+    <t>Partition wall mass thickness [in].</t>
+  </si>
+  <si>
+    <t>userdefinedpartitionwallmassth</t>
+  </si>
+  <si>
+    <t>Partition wall mass conductivity [Btu-in/h-ft^2-R].</t>
+  </si>
+  <si>
+    <t>userdefinedpartitionwallmasscond</t>
+  </si>
+  <si>
+    <t>Partition wall mass density [lb/ft^3].</t>
+  </si>
+  <si>
+    <t>userdefinedpartitionwallmassdens</t>
+  </si>
+  <si>
+    <t>Partition wall mass specific heat [Btu/lb-R].</t>
+  </si>
+  <si>
+    <t>userdefinedpartitionwallmasssh</t>
+  </si>
+  <si>
+    <t>Of what space type is the finished basement?</t>
+  </si>
+  <si>
+    <t>selectedfbsmt</t>
+  </si>
+  <si>
+    <t>Floor mass thickness [in].</t>
+  </si>
+  <si>
+    <t>Floor mass conductivity [Btu-in/h-ft^2-R].</t>
+  </si>
+  <si>
+    <t>userdefinedfloormassth</t>
+  </si>
+  <si>
+    <t>userdefinedfloormasscond</t>
+  </si>
+  <si>
+    <t>Floor mass density [lb/ft^3].</t>
+  </si>
+  <si>
+    <t>Floor mass specific heat [Btu/lb-R].</t>
+  </si>
+  <si>
+    <t>userdefinedfloormassdens</t>
+  </si>
+  <si>
+    <t>userdefinedfloormasssh</t>
+  </si>
+  <si>
+    <t>R-value of cavity insulation [hr-ft^2-R/Btu].</t>
+  </si>
+  <si>
+    <t>Interzonal floor framing factor [frac].</t>
+  </si>
+  <si>
+    <t>userdefinedfloorff</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>U-Value [Btu/hr-ft^2-R].</t>
+  </si>
+  <si>
+    <t>SHGC.</t>
+  </si>
+  <si>
+    <t>Heating shade multiplier.</t>
+  </si>
+  <si>
+    <t>Cooling shade multiplier.</t>
+  </si>
+  <si>
+    <t>ufactor</t>
+  </si>
+  <si>
+    <t>shgc</t>
+  </si>
+  <si>
+    <t>userdefinedintshadeheatingmult</t>
+  </si>
+  <si>
+    <t>userdefinedintshadecoolingmult</t>
+  </si>
+  <si>
+    <t>Ratio of exposed partition wall area to total conditioned floor area and accounts for the area of both sides of partition walls.</t>
+  </si>
+  <si>
+    <t>The area of the living space [ft^2].</t>
+  </si>
+  <si>
+    <t>The area of the finished basement [ft^2].</t>
+  </si>
+  <si>
+    <t>userdefinedpartitionwallfrac</t>
+  </si>
+  <si>
+    <t>userdefinedlivingarea</t>
+  </si>
+  <si>
+    <t>userdefinedfbsmtarea</t>
+  </si>
+  <si>
+    <t>Of what space type is the unfinished basement?</t>
+  </si>
+  <si>
+    <t>selectedufbsmt</t>
+  </si>
+  <si>
+    <t>Select the living zone.</t>
+  </si>
+  <si>
+    <t>Enter the constant heating setpoint [F].</t>
+  </si>
+  <si>
+    <t>Enter the constant cooling setpoint [F].</t>
+  </si>
+  <si>
+    <t>The house has heating equipment.</t>
+  </si>
+  <si>
+    <t>The house has cooling equipment.</t>
+  </si>
+  <si>
+    <t>userdefinedhsp</t>
+  </si>
+  <si>
+    <t>userdefinedcsp</t>
+  </si>
+  <si>
+    <t>selectedheating</t>
+  </si>
+  <si>
+    <t>selectedcooling</t>
+  </si>
+  <si>
+    <t>Which is the living space zone?</t>
+  </si>
+  <si>
+    <t>Which is the finished basement zone?</t>
+  </si>
+  <si>
+    <t>The installed Annual Fuel Utilization Efficiency (AFUE) of the furnace, which can be used to account for performance derating or degradation relative to the rated value. [Btu/Btu].</t>
+  </si>
+  <si>
+    <t>Heating Output Capacity.</t>
+  </si>
+  <si>
+    <t>Maximum supply air temperature [F].</t>
+  </si>
+  <si>
+    <t>Type of fuel used for heating.</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>Central air conditioner option.</t>
+  </si>
+  <si>
+    <t>Cooling Output Capacity.</t>
+  </si>
+  <si>
+    <t>selectedac</t>
+  </si>
+  <si>
+    <t>selectedaccap</t>
+  </si>
+  <si>
+    <t>SEER 13</t>
+  </si>
+  <si>
+    <t>userdefinedafue</t>
+  </si>
+  <si>
+    <t>selectedfurnacecap</t>
+  </si>
+  <si>
+    <t>userdefinedmaxtemp</t>
+  </si>
+  <si>
+    <t>selectedfurnacefuel</t>
+  </si>
+  <si>
+    <t>Air exchange rate, in Air Changes per Hour at 50 Pascals (ACH50), for above-grade living space (including finished attic).</t>
+  </si>
+  <si>
+    <t>Air exchange rate, in natural Air Changes per Hour (ACH), for above-grade living space. Using this variable will override the AIM-2 calculation method with a constant air exchange rate.</t>
+  </si>
+  <si>
+    <t>The local shelter coefficient (AIM-2 infiltration model) accounts for nearby buildings, trees and obstructions.</t>
+  </si>
+  <si>
+    <t>Which is the garage zone?</t>
+  </si>
+  <si>
+    <t>Constant air exchange rate, in Air Changes per Hour (ACH), for the finished basement.</t>
+  </si>
+  <si>
+    <t>userdefinedinflivingspace</t>
+  </si>
+  <si>
+    <t>userdefinedconstinflivingspace</t>
+  </si>
+  <si>
+    <t>userdefinedinfsheltercoef</t>
+  </si>
+  <si>
+    <t>userdefinedinffbsmt</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Which is the unfinished basement zone?</t>
+  </si>
+  <si>
+    <t>Constant air exchange rate, in Air Changes per Hour (ACH), for the unfinished basement. A value of 0.10 ACH or greater is recommended for modeling Heat Pump Water Heaters in unfinished basements.</t>
+  </si>
+  <si>
+    <t>Which is the crawlspace zone?</t>
+  </si>
+  <si>
+    <t>Air exchange rate, in Air Changes per Hour at 50 Pascals (ACH50), for the crawlspace.</t>
+  </si>
+  <si>
+    <t>Which is the unfinished attic zone?</t>
+  </si>
+  <si>
+    <t>Ratio of the effective leakage area (infiltration and/or ventilation) in the unfinished attic to the total floor area of the attic.</t>
+  </si>
+  <si>
+    <t>userdefinedinfufbsmt</t>
+  </si>
+  <si>
+    <t>selectedcrawl</t>
+  </si>
+  <si>
+    <t>userdefinedinfcrawl</t>
+  </si>
+  <si>
+    <t>selectedunfinattic</t>
+  </si>
+  <si>
+    <t>userdefinedinfunfinattic</t>
+  </si>
+  <si>
+    <t>The minimum distance between the simulated house and the neighboring houses (not including eaves) [ft].</t>
+  </si>
+  <si>
+    <t>Age of home [yrs]. Enter 0 for new construction.</t>
+  </si>
+  <si>
+    <t>userdefinedneighboroffset</t>
+  </si>
+  <si>
+    <t>userdefinedhomeage</t>
+  </si>
+  <si>
+    <t>Site terrain type.</t>
+  </si>
+  <si>
+    <t>selectedterraintype</t>
+  </si>
+  <si>
+    <t>suburban</t>
+  </si>
+  <si>
+    <t>Ventilation strategy used (none, exhaust, supply, or balanced).</t>
+  </si>
+  <si>
+    <t>If True, the ASHRAE 62.2 infiltration credit will be included for buildings with infiltration that exceeds a default rate of 2 cfm per 100sqft of finished floor area.</t>
+  </si>
+  <si>
+    <t>The net total energy (sensible plus latent, also called enthalpy) recovered by the supply airstream adjusted by electric consumption, case heat loss or heat gain, air leakage and airflow mass imbalance between the two airstreams, as a percent of the potential total energy that could be recovered plys the exhaust fan energy.</t>
+  </si>
+  <si>
+    <t>The net sensible energy recovered by the supply airstream as adjusted by electric consumption, case heat loss or heat gain, air leakage, airflow mass imbalance between the two airstreams and the energy used for defrost (when running the Very Low Temperature Test), as a percent of the potential sensible energy that could be recovered plus the exhaust fan energy.</t>
+  </si>
+  <si>
+    <t>Fan power (in W) per delivered airflow rate (in cfm) of fan(s) providing whole house ventilation. If the house uses a balanced ventilation system thtere is assumed to be two fans operating at this efficiency.</t>
+  </si>
+  <si>
+    <t>Fraction of the ventilation rate (including any infiltration credit) specified by 2010 ASHRAE 62.2 that is desired in the bulding.</t>
+  </si>
+  <si>
+    <t>Rated flow capacity of the clothes dryer exhaust. This fan is assumed to run 60 min/day between 11am and 12pm.</t>
+  </si>
+  <si>
+    <t>selectedventtype</t>
+  </si>
+  <si>
+    <t>selectedinfilcredit</t>
+  </si>
+  <si>
+    <t>userdefinedtotaleff</t>
+  </si>
+  <si>
+    <t>userdefinedsenseff</t>
+  </si>
+  <si>
+    <t>userdefinedfanpower</t>
+  </si>
+  <si>
+    <t>userdefinedfracofashrae</t>
+  </si>
+  <si>
+    <t>userdefineddryerexhaust</t>
+  </si>
+  <si>
+    <t>The temperature offset below the hourly cooling setpoint, to which the living space is allowed to cool during months that are only in the heating season [F].</t>
+  </si>
+  <si>
+    <t>The temperature offset above the hourly heating setpoint, to which the living space is allowed to cool during months that are only in the cooling season [F].</t>
+  </si>
+  <si>
+    <t>The temperature offset above the maximum heating setpoint, to which the living space is allowed to cool during months that are in both the heating season and cooling season [F].</t>
+  </si>
+  <si>
+    <t>True if windows are allowed to be opened during months that are only in the heating season.</t>
+  </si>
+  <si>
+    <t>True if windows are allowed to be opened during months that are only in the cooling season.</t>
+  </si>
+  <si>
+    <t>True if windows are allowed to be opened during months that are in both the heating season and cooling season.</t>
+  </si>
+  <si>
+    <t>Number of weekdays in the week that natural ventilation can occur.</t>
+  </si>
+  <si>
+    <t>Specifies the fraction of the total openable window area in the building that is opened for ventilation.</t>
+  </si>
+  <si>
+    <t>Number of weekend days in the week that natural ventilation can occur.</t>
+  </si>
+  <si>
+    <t>Specifies the fraction of total window area in the home that can be opened (e.g. typical sliding windows can be opened to half of their area.</t>
+  </si>
+  <si>
+    <t>Outdoor air humidity ratio above which windows will not open for natural ventilation.</t>
+  </si>
+  <si>
+    <t>Outdoor air relative humidity (0-1) above which windows will not open for natural ventilation.</t>
+  </si>
+  <si>
+    <t>Number of bedrooms.</t>
+  </si>
+  <si>
+    <t>Number of bathrooms.</t>
+  </si>
+  <si>
+    <t>Finished floor area [ft^2].</t>
+  </si>
+  <si>
+    <t>Above grade finished floor area [ft^2].</t>
+  </si>
+  <si>
+    <t>Height of building [ft].</t>
+  </si>
+  <si>
+    <t>Number of stories.</t>
+  </si>
+  <si>
+    <t>Window area [ft^2].</t>
+  </si>
+  <si>
+    <t>Volume of living space [ft^3].</t>
+  </si>
+  <si>
+    <t>Height of living space [ft].</t>
+  </si>
+  <si>
+    <t>Area of living space [ft^2].</t>
+  </si>
+  <si>
+    <t>Volume of unfinished attic [ft^3].</t>
+  </si>
+  <si>
+    <t>Height of unfinished attic [ft].</t>
+  </si>
+  <si>
+    <t>Area of unfinished attic [ft^2].</t>
+  </si>
+  <si>
+    <t>Volume of crawlspace [ft^3].</t>
+  </si>
+  <si>
+    <t>Height of crawlspace [ft].</t>
+  </si>
+  <si>
+    <t>Area of crawlspace [ft^2].</t>
+  </si>
+  <si>
+    <t>Volume of garage [ft^3].</t>
+  </si>
+  <si>
+    <t>Height of garage [ft].</t>
+  </si>
+  <si>
+    <t>Area of garage [ft^2].</t>
+  </si>
+  <si>
+    <t>Volume of finished basement [ft^3].</t>
+  </si>
+  <si>
+    <t>Height of finished basement [ft].</t>
+  </si>
+  <si>
+    <t>Area of finished basement [ft^2].</t>
+  </si>
+  <si>
+    <t>Volume of unfinished basement [ft^3].</t>
+  </si>
+  <si>
+    <t>Height of unfinished basement [ft].</t>
+  </si>
+  <si>
+    <t>Area of unfinished basement [ft^2].</t>
+  </si>
+  <si>
+    <t>userdefinedhtgoffset</t>
+  </si>
+  <si>
+    <t>userdefinedclgoffset</t>
+  </si>
+  <si>
+    <t>userdefinedovlpoffset</t>
+  </si>
+  <si>
+    <t>selectedheatingssn</t>
+  </si>
+  <si>
+    <t>selectedcoolingssn</t>
+  </si>
+  <si>
+    <t>selectedoverlapssn</t>
+  </si>
+  <si>
+    <t>userdefinedventweekdays</t>
+  </si>
+  <si>
+    <t>userdefinedventweekenddays</t>
+  </si>
+  <si>
+    <t>userdefinedfracwinopen</t>
+  </si>
+  <si>
+    <t>userdefinedfracwinareaopen</t>
+  </si>
+  <si>
+    <t>userdefinedhumratio</t>
+  </si>
+  <si>
+    <t>userdefinedrelhumratio</t>
+  </si>
+  <si>
+    <t>num_bedrooms</t>
+  </si>
+  <si>
+    <t>num_bathrooms</t>
+  </si>
+  <si>
+    <t>finished_floor_area</t>
+  </si>
+  <si>
+    <t>above_grade_finished_floor_area</t>
+  </si>
+  <si>
+    <t>building_height</t>
+  </si>
+  <si>
+    <t>stories</t>
+  </si>
+  <si>
+    <t>window_area</t>
+  </si>
+  <si>
+    <t>livingspacevolume</t>
+  </si>
+  <si>
+    <t>livingspaceheight</t>
+  </si>
+  <si>
+    <t>livingspacearea</t>
+  </si>
+  <si>
+    <t>uavolume</t>
+  </si>
+  <si>
+    <t>uaheight</t>
+  </si>
+  <si>
+    <t>uaarea</t>
+  </si>
+  <si>
+    <t>cvolume</t>
+  </si>
+  <si>
+    <t>cheight</t>
+  </si>
+  <si>
+    <t>carea</t>
+  </si>
+  <si>
+    <t>gvolume</t>
+  </si>
+  <si>
+    <t>gheight</t>
+  </si>
+  <si>
+    <t>garea</t>
+  </si>
+  <si>
+    <t>fbvolume</t>
+  </si>
+  <si>
+    <t>fbheight</t>
+  </si>
+  <si>
+    <t>fbarea</t>
+  </si>
+  <si>
+    <t>ufbvolume</t>
+  </si>
+  <si>
+    <t>ufbheight</t>
+  </si>
+  <si>
+    <t>ufbarea</t>
+  </si>
+  <si>
+    <t>ProcessGroundTemperature</t>
+  </si>
+  <si>
+    <t>AddBuildingAmericaBenchmarkOccupants</t>
+  </si>
+  <si>
+    <t>Select the space where the occupants is located</t>
+  </si>
+  <si>
+    <t>NumBr</t>
+  </si>
+  <si>
+    <t>ResidentialLighting</t>
+  </si>
+  <si>
+    <t>Lighting Energy Consumption Option</t>
+  </si>
+  <si>
+    <t>Simple Interior Lighting Annual Energy Consumption (kWh/yr)</t>
+  </si>
+  <si>
+    <t>Building has exterior lighting</t>
+  </si>
+  <si>
+    <t>Building has a garage?</t>
+  </si>
+  <si>
+    <t>Building has a finished basement?</t>
+  </si>
+  <si>
+    <t>Conditioned Floor Area (including basement if finished) (ft^2)</t>
+  </si>
+  <si>
+    <t>Garage Floor Area (ft^2)</t>
+  </si>
+  <si>
+    <t>Finished Basement Floor Area (ft^2)</t>
+  </si>
+  <si>
+    <t>Hardwired Fraction CFL</t>
+  </si>
+  <si>
+    <t>Hardwired Fraction LED</t>
+  </si>
+  <si>
+    <t>Hardwired Fraction LFL</t>
+  </si>
+  <si>
+    <t>Plugin Fraction CFL</t>
+  </si>
+  <si>
+    <t>Plugin Fraction LED</t>
+  </si>
+  <si>
+    <t>Plugin Fraction LFL</t>
+  </si>
+  <si>
+    <t>Incandescent Efficacy (lm/W))</t>
+  </si>
+  <si>
+    <t>CFL Efficacy (lm/W))</t>
+  </si>
+  <si>
+    <t>LED Efficacy (lm/W))</t>
+  </si>
+  <si>
+    <t>LFL Efficacy (lm/W))</t>
+  </si>
+  <si>
+    <t>Select the space where the interior lighting is located</t>
+  </si>
+  <si>
+    <t>Select the garage space</t>
+  </si>
+  <si>
+    <t>Select the finished basement space</t>
+  </si>
+  <si>
+    <t>selected_ltg</t>
+  </si>
+  <si>
+    <t>ltg_E</t>
+  </si>
+  <si>
+    <t>outside_ltg</t>
+  </si>
+  <si>
+    <t>garage_ltg</t>
+  </si>
+  <si>
+    <t>fb_ltg</t>
+  </si>
+  <si>
+    <t>cfa</t>
+  </si>
+  <si>
+    <t>gfa</t>
+  </si>
+  <si>
+    <t>fbfa</t>
+  </si>
+  <si>
+    <t>hw_cfl</t>
+  </si>
+  <si>
+    <t>hw_lfl</t>
+  </si>
+  <si>
+    <t>pg_cfl</t>
+  </si>
+  <si>
+    <t>pg_led</t>
+  </si>
+  <si>
+    <t>pg_lfl</t>
+  </si>
+  <si>
+    <t>in_eff</t>
+  </si>
+  <si>
+    <t>cfl_eff</t>
+  </si>
+  <si>
+    <t>led_eff</t>
+  </si>
+  <si>
+    <t>lfl_eff</t>
+  </si>
+  <si>
+    <t>grg_space_type</t>
+  </si>
+  <si>
+    <t>fb_space_type</t>
+  </si>
+  <si>
+    <t>hw_led</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Service Hot Water Loop</t>
+  </si>
+  <si>
+    <t>4.0 tons</t>
+  </si>
+  <si>
+    <t>120 kBtu/hr</t>
+  </si>
+  <si>
+    <t>garage</t>
+  </si>
+  <si>
+    <t>attic</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>discrete</t>
   </si>
   <si>
-    <t>doe</t>
-  </si>
-  <si>
-    <t>full_factorial</t>
-  </si>
-  <si>
-    <t>../../measures</t>
-  </si>
-  <si>
-    <t>../measures</t>
-  </si>
-  <si>
-    <t>jrobert1</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>OpenStudio-BEopt - slab</t>
-  </si>
-  <si>
-    <t>Process Constructions Slab</t>
-  </si>
-  <si>
-    <t>ProcessConstructionsSlab</t>
-  </si>
-  <si>
-    <t>Of what space type is the living space?</t>
-  </si>
-  <si>
-    <t>Slab insulation type.</t>
-  </si>
-  <si>
-    <t>Slab perimeter insulation R-value or exterior insulation R-value [hr-ft^2-R/Btu].</t>
-  </si>
-  <si>
-    <t>Slab perimeter insulation width or exterior insulation depth [ft].</t>
-  </si>
-  <si>
-    <t>Perimeter gap R-value or whole slab gap R-value [hr-ft^2-R/Btu].</t>
-  </si>
-  <si>
-    <t>Whole slab insulation R-value [hr-ft^2-R/Btu].</t>
-  </si>
-  <si>
-    <t>Carpet pad R-value [hr-ft^2-R/Btu].</t>
-  </si>
-  <si>
-    <t>Carpet floor fraction [frac].</t>
-  </si>
-  <si>
-    <t>Area of the slab foundation [ft^2].</t>
-  </si>
-  <si>
-    <t>userdefinedslabarea</t>
-  </si>
-  <si>
-    <t>Perimeter of the slab foundation [ft].</t>
-  </si>
-  <si>
-    <t>userdefinedslabextperim</t>
-  </si>
-  <si>
-    <t>living</t>
-  </si>
-  <si>
-    <t>selectedliving</t>
-  </si>
-  <si>
-    <t>selectedslabins</t>
-  </si>
-  <si>
-    <t>userdefinedslabperiextr</t>
-  </si>
-  <si>
-    <t>userdefinedslabperiextwidthdepth</t>
-  </si>
-  <si>
-    <t>userdefinedslabgapr</t>
-  </si>
-  <si>
-    <t>userdefinedslabwholer</t>
-  </si>
-  <si>
-    <t>userdefinedcarpetr</t>
-  </si>
-  <si>
-    <t>userdefinedcarpetfrac</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1200.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>[2.08, 2.08]</t>
-  </si>
-  <si>
-    <t>[0.8, 0.8]</t>
-  </si>
-  <si>
-    <t>../weather/USA_CO_Denver.Intl.AP.725650_TMY3.epw</t>
-  </si>
-  <si>
-    <t>../../geometries/Res_Garage_IZFloor_slab_windows_fix2.osm</t>
+    <t>ModifySiteWaterMainsTemperature</t>
+  </si>
+  <si>
+    <t>|0.5, 0.51|</t>
+  </si>
+  <si>
+    <t>|1, 2|</t>
+  </si>
+  <si>
+    <t>[0.5, 0.51]</t>
+  </si>
+  <si>
+    <t>[1, 2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2353,14 +3718,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF008000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2429,6 +3788,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4246,7 +5611,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4321,11 +5686,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4344,17 +5704,27 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1801">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6492,8 +7862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6540,7 +7910,7 @@
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
@@ -6562,7 +7932,7 @@
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
@@ -6633,7 +8003,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6644,7 +8014,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="31" t="s">
@@ -6656,7 +8026,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="31" t="s">
@@ -6736,7 +8106,7 @@
         <v>451</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -6765,10 +8135,10 @@
         <v>697</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D25" s="33"/>
     </row>
@@ -6845,7 +8215,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -6874,7 +8244,7 @@
         <v>643</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>687</v>
@@ -6927,17 +8297,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z111"/>
+  <dimension ref="A1:Z302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="41" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" style="31" bestFit="1" customWidth="1"/>
@@ -6987,14 +8357,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7009,7 +8379,7 @@
       <c r="D2" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="F2" s="46"/>
+      <c r="F2" s="43"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7029,7 +8399,7 @@
       <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="44" t="s">
         <v>689</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -7090,213 +8460,201 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="36" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="b">
+    <row r="4" spans="1:26" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>707</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>707</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="48" t="s">
+        <v>752</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>752</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>709</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>733</v>
-      </c>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>710</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="P7" s="57"/>
+      <c r="I5" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>889</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>891</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="K6" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="57">
+        <v>0.51</v>
+      </c>
+      <c r="M6" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="57">
+        <v>1</v>
+      </c>
+      <c r="P6" s="57" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R6" s="57" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>890</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>892</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="58">
+        <v>1</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K7" s="57">
+        <v>1</v>
+      </c>
+      <c r="L7" s="57">
+        <v>2</v>
+      </c>
+      <c r="M7" s="57">
+        <v>1</v>
+      </c>
+      <c r="N7" s="57">
+        <v>1</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R7" s="57" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>711</v>
+        <v>893</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>724</v>
+        <v>894</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="P8" s="57"/>
+        <v>62</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>712</v>
+        <v>895</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>725</v>
+        <v>896</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="P9" s="57"/>
+        <v>62</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>713</v>
+        <v>897</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>726</v>
+        <v>898</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="P10" s="57"/>
-    </row>
-    <row r="11" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>714</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>727</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>729</v>
-      </c>
-      <c r="K11" s="54">
-        <v>2.08</v>
-      </c>
-      <c r="L11" s="54">
-        <v>2.08</v>
-      </c>
-      <c r="M11" s="54">
-        <v>2.09</v>
-      </c>
-      <c r="N11" s="54">
-        <v>1</v>
-      </c>
-      <c r="P11" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="R11" s="54" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>715</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>728</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>730</v>
-      </c>
-      <c r="K12" s="54">
-        <v>0.8</v>
-      </c>
-      <c r="L12" s="54">
-        <v>0.8</v>
-      </c>
-      <c r="M12" s="54">
-        <v>0.8</v>
-      </c>
-      <c r="N12" s="54">
-        <v>1</v>
-      </c>
-      <c r="P12" s="54" t="s">
-        <v>735</v>
-      </c>
-      <c r="R12" s="54" t="s">
-        <v>698</v>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>899</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>900</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>901</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -7304,646 +8662,5022 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>716</v>
+        <v>903</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>717</v>
+        <v>904</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="57" t="s">
-        <v>731</v>
-      </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="P13" s="57"/>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>907</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>908</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>909</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>910</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>911</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>912</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>913</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>914</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="4">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>915</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>917</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>918</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>919</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>920</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>735</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>735</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>735</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="55"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>924</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="G23" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>948</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>949</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>753</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>753</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>753</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>924</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>925</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>927</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>928</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>929</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>930</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>931</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>932</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>933</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>934</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>935</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>936</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>933</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>937</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="4">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>938</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>939</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>940</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>941</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>942</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>943</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>889</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>891</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>890</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>892</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>944</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>946</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>945</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>947</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>948</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>949</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>951</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>952</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>953</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>954</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1.1112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>955</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>956</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>957</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>958</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>893</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>894</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>895</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>896</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>897</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>898</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>899</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>900</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>901</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>903</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="C56" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="E56" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>948</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>949</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>740</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>740</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>740</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>959</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>989</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>990</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>948</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>949</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="E64" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>774</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I68" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="4">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>788</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I73" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I74" s="4">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>783</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B76" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="C76" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="E76" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>756</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>766</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>767</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I81" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>761</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I84" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>764</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B86" s="48" t="s">
+        <v>748</v>
+      </c>
+      <c r="C86" s="48" t="s">
+        <v>748</v>
+      </c>
+      <c r="D86" s="48" t="s">
+        <v>748</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I90" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B92" s="48" t="s">
+        <v>746</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>746</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>746</v>
+      </c>
+      <c r="E92" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I95" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G98" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="48" t="s">
+        <v>749</v>
+      </c>
+      <c r="C99" s="48" t="s">
+        <v>815</v>
+      </c>
+      <c r="D99" s="48" t="s">
+        <v>749</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I99" s="50"/>
+      <c r="J99" s="50"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="E101" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="G102" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G103" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B104" s="48" t="s">
+        <v>747</v>
+      </c>
+      <c r="C104" s="48" t="s">
+        <v>747</v>
+      </c>
+      <c r="D104" s="48" t="s">
+        <v>747</v>
+      </c>
+      <c r="E104" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I104" s="50"/>
+      <c r="J104" s="50"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="G106" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I107" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="G108" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I109" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G110" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B111" s="48" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C111" s="48" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D111" s="48" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E111" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I111" s="50"/>
+      <c r="J111" s="50"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="E112" s="31" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G112" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G113" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B114" s="48" t="s">
+        <v>751</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>751</v>
+      </c>
+      <c r="D114" s="48" t="s">
+        <v>751</v>
+      </c>
+      <c r="E114" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I114" s="50"/>
+      <c r="J114" s="50"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="G115" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="G116" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I116" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="G117" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I117" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>866</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="G118" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>876</v>
+      </c>
+      <c r="G119" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I119" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="G120" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I120" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="E121" s="31" t="s">
+        <v>878</v>
+      </c>
+      <c r="G121" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>879</v>
+      </c>
+      <c r="G122" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I122" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="E123" s="31" t="s">
+        <v>880</v>
+      </c>
+      <c r="G123" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I123" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="E124" s="31" t="s">
+        <v>881</v>
+      </c>
+      <c r="G124" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I124" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="E125" s="31" t="s">
+        <v>882</v>
+      </c>
+      <c r="G125" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B126" s="48" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C126" s="48" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D126" s="48" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E126" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I126" s="50"/>
+      <c r="J126" s="50"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>885</v>
+      </c>
+      <c r="E127" s="31" t="s">
+        <v>887</v>
+      </c>
+      <c r="G127" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I127" s="4">
+        <v>49.57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>886</v>
+      </c>
+      <c r="E128" s="31" t="s">
+        <v>888</v>
+      </c>
+      <c r="G128" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I128" s="4">
+        <v>41.06</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B129" s="48" t="s">
+        <v>741</v>
+      </c>
+      <c r="C129" s="48" t="s">
+        <v>741</v>
+      </c>
+      <c r="D129" s="48" t="s">
+        <v>741</v>
+      </c>
+      <c r="E129" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I129" s="50"/>
+      <c r="J129" s="50"/>
+    </row>
+    <row r="130" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B130" s="48" t="s">
+        <v>742</v>
+      </c>
+      <c r="C130" s="48" t="s">
+        <v>742</v>
+      </c>
+      <c r="D130" s="48" t="s">
+        <v>742</v>
+      </c>
+      <c r="E130" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I130" s="50"/>
+      <c r="J130" s="50"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>991</v>
+      </c>
+      <c r="E131" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G131" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>992</v>
+      </c>
+      <c r="E132" s="31" t="s">
+        <v>996</v>
+      </c>
+      <c r="G132" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I132" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>993</v>
+      </c>
+      <c r="E133" s="31" t="s">
+        <v>997</v>
+      </c>
+      <c r="G133" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I133" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>994</v>
+      </c>
+      <c r="E134" s="31" t="s">
+        <v>998</v>
+      </c>
+      <c r="G134" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I134" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>995</v>
+      </c>
+      <c r="E135" s="31" t="s">
+        <v>999</v>
+      </c>
+      <c r="G135" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I135" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B136" s="48" t="s">
+        <v>744</v>
+      </c>
+      <c r="C136" s="48" t="s">
+        <v>744</v>
+      </c>
+      <c r="D136" s="48" t="s">
+        <v>744</v>
+      </c>
+      <c r="E136" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I136" s="50"/>
+      <c r="J136" s="50"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E137" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G137" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E138" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="G138" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E139" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G139" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E140" s="31" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G140" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B141" s="48" t="s">
+        <v>743</v>
+      </c>
+      <c r="C141" s="48" t="s">
+        <v>743</v>
+      </c>
+      <c r="D141" s="48" t="s">
+        <v>743</v>
+      </c>
+      <c r="E141" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I141" s="50"/>
+      <c r="J141" s="50"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E142" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G142" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="31" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E143" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="G143" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E144" s="31" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G144" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I144" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E145" s="31" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G145" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G146" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I146" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E147" s="31" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G147" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B148" s="48" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C148" s="48" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D148" s="48" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E148" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I148" s="50"/>
+      <c r="J148" s="50"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" s="31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E149" s="31" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G149" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" s="31" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E150" s="31" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G150" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E151" s="31" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G151" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I151" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="31" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E152" s="31" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G152" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I152" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" s="31" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E153" s="31" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G153" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I153" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E154" s="31" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G154" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I154" s="4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E155" s="31" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G155" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I155" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E156" s="31" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G156" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I156" s="4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" s="31" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E157" s="31" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G157" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" s="31" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E158" s="31" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G158" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="31" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E159" s="31" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G159" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" s="31" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E160" s="31" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G160" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" s="31" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E161" s="31" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G161" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="31" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E162" s="31" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G162" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="31" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E163" s="31" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G163" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I163" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="31" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E164" s="31" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G164" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I164" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" s="31" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E165" s="31" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G165" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I165" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="31" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E166" s="31" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G166" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I166" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="31" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E167" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G167" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" s="31" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E168" s="31" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G168" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D169" s="31" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E169" s="31" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G169" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B170" s="48" t="s">
+        <v>739</v>
+      </c>
+      <c r="C170" s="48" t="s">
+        <v>739</v>
+      </c>
+      <c r="D170" s="48" t="s">
+        <v>739</v>
+      </c>
+      <c r="E170" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I170" s="50"/>
+      <c r="J170" s="50"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E171" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G171" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172" s="31" t="s">
+        <v>959</v>
+      </c>
+      <c r="E172" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="G172" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173" s="31" t="s">
+        <v>951</v>
+      </c>
+      <c r="E173" s="31" t="s">
+        <v>952</v>
+      </c>
+      <c r="G173" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I173" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" s="31" t="s">
+        <v>953</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>954</v>
+      </c>
+      <c r="G174" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I174" s="4">
+        <v>1.1112</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175" s="31" t="s">
+        <v>955</v>
+      </c>
+      <c r="E175" s="31" t="s">
+        <v>956</v>
+      </c>
+      <c r="G175" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I175" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176" s="31" t="s">
+        <v>957</v>
+      </c>
+      <c r="E176" s="31" t="s">
+        <v>958</v>
+      </c>
+      <c r="G176" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I176" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" s="31" t="s">
+        <v>983</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>986</v>
+      </c>
+      <c r="G177" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I177" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" s="31" t="s">
+        <v>984</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>987</v>
+      </c>
+      <c r="G178" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I178" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="31" t="s">
+        <v>985</v>
+      </c>
+      <c r="E179" s="31" t="s">
+        <v>988</v>
+      </c>
+      <c r="G179" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I179" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B180" s="48" t="s">
+        <v>734</v>
+      </c>
+      <c r="C180" s="48" t="s">
+        <v>734</v>
+      </c>
+      <c r="D180" s="48" t="s">
+        <v>734</v>
+      </c>
+      <c r="E180" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H180" s="50"/>
+      <c r="I180" s="50"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G181" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182" s="31" t="s">
+        <v>948</v>
+      </c>
+      <c r="E182" s="31" t="s">
+        <v>949</v>
+      </c>
+      <c r="G182" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="31" t="s">
+        <v>969</v>
+      </c>
+      <c r="E183" s="31" t="s">
+        <v>898</v>
+      </c>
+      <c r="G183" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I183" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" s="31" t="s">
+        <v>970</v>
+      </c>
+      <c r="E184" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="G184" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I184" s="31">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B185" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" s="31" t="s">
+        <v>961</v>
+      </c>
+      <c r="E185" s="31" t="s">
+        <v>963</v>
+      </c>
+      <c r="G185" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I185" s="4">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="31" t="s">
+        <v>962</v>
+      </c>
+      <c r="E186" s="31" t="s">
+        <v>964</v>
+      </c>
+      <c r="G186" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I186" s="4">
+        <v>0.8004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" s="31" t="s">
+        <v>965</v>
+      </c>
+      <c r="E187" s="31" t="s">
+        <v>967</v>
+      </c>
+      <c r="G187" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I187" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D188" s="31" t="s">
+        <v>966</v>
+      </c>
+      <c r="E188" s="31" t="s">
+        <v>968</v>
+      </c>
+      <c r="G188" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I188" s="31">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E189" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="G189" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I189" s="4">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="E190" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="G190" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I190" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B191" s="49" t="s">
+        <v>705</v>
+      </c>
+      <c r="C191" s="49" t="s">
+        <v>705</v>
+      </c>
+      <c r="D191" s="49" t="s">
+        <v>705</v>
+      </c>
+      <c r="E191" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F191" s="48"/>
+      <c r="H191" s="56"/>
+      <c r="I191" s="56"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B192" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G192" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I192" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="J192" s="31"/>
+    </row>
+    <row r="193" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D193" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="E193" s="31" t="s">
         <v>719</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>732</v>
-      </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="P14" s="57"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H15" s="4"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H16" s="4"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H17" s="4"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I18" s="31"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="6:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="31"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-    </row>
-    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I20" s="31"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I21" s="31"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I22" s="31"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I23" s="31"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H24" s="4"/>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I25" s="31"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H26" s="4"/>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I27" s="31"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H28" s="4"/>
-      <c r="J28" s="31"/>
-    </row>
-    <row r="29" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I29" s="31"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H30" s="4"/>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I31" s="31"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H32" s="4"/>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I33" s="31"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H34" s="4"/>
-      <c r="J34" s="31"/>
-    </row>
-    <row r="35" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I35" s="31"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H36" s="4"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I37" s="31"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="I38" s="31"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H39" s="4"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F40" s="51"/>
-      <c r="I40" s="31"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F41" s="51"/>
-      <c r="I41" s="31"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F42" s="51"/>
-      <c r="I42" s="31"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F43" s="51"/>
-      <c r="I43" s="31"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H44" s="4"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F45" s="51"/>
-      <c r="I45" s="31"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F46" s="51"/>
-      <c r="I46" s="31"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F47" s="51"/>
-      <c r="I47" s="31"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H48" s="4"/>
-      <c r="J48" s="31"/>
-    </row>
-    <row r="49" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F49" s="51"/>
-      <c r="I49" s="31"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F50" s="51"/>
-      <c r="I50" s="31"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F51" s="51"/>
-      <c r="I51" s="31"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F52" s="51"/>
-      <c r="I52" s="31"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="H53" s="4"/>
-      <c r="J53" s="31"/>
-    </row>
-    <row r="54" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F54" s="51"/>
-      <c r="I54" s="31"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F55" s="51"/>
-      <c r="I55" s="31"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F56" s="51"/>
-      <c r="I56" s="31"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="H57" s="4"/>
-      <c r="J57" s="31"/>
-    </row>
-    <row r="58" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="H58" s="4"/>
-      <c r="J58" s="31"/>
-    </row>
-    <row r="59" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="J59" s="31"/>
-    </row>
-    <row r="60" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="J60" s="31"/>
-    </row>
-    <row r="61" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="J61" s="31"/>
-    </row>
-    <row r="62" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="31"/>
-    </row>
-    <row r="63" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="H63" s="4"/>
-      <c r="J63" s="31"/>
-    </row>
-    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="H64" s="4"/>
-      <c r="J64" s="31"/>
-    </row>
-    <row r="65" spans="8:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I65" s="52"/>
-      <c r="J65" s="31"/>
-    </row>
-    <row r="66" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="R66" s="53"/>
-    </row>
-    <row r="67" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="R67" s="53"/>
-    </row>
-    <row r="68" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H68" s="4"/>
-      <c r="J68" s="31"/>
-    </row>
-    <row r="69" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I69" s="31"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="2"/>
-    </row>
-    <row r="70" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="53"/>
-    </row>
-    <row r="71" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-    </row>
-    <row r="72" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-    </row>
-    <row r="73" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-    </row>
-    <row r="74" spans="8:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I74" s="52"/>
-      <c r="J74" s="31"/>
-    </row>
-    <row r="75" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="R75" s="53"/>
-    </row>
-    <row r="76" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H76" s="4"/>
-      <c r="J76" s="31"/>
-    </row>
-    <row r="77" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I77" s="31"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="2"/>
-    </row>
-    <row r="78" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="53"/>
-    </row>
-    <row r="79" spans="8:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I79" s="52"/>
-      <c r="J79" s="31"/>
-    </row>
-    <row r="80" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="R80" s="53"/>
-    </row>
-    <row r="81" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H81" s="4"/>
-      <c r="J81" s="31"/>
-    </row>
-    <row r="82" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="53"/>
-    </row>
-    <row r="83" spans="8:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I83" s="52"/>
-      <c r="J83" s="31"/>
-    </row>
-    <row r="84" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="R84" s="53"/>
-    </row>
-    <row r="85" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H85" s="4"/>
-      <c r="J85" s="31"/>
-    </row>
-    <row r="86" spans="8:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I86" s="52"/>
-      <c r="J86" s="31"/>
-    </row>
-    <row r="87" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
-      <c r="R87" s="53"/>
-    </row>
-    <row r="88" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H88" s="4"/>
-      <c r="J88" s="31"/>
-    </row>
-    <row r="89" spans="8:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I89" s="52"/>
-      <c r="J89" s="31"/>
-    </row>
-    <row r="90" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-      <c r="R90" s="53"/>
-    </row>
-    <row r="91" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H91" s="4"/>
-      <c r="J91" s="31"/>
-    </row>
-    <row r="92" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="53"/>
-    </row>
-    <row r="93" spans="8:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I93" s="52"/>
-      <c r="J93" s="31"/>
-    </row>
-    <row r="94" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
-      <c r="R94" s="53"/>
-    </row>
-    <row r="95" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
-    </row>
-    <row r="96" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-    </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
-    </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-    </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
-    </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
-    </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
-    </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I102" s="31"/>
-      <c r="J102" s="31"/>
-    </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I103" s="31"/>
-      <c r="J103" s="31"/>
-    </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
-    </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
-    </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
-    </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
-    </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
-    </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
-    </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
-    </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
+      <c r="G193" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I193" s="31" t="s">
+        <v>755</v>
+      </c>
+      <c r="J193" s="31"/>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B194" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="G194" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I194" s="47" t="s">
+        <v>972</v>
+      </c>
+      <c r="J194" s="31"/>
+      <c r="K194" s="47"/>
+      <c r="L194" s="47"/>
+      <c r="M194" s="47"/>
+      <c r="N194" s="47"/>
+      <c r="P194" s="47"/>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B195" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D195" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="E195" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="G195" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I195" s="47" t="s">
+        <v>972</v>
+      </c>
+      <c r="J195" s="31"/>
+      <c r="K195" s="47"/>
+      <c r="L195" s="47"/>
+      <c r="M195" s="47"/>
+      <c r="N195" s="47"/>
+      <c r="P195" s="47"/>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B196" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D196" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="G196" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I196" s="47" t="s">
+        <v>972</v>
+      </c>
+      <c r="J196" s="31"/>
+      <c r="K196" s="47"/>
+      <c r="L196" s="47"/>
+      <c r="M196" s="47"/>
+      <c r="N196" s="47"/>
+      <c r="P196" s="47"/>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B197" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="E197" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="G197" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I197" s="47" t="s">
+        <v>972</v>
+      </c>
+      <c r="J197" s="31"/>
+      <c r="K197" s="47"/>
+      <c r="L197" s="47"/>
+      <c r="M197" s="47"/>
+      <c r="N197" s="47"/>
+      <c r="P197" s="47"/>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B198" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E198" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="G198" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I198" s="51" t="s">
+        <v>726</v>
+      </c>
+      <c r="J198" s="31"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B199" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="E199" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="G199" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I199" s="51" t="s">
+        <v>727</v>
+      </c>
+      <c r="J199" s="31"/>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B200" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D200" s="31" t="s">
+        <v>714</v>
+      </c>
+      <c r="E200" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="G200" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I200" s="47" t="s">
+        <v>973</v>
+      </c>
+      <c r="J200" s="31"/>
+      <c r="K200" s="47"/>
+      <c r="L200" s="47"/>
+      <c r="M200" s="47"/>
+      <c r="N200" s="47"/>
+      <c r="P200" s="47"/>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B201" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D201" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="E201" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="G201" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I201" s="47" t="s">
+        <v>974</v>
+      </c>
+      <c r="J201" s="31"/>
+      <c r="K201" s="47"/>
+      <c r="L201" s="47"/>
+      <c r="M201" s="47"/>
+      <c r="N201" s="47"/>
+      <c r="P201" s="47"/>
+    </row>
+    <row r="202" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B202" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="C202" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="D202" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="E202" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H202" s="50"/>
+      <c r="I202" s="50"/>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B203" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D203" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E203" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G203" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B204" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D204" s="31" t="s">
+        <v>959</v>
+      </c>
+      <c r="E204" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="G204" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B205" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D205" s="31" t="s">
+        <v>889</v>
+      </c>
+      <c r="E205" s="31" t="s">
+        <v>891</v>
+      </c>
+      <c r="G205" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I205" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B206" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D206" s="31" t="s">
+        <v>890</v>
+      </c>
+      <c r="E206" s="31" t="s">
+        <v>892</v>
+      </c>
+      <c r="G206" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I206" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B207" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D207" s="31" t="s">
+        <v>961</v>
+      </c>
+      <c r="E207" s="31" t="s">
+        <v>963</v>
+      </c>
+      <c r="G207" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I207" s="4">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B208" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D208" s="31" t="s">
+        <v>962</v>
+      </c>
+      <c r="E208" s="31" t="s">
+        <v>964</v>
+      </c>
+      <c r="G208" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I208" s="4">
+        <v>0.8004</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B209" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D209" s="31" t="s">
+        <v>965</v>
+      </c>
+      <c r="E209" s="31" t="s">
+        <v>967</v>
+      </c>
+      <c r="G209" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I209" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B210" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" s="31" t="s">
+        <v>966</v>
+      </c>
+      <c r="E210" s="31" t="s">
+        <v>968</v>
+      </c>
+      <c r="G210" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I210" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B211" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E211" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="G211" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I211" s="4">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D212" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="E212" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="G212" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I212" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B213" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="C213" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="D213" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="E213" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I213" s="50"/>
+      <c r="J213" s="50"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D214" s="31" t="s">
+        <v>948</v>
+      </c>
+      <c r="E214" s="31" t="s">
+        <v>949</v>
+      </c>
+      <c r="G214" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B215" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="C215" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="D215" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="E215" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I215" s="50"/>
+      <c r="J215" s="50"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D216" s="31" t="s">
+        <v>975</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>979</v>
+      </c>
+      <c r="G216" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I216" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B217" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D217" s="31" t="s">
+        <v>976</v>
+      </c>
+      <c r="E217" s="31" t="s">
+        <v>980</v>
+      </c>
+      <c r="G217" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I217" s="4">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218" s="31" t="s">
+        <v>977</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>981</v>
+      </c>
+      <c r="G218" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I218" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219" s="31" t="s">
+        <v>978</v>
+      </c>
+      <c r="E219" s="31" t="s">
+        <v>982</v>
+      </c>
+      <c r="G219" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I219" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B220" s="48" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C220" s="48" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D220" s="48" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E220" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I220" s="50"/>
+      <c r="J220" s="50"/>
+    </row>
+    <row r="221" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B221" s="48" t="s">
+        <v>745</v>
+      </c>
+      <c r="C221" s="48" t="s">
+        <v>745</v>
+      </c>
+      <c r="D221" s="48" t="s">
+        <v>745</v>
+      </c>
+      <c r="E221" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I221" s="50"/>
+      <c r="J221" s="50"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D222" s="31" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E222" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G222" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D223" s="31" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E223" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G223" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I223" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D224" s="31" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E224" s="31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G224" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D225" s="31" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E225" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G225" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D226" s="31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E226" s="31" t="s">
+        <v>949</v>
+      </c>
+      <c r="G226" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" s="31" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E227" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="G227" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D228" s="31" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E228" s="31" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G228" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D229" s="31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E229" s="31" t="s">
+        <v>990</v>
+      </c>
+      <c r="G229" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" s="31" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E230" s="31" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G230" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I230" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231" s="31" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E231" s="31" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G231" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I231" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D232" s="31" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E232" s="31" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G232" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I232" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" s="31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E233" s="31" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G233" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I233" s="4" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D234" s="31" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E234" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G234" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I234" s="4">
+        <v>3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D235" s="31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E235" s="31" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G235" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D236" s="31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E236" s="31" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G236" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I236" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D237" s="31" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E237" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G237" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I237" s="4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238" s="31" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E238" s="31" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G238" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I238" s="4" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" s="31" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E239" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G239" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I239" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" s="31" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E240" s="31" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G240" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I240" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241" s="31" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E241" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G241" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D242" s="31" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E242" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G242" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I242" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" s="31" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E243" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G243" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" s="31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E244" s="31" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G244" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I244" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B245" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D245" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E245" s="31" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G245" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I245" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B246" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246" s="31" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E246" s="31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G246" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I246" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B247" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" s="31" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E247" s="31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G247" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I247" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B248" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" s="31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E248" s="31" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G248" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I248" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B249" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E249" s="31" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G249" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I249" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B250" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E250" s="31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G250" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I250" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B251" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" s="31" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E251" s="31" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G251" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I251" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B252" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="31" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E252" s="31" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G252" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I252" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B253" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253" s="31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E253" s="31" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G253" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I253" s="4">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B254" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254" s="31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E254" s="31" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G254" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I254" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B255" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D255" s="31" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E255" s="31" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G255" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I255" s="4">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B256" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" s="31" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E256" s="31" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G256" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I256" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B257" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E257" s="31" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G257" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I257" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B258" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D258" s="31" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E258" s="31" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G258" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I258" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B259" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" s="31" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E259" s="31" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G259" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I259" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B260" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E260" s="31" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G260" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I260" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B261" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D261" s="31" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E261" s="31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G261" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I261" s="4">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B262" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D262" s="31" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E262" s="31" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G262" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I262" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B263" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E263" s="31" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G263" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I263" s="4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B264" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E264" s="31" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G264" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I264" s="4">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B265" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D265" s="31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E265" s="31" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G265" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I265" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B266" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D266" s="31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E266" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G266" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I266" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B267" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" s="31" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E267" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G267" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I267" s="4">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B268" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" s="31" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E268" s="31" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G268" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I268" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B269" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" s="31" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E269" s="31" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G269" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I269" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B270" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" s="31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E270" s="31" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G270" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I270" s="4">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B271" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271" s="31" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E271" s="31" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G271" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I271" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B272" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D272" s="31" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E272" s="31" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G272" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I272" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B273" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="31" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E273" s="31" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G273" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I273" s="4">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B274" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E274" s="31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G274" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I274" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B275" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E275" s="31" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G275" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I275" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B276" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D276" s="31" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E276" s="31" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G276" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I276" s="4">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B277" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" s="31" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E277" s="31" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G277" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I277" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B278" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D278" s="31" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E278" s="31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G278" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I278" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B279" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" s="31" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E279" s="31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G279" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I279" s="4">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B280" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E280" s="31" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G280" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I280" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B281" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" s="31" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E281" s="31" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G281" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I281" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B282" s="48" t="s">
+        <v>750</v>
+      </c>
+      <c r="C282" s="48" t="s">
+        <v>862</v>
+      </c>
+      <c r="D282" s="48" t="s">
+        <v>862</v>
+      </c>
+      <c r="E282" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I282" s="50"/>
+      <c r="J282" s="50"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B283" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D283" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="E283" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="G283" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I283" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B284" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D284" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E284" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="G284" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I284" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B285" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285" s="31" t="s">
+        <v>818</v>
+      </c>
+      <c r="E285" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="G285" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I285" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B286" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286" s="31" t="s">
+        <v>819</v>
+      </c>
+      <c r="E286" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="G286" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I286" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B287" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D287" s="31" t="s">
+        <v>820</v>
+      </c>
+      <c r="E287" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="G287" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I287" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B288" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D288" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="E288" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="G288" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I288" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B289" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D289" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="E289" s="31" t="s">
+        <v>842</v>
+      </c>
+      <c r="G289" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I289" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B290" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D290" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="E290" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="G290" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I290" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B291" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D291" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="E291" s="31" t="s">
+        <v>844</v>
+      </c>
+      <c r="G291" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I291" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B292" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="31" t="s">
+        <v>825</v>
+      </c>
+      <c r="E292" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="G292" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I292" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B293" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="31" t="s">
+        <v>826</v>
+      </c>
+      <c r="E293" s="31" t="s">
+        <v>846</v>
+      </c>
+      <c r="G293" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I293" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B294" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D294" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="E294" s="31" t="s">
+        <v>847</v>
+      </c>
+      <c r="G294" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I294" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B295" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D295" s="31" t="s">
+        <v>828</v>
+      </c>
+      <c r="E295" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="G295" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I295" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B296" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="E296" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="G296" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I296" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B297" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="E297" s="31" t="s">
+        <v>850</v>
+      </c>
+      <c r="G297" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I297" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B298" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="E298" s="31" t="s">
+        <v>851</v>
+      </c>
+      <c r="G298" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I298" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B299" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="E299" s="31" t="s">
+        <v>854</v>
+      </c>
+      <c r="G299" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I299" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B300" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="E300" s="31" t="s">
+        <v>852</v>
+      </c>
+      <c r="G300" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I300" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B301" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="E301" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="G301" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I301" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B302" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="E302" s="31" t="s">
+        <v>855</v>
+      </c>
+      <c r="G302" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I302" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA63"/>
+  <autoFilter ref="A2:AA62"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I11:I13 I14" numberStoredAsText="1"/>
+    <ignoredError sqref="I194:I201" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7978,875 +13712,875 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="40"/>
+      <c r="A1" s="37"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="39"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>632</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="39" t="s">
         <v>618</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="39" t="s">
         <v>620</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="39" t="s">
         <v>621</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="39" t="s">
         <v>622</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="39" t="s">
         <v>623</v>
       </c>
-      <c r="M2" s="42"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" s="14" customFormat="1" ht="46.9" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>624</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>691</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="40" t="s">
         <v>637</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="40" t="s">
         <v>627</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40" t="s">
         <v>625</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="40" t="s">
         <v>617</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="40" t="s">
         <v>626</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="40" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>639</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="36" t="s">
         <v>630</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="39" t="b">
+      <c r="F4" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="I4" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="36" t="s">
         <v>640</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="36" t="s">
         <v>634</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="36" t="s">
         <v>631</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="39" t="b">
+      <c r="F5" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="I5" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="46" t="s">
         <v>641</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>694</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="46" t="s">
         <v>636</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="46" t="s">
         <v>628</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="F6" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="53" t="b">
+      <c r="F6" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="I6" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="46" t="s">
         <v>642</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>695</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="46" t="s">
         <v>635</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="53" t="b">
+      <c r="F7" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="I7" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="36" t="s">
         <v>655</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36" t="s">
         <v>656</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="39" t="b">
+      <c r="F8" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="I8" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="36" t="s">
         <v>657</v>
       </c>
       <c r="B9" s="30"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36" t="s">
         <v>658</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="39" t="b">
+      <c r="F9" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="I9" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="36" t="s">
         <v>659</v>
       </c>
       <c r="B10" s="30"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="s">
         <v>660</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="39" t="b">
+      <c r="F10" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="I10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="36" t="s">
         <v>661</v>
       </c>
       <c r="B11" s="30"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>662</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="39" t="b">
+      <c r="F11" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="I11" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="36" t="s">
         <v>663</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>664</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="39" t="b">
+      <c r="F12" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="I12" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="36" t="s">
         <v>665</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
         <v>666</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F13" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="39" t="b">
+      <c r="F13" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="I13" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="36" t="s">
         <v>667</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36" t="s">
         <v>668</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F14" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="39" t="b">
+      <c r="F14" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="I14" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="36" t="s">
         <v>669</v>
       </c>
       <c r="B15" s="30"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36" t="s">
         <v>670</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F15" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="39" t="b">
+      <c r="F15" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="I15" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="36" t="s">
         <v>671</v>
       </c>
       <c r="B16" s="30"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>672</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F16" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="39" t="b">
+      <c r="F16" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="I16" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="36" t="s">
         <v>673</v>
       </c>
       <c r="B17" s="30"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="39" t="b">
+      <c r="F17" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="I17" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="36" t="s">
         <v>675</v>
       </c>
       <c r="B18" s="30"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36" t="s">
         <v>676</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F18" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="39" t="b">
+      <c r="F18" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="I18" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>677</v>
       </c>
       <c r="B19" s="30"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="39" t="b">
+      <c r="F19" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="I19" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="36" t="s">
         <v>679</v>
       </c>
       <c r="B20" s="30"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36" t="s">
         <v>680</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F20" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="39" t="b">
+      <c r="F20" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="I20" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="36" t="s">
         <v>681</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="39" t="b">
+      <c r="F21" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="I21" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="36" t="s">
         <v>649</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36" t="s">
         <v>683</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="39" t="b">
+      <c r="F22" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="I22" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="36" t="s">
         <v>651</v>
       </c>
       <c r="B23" s="30"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
         <v>684</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="F23" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="39" t="b">
+      <c r="F23" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
+      <c r="I23" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="36" t="s">
         <v>652</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36" t="s">
         <v>685</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="F24" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="39" t="b">
+      <c r="F24" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
+      <c r="I24" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="36" t="s">
         <v>653</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="36" t="s">
         <v>653</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36" t="s">
         <v>686</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="36" t="s">
         <v>654</v>
       </c>
-      <c r="F25" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="39" t="b">
+      <c r="F25" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
+      <c r="I25" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
@@ -17243,7 +22977,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OpenStudio-analysis-spreadsheet/projects/slab.xlsx
+++ b/OpenStudio-analysis-spreadsheet/projects/slab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="10290" windowHeight="2370" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="10290" windowHeight="2370" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$AA$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$AA$111</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="1202">
   <si>
     <t>type</t>
   </si>
@@ -3620,13 +3620,40 @@
   </si>
   <si>
     <t>[1, 2]</t>
+  </si>
+  <si>
+    <t>SetDRWeatherFIle</t>
+  </si>
+  <si>
+    <t>beopt_weather_dir</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>Weather Directory Name</t>
+  </si>
+  <si>
+    <t>Weather File Name</t>
+  </si>
+  <si>
+    <t>weather_directory_name</t>
+  </si>
+  <si>
+    <t>weather_file_name</t>
+  </si>
+  <si>
+    <t>USA_CO_Denver.Intl.AP.725650_TMY3.epw</t>
+  </si>
+  <si>
+    <t>../weather/*.epw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3714,6 +3741,13 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5611,7 +5645,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5710,9 +5744,6 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5725,6 +5756,44 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1801">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -7862,8 +7931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8266,8 +8335,15 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="31" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="26"/>
@@ -8297,9 +8373,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z302"/>
+  <dimension ref="A1:Z305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -8314,13 +8390,13 @@
     <col min="6" max="6" width="9.140625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="31" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="4" customWidth="1"/>
     <col min="11" max="11" width="7.140625" style="31" customWidth="1"/>
     <col min="12" max="12" width="8.140625" style="31" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="31" customWidth="1"/>
     <col min="14" max="15" width="7.85546875" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="15.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" style="31" customWidth="1"/>
     <col min="18" max="18" width="23" style="31" customWidth="1"/>
     <col min="19" max="19" width="27.7109375" style="31" customWidth="1"/>
@@ -8357,14 +8433,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -8460,167 +8536,213 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="b">
+    <row r="4" spans="1:26" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="65" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+    </row>
+    <row r="5" spans="1:26" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="63" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J5" s="69"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+    </row>
+    <row r="6" spans="1:26" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+    </row>
+    <row r="7" spans="1:26" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="48" t="s">
         <v>752</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C7" s="48" t="s">
         <v>752</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D7" s="48" t="s">
         <v>752</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>706</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>718</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>889</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>891</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>1189</v>
-      </c>
-      <c r="K6" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="57">
-        <v>0.51</v>
-      </c>
-      <c r="M6" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="57">
-        <v>1</v>
-      </c>
-      <c r="P6" s="57" t="s">
-        <v>1191</v>
-      </c>
-      <c r="R6" s="57" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>890</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>892</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="58">
-        <v>1</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>1190</v>
-      </c>
-      <c r="K7" s="57">
-        <v>1</v>
-      </c>
-      <c r="L7" s="57">
-        <v>2</v>
-      </c>
-      <c r="M7" s="57">
-        <v>1</v>
-      </c>
-      <c r="N7" s="57">
-        <v>1</v>
-      </c>
-      <c r="P7" s="57" t="s">
-        <v>1192</v>
-      </c>
-      <c r="R7" s="57" t="s">
-        <v>1187</v>
-      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>893</v>
+        <v>706</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>894</v>
+        <v>718</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>895</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>896</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>897</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>898</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>889</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>891</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>1189</v>
+      </c>
+      <c r="K9" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="56">
+        <v>0.51</v>
+      </c>
+      <c r="M9" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="56">
+        <v>1</v>
+      </c>
+      <c r="P9" s="56" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R9" s="56" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>890</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>892</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="57">
+        <v>1</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K10" s="56">
+        <v>1</v>
+      </c>
+      <c r="L10" s="56">
+        <v>2</v>
+      </c>
+      <c r="M10" s="56">
+        <v>1</v>
+      </c>
+      <c r="N10" s="56">
+        <v>1</v>
+      </c>
+      <c r="P10" s="56" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -8628,16 +8750,16 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -8645,16 +8767,16 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="4" t="b">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -8662,10 +8784,10 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>64</v>
@@ -8679,16 +8801,16 @@
         <v>21</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -8696,16 +8818,16 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -8713,16 +8835,16 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I16" s="4">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -8730,16 +8852,16 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I17" s="4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -8747,16 +8869,16 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="4">
-        <v>11.1</v>
+        <v>63</v>
+      </c>
+      <c r="I18" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -8764,16 +8886,16 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I19" s="4">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -8781,16 +8903,16 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I20" s="4">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -8798,58 +8920,50 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I21" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>735</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>735</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>735</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="55"/>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>915</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>718</v>
+        <v>918</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>754</v>
+        <v>64</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -8857,16 +8971,16 @@
         <v>21</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>948</v>
+        <v>919</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>949</v>
+        <v>920</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>950</v>
+        <v>64</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -8874,26 +8988,32 @@
         <v>1</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="E25" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="54"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>706</v>
+        <v>924</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>718</v>
@@ -8910,50 +9030,52 @@
         <v>21</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>924</v>
+        <v>948</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>925</v>
+        <v>949</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>927</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>928</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>755</v>
-      </c>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>753</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>753</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>753</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>929</v>
+        <v>706</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>930</v>
+        <v>718</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -8961,16 +9083,16 @@
         <v>21</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -8978,16 +9100,16 @@
         <v>21</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="G31" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="4">
-        <v>3.5</v>
+      <c r="I31" s="4" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -8995,16 +9117,16 @@
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I32" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -9012,16 +9134,16 @@
         <v>21</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I33" s="4">
-        <v>7.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -9029,16 +9151,16 @@
         <v>21</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I34" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -9046,16 +9168,16 @@
         <v>21</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>904</v>
+        <v>936</v>
       </c>
       <c r="G35" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I35" s="4">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -9063,16 +9185,16 @@
         <v>21</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>906</v>
+        <v>937</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I36" s="4">
-        <v>0</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -9080,16 +9202,16 @@
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" s="4" t="b">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="I37" s="4">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -9097,16 +9219,16 @@
         <v>21</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>889</v>
+        <v>940</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I38" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -9114,16 +9236,16 @@
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>890</v>
+        <v>941</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -9131,16 +9253,16 @@
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0.91</v>
+        <v>63</v>
+      </c>
+      <c r="I40" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -9148,52 +9270,50 @@
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>945</v>
+        <v>889</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>947</v>
+        <v>891</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I41" s="4">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="b">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>890</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>892</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="4">
         <v>1</v>
       </c>
-      <c r="B42" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>706</v>
+        <v>944</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>718</v>
+        <v>946</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>754</v>
+        <v>64</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.91</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -9201,50 +9321,52 @@
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>951</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>952</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0.5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>953</v>
+        <v>706</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>954</v>
+        <v>718</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I46" s="4">
-        <v>1.1112</v>
+        <v>62</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -9252,16 +9374,16 @@
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I47" s="4">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -9269,16 +9391,16 @@
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I48" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -9286,16 +9408,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>893</v>
+        <v>953</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>894</v>
+        <v>954</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>921</v>
+        <v>64</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1.1112</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -9303,16 +9425,16 @@
         <v>21</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>895</v>
+        <v>955</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>896</v>
+        <v>956</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>922</v>
+        <v>64</v>
+      </c>
+      <c r="I50" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -9320,16 +9442,16 @@
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>897</v>
+        <v>957</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>898</v>
+        <v>958</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I51" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -9337,16 +9459,16 @@
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -9354,16 +9476,16 @@
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" s="4" t="b">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -9371,10 +9493,10 @@
         <v>21</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>64</v>
@@ -9388,52 +9510,50 @@
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B56" s="48" t="s">
-        <v>738</v>
-      </c>
-      <c r="C56" s="48" t="s">
-        <v>738</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>738</v>
-      </c>
-      <c r="E56" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
+        <v>62</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>901</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>706</v>
+        <v>903</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>718</v>
+        <v>904</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>754</v>
+        <v>64</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -9441,16 +9561,16 @@
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>948</v>
+        <v>905</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>949</v>
+        <v>906</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>950</v>
+        <v>64</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -9458,13 +9578,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E59" s="49" t="s">
         <v>68</v>
@@ -9494,131 +9614,133 @@
         <v>21</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>989</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>990</v>
-      </c>
-      <c r="G62" s="31" t="s">
-        <v>62</v>
-      </c>
+      <c r="I61" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>740</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>740</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>740</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>948</v>
+        <v>706</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>949</v>
+        <v>718</v>
       </c>
       <c r="G63" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B64" s="48" t="s">
-        <v>731</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>731</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>731</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>959</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>774</v>
+        <v>989</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>784</v>
+        <v>990</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>773</v>
-      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B66" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>775</v>
+        <v>948</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>785</v>
+        <v>949</v>
       </c>
       <c r="G66" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="G67" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I67" s="4">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="48" t="b">
         <v>1</v>
       </c>
+      <c r="B67" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="E67" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="G68" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I68" s="4">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -9626,16 +9748,16 @@
         <v>21</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I69" s="4">
-        <v>3.1</v>
+        <v>62</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -9643,16 +9765,16 @@
         <v>21</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>773</v>
+        <v>64</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -9660,16 +9782,16 @@
         <v>21</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I71" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -9677,16 +9799,16 @@
         <v>21</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G72" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I72" s="4">
-        <v>1.41</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -9694,16 +9816,16 @@
         <v>21</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I73" s="4">
-        <v>3.5</v>
+        <v>62</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -9711,16 +9833,16 @@
         <v>21</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I74" s="4">
-        <v>2007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -9728,52 +9850,50 @@
         <v>21</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>45</v>
+        <v>790</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="D76" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="E76" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I76" s="4">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B77" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>756</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>765</v>
+        <v>782</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>792</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>773</v>
+        <v>65</v>
+      </c>
+      <c r="I77" s="4">
+        <v>2007</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -9781,50 +9901,52 @@
         <v>21</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>766</v>
+        <v>45</v>
       </c>
       <c r="G78" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>758</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>767</v>
-      </c>
-      <c r="G79" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I79" s="4">
-        <v>0</v>
-      </c>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B79" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="C79" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="D79" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="E79" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>759</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>768</v>
+        <v>756</v>
+      </c>
+      <c r="E80" s="42" t="s">
+        <v>765</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I80" s="4">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -9832,16 +9954,16 @@
         <v>21</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I81" s="4">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -9849,10 +9971,10 @@
         <v>21</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G82" s="31" t="s">
         <v>64</v>
@@ -9866,16 +9988,16 @@
         <v>21</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G83" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I83" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -9883,16 +10005,16 @@
         <v>21</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I84" s="4" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="I84" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -9900,52 +10022,50 @@
         <v>21</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>45</v>
+        <v>770</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B86" s="48" t="s">
-        <v>748</v>
-      </c>
-      <c r="C86" s="48" t="s">
-        <v>748</v>
-      </c>
-      <c r="D86" s="48" t="s">
-        <v>748</v>
-      </c>
-      <c r="E86" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B87" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>805</v>
+        <v>763</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>808</v>
+        <v>772</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>773</v>
+        <v>63</v>
+      </c>
+      <c r="I87" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -9953,50 +10073,52 @@
         <v>21</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>806</v>
+        <v>764</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>809</v>
+        <v>45</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I88" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>759</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>768</v>
-      </c>
-      <c r="G89" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I89" s="4">
+        <v>62</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="48" t="b">
         <v>1</v>
       </c>
+      <c r="B89" s="48" t="s">
+        <v>748</v>
+      </c>
+      <c r="C89" s="48" t="s">
+        <v>748</v>
+      </c>
+      <c r="D89" s="48" t="s">
+        <v>748</v>
+      </c>
+      <c r="E89" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I89" s="50"/>
+      <c r="J89" s="50"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>760</v>
+        <v>805</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>769</v>
+        <v>808</v>
       </c>
       <c r="G90" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I90" s="4">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -10004,52 +10126,50 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>45</v>
+        <v>809</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="b">
+        <v>64</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I92" s="4">
         <v>1</v>
       </c>
-      <c r="B92" s="48" t="s">
-        <v>746</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>746</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>746</v>
-      </c>
-      <c r="E92" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>793</v>
+        <v>760</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>797</v>
+        <v>769</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>773</v>
+        <v>65</v>
+      </c>
+      <c r="I93" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -10057,50 +10177,52 @@
         <v>21</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>798</v>
+        <v>45</v>
       </c>
       <c r="G94" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="G95" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I95" s="4">
-        <v>2700</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>746</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>746</v>
+      </c>
+      <c r="D95" s="48" t="s">
+        <v>746</v>
+      </c>
+      <c r="E95" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I95" s="50"/>
+      <c r="J95" s="50"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>759</v>
+        <v>793</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I96" s="4">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -10108,16 +10230,16 @@
         <v>21</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>760</v>
+        <v>794</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I97" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -10125,52 +10247,50 @@
         <v>21</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>45</v>
+        <v>799</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="48" t="b">
+        <v>64</v>
+      </c>
+      <c r="I98" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I99" s="4">
         <v>1</v>
       </c>
-      <c r="B99" s="48" t="s">
-        <v>749</v>
-      </c>
-      <c r="C99" s="48" t="s">
-        <v>815</v>
-      </c>
-      <c r="D99" s="48" t="s">
-        <v>749</v>
-      </c>
-      <c r="E99" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B100" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>810</v>
+        <v>760</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>813</v>
+        <v>769</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>773</v>
+        <v>65</v>
+      </c>
+      <c r="I100" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -10178,86 +10298,86 @@
         <v>21</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>814</v>
+        <v>45</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I101" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>759</v>
-      </c>
-      <c r="E102" s="31" t="s">
-        <v>768</v>
-      </c>
-      <c r="G102" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I102" s="4">
+        <v>62</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="48" t="b">
         <v>1</v>
       </c>
+      <c r="B102" s="48" t="s">
+        <v>749</v>
+      </c>
+      <c r="C102" s="48" t="s">
+        <v>815</v>
+      </c>
+      <c r="D102" s="48" t="s">
+        <v>749</v>
+      </c>
+      <c r="E102" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I102" s="50"/>
+      <c r="J102" s="50"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B103" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>45</v>
+        <v>813</v>
       </c>
       <c r="G103" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B104" s="48" t="s">
-        <v>747</v>
-      </c>
-      <c r="C104" s="48" t="s">
-        <v>747</v>
-      </c>
-      <c r="D104" s="48" t="s">
-        <v>747</v>
-      </c>
-      <c r="E104" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I104" s="50"/>
-      <c r="J104" s="50"/>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="G104" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B105" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>803</v>
+        <v>768</v>
       </c>
       <c r="G105" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>773</v>
+        <v>64</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -10265,50 +10385,52 @@
         <v>21</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>804</v>
+        <v>45</v>
       </c>
       <c r="G106" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="G107" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I107" s="4">
-        <v>2700</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B107" s="48" t="s">
+        <v>747</v>
+      </c>
+      <c r="C107" s="48" t="s">
+        <v>747</v>
+      </c>
+      <c r="D107" s="48" t="s">
+        <v>747</v>
+      </c>
+      <c r="E107" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>759</v>
+        <v>800</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I108" s="4">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -10316,16 +10438,16 @@
         <v>21</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>760</v>
+        <v>801</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I109" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -10333,36 +10455,34 @@
         <v>21</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>45</v>
+        <v>799</v>
       </c>
       <c r="G110" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="b">
+        <v>64</v>
+      </c>
+      <c r="I110" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I111" s="4">
         <v>1</v>
       </c>
-      <c r="B111" s="48" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C111" s="48" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D111" s="48" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E111" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I111" s="50"/>
-      <c r="J111" s="50"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="31" t="s">
@@ -10372,7 +10492,7 @@
         <v>760</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>1136</v>
+        <v>769</v>
       </c>
       <c r="G112" s="31" t="s">
         <v>65</v>
@@ -10386,7 +10506,7 @@
         <v>21</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>1135</v>
+        <v>802</v>
       </c>
       <c r="E113" s="31" t="s">
         <v>45</v>
@@ -10403,13 +10523,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="48" t="s">
-        <v>751</v>
+        <v>1134</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>751</v>
+        <v>1134</v>
       </c>
       <c r="D114" s="48" t="s">
-        <v>751</v>
+        <v>1134</v>
       </c>
       <c r="E114" s="49" t="s">
         <v>68</v>
@@ -10422,16 +10542,16 @@
         <v>21</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>863</v>
+        <v>760</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>874</v>
+        <v>1136</v>
       </c>
       <c r="G115" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>1180</v>
+        <v>65</v>
+      </c>
+      <c r="I115" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -10439,50 +10559,52 @@
         <v>21</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>864</v>
+        <v>1135</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>838</v>
+        <v>45</v>
       </c>
       <c r="G116" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I116" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117" s="31" t="s">
-        <v>865</v>
-      </c>
-      <c r="E117" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="G117" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I117" s="4">
-        <v>2</v>
-      </c>
+      <c r="I116" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B117" s="48" t="s">
+        <v>751</v>
+      </c>
+      <c r="C117" s="48" t="s">
+        <v>751</v>
+      </c>
+      <c r="D117" s="48" t="s">
+        <v>751</v>
+      </c>
+      <c r="E117" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I117" s="50"/>
+      <c r="J117" s="50"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B118" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>836</v>
+        <v>874</v>
       </c>
       <c r="G118" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -10490,16 +10612,16 @@
         <v>21</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>876</v>
+        <v>838</v>
       </c>
       <c r="G119" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I119" s="4">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -10507,16 +10629,16 @@
         <v>21</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G120" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I120" s="4">
-        <v>125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -10524,16 +10646,16 @@
         <v>21</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>878</v>
+        <v>836</v>
       </c>
       <c r="G121" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>883</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -10541,10 +10663,10 @@
         <v>21</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G122" s="31" t="s">
         <v>64</v>
@@ -10558,16 +10680,16 @@
         <v>21</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G123" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I123" s="4">
-        <v>0.59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -10575,16 +10697,16 @@
         <v>21</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G124" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I124" s="4">
-        <v>0.78</v>
+        <v>62</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -10592,52 +10714,50 @@
         <v>21</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G125" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B126" s="48" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D126" s="48" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E126" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I126" s="50"/>
-      <c r="J126" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="I125" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="E126" s="31" t="s">
+        <v>880</v>
+      </c>
+      <c r="G126" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I126" s="4">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B127" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="G127" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I127" s="4">
-        <v>49.57</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -10645,16 +10765,16 @@
         <v>21</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="G128" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I128" s="4">
-        <v>41.06</v>
+        <v>62</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -10662,13 +10782,13 @@
         <v>1</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>741</v>
+        <v>1188</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>741</v>
+        <v>1188</v>
       </c>
       <c r="D129" s="48" t="s">
-        <v>741</v>
+        <v>1188</v>
       </c>
       <c r="E129" s="49" t="s">
         <v>68</v>
@@ -10676,91 +10796,93 @@
       <c r="I129" s="50"/>
       <c r="J129" s="50"/>
     </row>
-    <row r="130" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B130" s="48" t="s">
-        <v>742</v>
-      </c>
-      <c r="C130" s="48" t="s">
-        <v>742</v>
-      </c>
-      <c r="D130" s="48" t="s">
-        <v>742</v>
-      </c>
-      <c r="E130" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I130" s="50"/>
-      <c r="J130" s="50"/>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>885</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>887</v>
+      </c>
+      <c r="G130" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I130" s="4">
+        <v>49.57</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B131" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>991</v>
+        <v>886</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>718</v>
+        <v>888</v>
       </c>
       <c r="G131" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B132" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="31" t="s">
-        <v>992</v>
-      </c>
-      <c r="E132" s="31" t="s">
-        <v>996</v>
-      </c>
-      <c r="G132" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I132" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="31" t="s">
-        <v>993</v>
-      </c>
-      <c r="E133" s="31" t="s">
-        <v>997</v>
-      </c>
-      <c r="G133" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I133" s="4">
-        <v>76</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I131" s="4">
+        <v>41.06</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B132" s="48" t="s">
+        <v>741</v>
+      </c>
+      <c r="C132" s="48" t="s">
+        <v>741</v>
+      </c>
+      <c r="D132" s="48" t="s">
+        <v>741</v>
+      </c>
+      <c r="E132" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I132" s="50"/>
+      <c r="J132" s="50"/>
+    </row>
+    <row r="133" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B133" s="48" t="s">
+        <v>742</v>
+      </c>
+      <c r="C133" s="48" t="s">
+        <v>742</v>
+      </c>
+      <c r="D133" s="48" t="s">
+        <v>742</v>
+      </c>
+      <c r="E133" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I133" s="50"/>
+      <c r="J133" s="50"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B134" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>998</v>
+        <v>718</v>
       </c>
       <c r="G134" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I134" s="4" t="b">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -10768,52 +10890,50 @@
         <v>21</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G135" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I135" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B136" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="C136" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="D136" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="E136" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I136" s="50"/>
-      <c r="J136" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="I135" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>993</v>
+      </c>
+      <c r="E136" s="31" t="s">
+        <v>997</v>
+      </c>
+      <c r="G136" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I136" s="4">
+        <v>76</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B137" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>718</v>
+        <v>998</v>
       </c>
       <c r="G137" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>883</v>
+        <v>63</v>
+      </c>
+      <c r="I137" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -10821,83 +10941,83 @@
         <v>21</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>960</v>
+        <v>999</v>
       </c>
       <c r="G138" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B139" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D139" s="31" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E139" s="31" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G139" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>1011</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I138" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B139" s="48" t="s">
+        <v>744</v>
+      </c>
+      <c r="C139" s="48" t="s">
+        <v>744</v>
+      </c>
+      <c r="D139" s="48" t="s">
+        <v>744</v>
+      </c>
+      <c r="E139" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I139" s="50"/>
+      <c r="J139" s="50"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B140" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>1010</v>
+        <v>718</v>
       </c>
       <c r="G140" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B141" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="C141" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="D141" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="E141" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I141" s="50"/>
-      <c r="J141" s="50"/>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E141" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="G141" s="31" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B142" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>718</v>
+        <v>1009</v>
       </c>
       <c r="G142" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>883</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -10905,47 +11025,52 @@
         <v>21</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>960</v>
+        <v>1010</v>
       </c>
       <c r="G143" s="31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B144" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D144" s="31" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E144" s="31" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G144" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I144" s="4">
-        <v>0.78</v>
-      </c>
+      <c r="I143" s="4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B144" s="48" t="s">
+        <v>743</v>
+      </c>
+      <c r="C144" s="48" t="s">
+        <v>743</v>
+      </c>
+      <c r="D144" s="48" t="s">
+        <v>743</v>
+      </c>
+      <c r="E144" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I144" s="50"/>
+      <c r="J144" s="50"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B145" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>1013</v>
+        <v>718</v>
       </c>
       <c r="G145" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>1183</v>
+        <v>883</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -10953,16 +11078,13 @@
         <v>21</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>1014</v>
+        <v>960</v>
       </c>
       <c r="G146" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I146" s="4">
-        <v>120</v>
+        <v>62</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -10970,52 +11092,50 @@
         <v>21</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G147" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I147" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="31" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E148" s="31" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G148" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I147" s="4" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B148" s="48" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C148" s="48" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D148" s="48" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E148" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I148" s="50"/>
-      <c r="J148" s="50"/>
+      <c r="I148" s="4" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B149" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>1138</v>
+        <v>1004</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>1159</v>
+        <v>1014</v>
       </c>
       <c r="G149" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>773</v>
+        <v>64</v>
+      </c>
+      <c r="I149" s="4">
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -11023,50 +11143,52 @@
         <v>21</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>1139</v>
+        <v>1005</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>1160</v>
+        <v>1015</v>
       </c>
       <c r="G150" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I150" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B151" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D151" s="31" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E151" s="31" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G151" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I151" s="4" t="b">
+        <v>62</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="48" t="b">
         <v>1</v>
       </c>
+      <c r="B151" s="48" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C151" s="48" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D151" s="48" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E151" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I151" s="50"/>
+      <c r="J151" s="50"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B152" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="G152" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I152" s="4" t="b">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -11074,15 +11196,15 @@
         <v>21</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="G153" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I153" s="4" t="b">
+        <v>64</v>
+      </c>
+      <c r="I153" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11091,16 +11213,16 @@
         <v>21</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="G154" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I154" s="4">
-        <v>1800</v>
+        <v>63</v>
+      </c>
+      <c r="I154" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -11108,16 +11230,16 @@
         <v>21</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I155" s="4">
-        <v>240</v>
+        <v>63</v>
+      </c>
+      <c r="I155" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -11125,16 +11247,16 @@
         <v>21</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="G156" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I156" s="4">
-        <v>900</v>
+        <v>63</v>
+      </c>
+      <c r="I156" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -11142,16 +11264,16 @@
         <v>21</v>
       </c>
       <c r="D157" s="31" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="G157" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I157" s="4">
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -11159,16 +11281,16 @@
         <v>21</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="G158" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I158" s="4">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -11176,16 +11298,16 @@
         <v>21</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="G159" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I159" s="4">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -11193,10 +11315,10 @@
         <v>21</v>
       </c>
       <c r="D160" s="31" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="G160" s="31" t="s">
         <v>64</v>
@@ -11210,10 +11332,10 @@
         <v>21</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="G161" s="31" t="s">
         <v>64</v>
@@ -11227,10 +11349,10 @@
         <v>21</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="G162" s="31" t="s">
         <v>64</v>
@@ -11244,16 +11366,16 @@
         <v>21</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="G163" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I163" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -11261,16 +11383,16 @@
         <v>21</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="G164" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I164" s="4">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -11278,16 +11400,16 @@
         <v>21</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="G165" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I165" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -11295,16 +11417,16 @@
         <v>21</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="G166" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I166" s="4">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -11312,16 +11434,16 @@
         <v>21</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>45</v>
+        <v>1173</v>
       </c>
       <c r="G167" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>754</v>
+        <v>64</v>
+      </c>
+      <c r="I167" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -11329,16 +11451,16 @@
         <v>21</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G168" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>950</v>
+        <v>64</v>
+      </c>
+      <c r="I168" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -11346,49 +11468,50 @@
         <v>21</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="G169" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I169" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D170" s="31" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E170" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G170" s="31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B170" s="48" t="s">
-        <v>739</v>
-      </c>
-      <c r="C170" s="48" t="s">
-        <v>739</v>
-      </c>
-      <c r="D170" s="48" t="s">
-        <v>739</v>
-      </c>
-      <c r="E170" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I170" s="50"/>
-      <c r="J170" s="50"/>
+      <c r="I170" s="4" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B171" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>706</v>
+        <v>1157</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>718</v>
+        <v>1176</v>
       </c>
       <c r="G171" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>754</v>
+        <v>950</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -11396,47 +11519,49 @@
         <v>21</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>959</v>
+        <v>1158</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>960</v>
+        <v>1177</v>
       </c>
       <c r="G172" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B173" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D173" s="31" t="s">
-        <v>951</v>
-      </c>
-      <c r="E173" s="31" t="s">
-        <v>952</v>
-      </c>
-      <c r="G173" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I173" s="4">
-        <v>0.5</v>
-      </c>
+    <row r="173" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B173" s="48" t="s">
+        <v>739</v>
+      </c>
+      <c r="C173" s="48" t="s">
+        <v>739</v>
+      </c>
+      <c r="D173" s="48" t="s">
+        <v>739</v>
+      </c>
+      <c r="E173" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I173" s="50"/>
+      <c r="J173" s="50"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B174" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>953</v>
+        <v>706</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>954</v>
+        <v>718</v>
       </c>
       <c r="G174" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I174" s="4">
-        <v>1.1112</v>
+        <v>62</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -11444,16 +11569,13 @@
         <v>21</v>
       </c>
       <c r="D175" s="31" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="G175" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I175" s="4">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -11461,392 +11583,374 @@
         <v>21</v>
       </c>
       <c r="D176" s="31" t="s">
+        <v>951</v>
+      </c>
+      <c r="E176" s="31" t="s">
+        <v>952</v>
+      </c>
+      <c r="G176" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I176" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" s="31" t="s">
+        <v>953</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>954</v>
+      </c>
+      <c r="G177" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I177" s="4">
+        <v>1.1112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" s="31" t="s">
+        <v>955</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>956</v>
+      </c>
+      <c r="G178" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I178" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="31" t="s">
         <v>957</v>
       </c>
-      <c r="E176" s="31" t="s">
+      <c r="E179" s="31" t="s">
         <v>958</v>
       </c>
-      <c r="G176" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I176" s="4">
+      <c r="G179" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I179" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B177" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D177" s="31" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D180" s="31" t="s">
         <v>983</v>
       </c>
-      <c r="E177" s="31" t="s">
+      <c r="E180" s="31" t="s">
         <v>986</v>
       </c>
-      <c r="G177" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I177" s="4">
+      <c r="G180" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I180" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B178" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D178" s="31" t="s">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="31" t="s">
         <v>984</v>
       </c>
-      <c r="E178" s="31" t="s">
+      <c r="E181" s="31" t="s">
         <v>987</v>
       </c>
-      <c r="G178" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I178" s="4">
+      <c r="G181" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I181" s="4">
         <v>2700</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B179" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D179" s="31" t="s">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182" s="31" t="s">
         <v>985</v>
       </c>
-      <c r="E179" s="31" t="s">
+      <c r="E182" s="31" t="s">
         <v>988</v>
       </c>
-      <c r="G179" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I179" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="48" t="b">
+      <c r="G182" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I182" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B180" s="48" t="s">
+      <c r="B183" s="48" t="s">
         <v>734</v>
       </c>
-      <c r="C180" s="48" t="s">
+      <c r="C183" s="48" t="s">
         <v>734</v>
       </c>
-      <c r="D180" s="48" t="s">
+      <c r="D183" s="48" t="s">
         <v>734</v>
       </c>
-      <c r="E180" s="49" t="s">
+      <c r="E183" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H180" s="50"/>
-      <c r="I180" s="50"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B181" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D181" s="31" t="s">
+      <c r="H183" s="50"/>
+      <c r="I183" s="50"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" s="31" t="s">
         <v>706</v>
       </c>
-      <c r="E181" s="31" t="s">
+      <c r="E184" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="G181" s="31" t="s">
+      <c r="G184" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I181" s="4" t="s">
+      <c r="I184" s="4" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B182" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D182" s="31" t="s">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="E182" s="31" t="s">
+      <c r="E185" s="31" t="s">
         <v>949</v>
       </c>
-      <c r="G182" s="31" t="s">
+      <c r="G185" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I182" s="4" t="s">
+      <c r="I185" s="4" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B183" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D183" s="31" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="31" t="s">
         <v>969</v>
       </c>
-      <c r="E183" s="31" t="s">
+      <c r="E186" s="31" t="s">
         <v>898</v>
       </c>
-      <c r="G183" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I183" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B184" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D184" s="31" t="s">
+      <c r="G186" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I186" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" s="31" t="s">
         <v>970</v>
       </c>
-      <c r="E184" s="31" t="s">
+      <c r="E187" s="31" t="s">
         <v>971</v>
       </c>
-      <c r="G184" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I184" s="31">
+      <c r="G187" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I187" s="31">
         <v>0.13</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B185" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D185" s="31" t="s">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D188" s="31" t="s">
         <v>961</v>
       </c>
-      <c r="E185" s="31" t="s">
+      <c r="E188" s="31" t="s">
         <v>963</v>
       </c>
-      <c r="G185" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I185" s="4">
+      <c r="G188" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I188" s="4">
         <v>0.625</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B186" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D186" s="31" t="s">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189" s="31" t="s">
         <v>962</v>
       </c>
-      <c r="E186" s="31" t="s">
+      <c r="E189" s="31" t="s">
         <v>964</v>
       </c>
-      <c r="G186" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I186" s="4">
+      <c r="G189" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I189" s="4">
         <v>0.8004</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B187" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D187" s="31" t="s">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="31" t="s">
         <v>965</v>
       </c>
-      <c r="E187" s="31" t="s">
+      <c r="E190" s="31" t="s">
         <v>967</v>
       </c>
-      <c r="G187" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I187" s="4">
+      <c r="G190" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I190" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B188" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D188" s="31" t="s">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D191" s="31" t="s">
         <v>966</v>
       </c>
-      <c r="E188" s="31" t="s">
+      <c r="E191" s="31" t="s">
         <v>968</v>
       </c>
-      <c r="G188" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I188" s="31">
+      <c r="G191" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I191" s="31">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B189" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D189" s="31" t="s">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="E189" s="31" t="s">
+      <c r="E192" s="31" t="s">
         <v>724</v>
       </c>
-      <c r="G189" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I189" s="4">
+      <c r="G192" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I192" s="4">
         <v>2.08</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B190" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D190" s="31" t="s">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B193" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D193" s="31" t="s">
         <v>713</v>
       </c>
-      <c r="E190" s="31" t="s">
+      <c r="E193" s="31" t="s">
         <v>725</v>
       </c>
-      <c r="G190" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I190" s="4">
+      <c r="G193" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I193" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="191" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="48" t="b">
+    <row r="194" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B191" s="49" t="s">
+      <c r="B194" s="49" t="s">
         <v>705</v>
       </c>
-      <c r="C191" s="49" t="s">
+      <c r="C194" s="49" t="s">
         <v>705</v>
       </c>
-      <c r="D191" s="49" t="s">
+      <c r="D194" s="49" t="s">
         <v>705</v>
       </c>
-      <c r="E191" s="49" t="s">
+      <c r="E194" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F191" s="48"/>
-      <c r="H191" s="56"/>
-      <c r="I191" s="56"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B192" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D192" s="31" t="s">
-        <v>706</v>
-      </c>
-      <c r="E192" s="31" t="s">
-        <v>718</v>
-      </c>
-      <c r="G192" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I192" s="31" t="s">
-        <v>754</v>
-      </c>
-      <c r="J192" s="31"/>
-    </row>
-    <row r="193" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D193" s="31" t="s">
-        <v>707</v>
-      </c>
-      <c r="E193" s="31" t="s">
-        <v>719</v>
-      </c>
-      <c r="G193" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I193" s="31" t="s">
-        <v>755</v>
-      </c>
-      <c r="J193" s="31"/>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B194" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D194" s="31" t="s">
-        <v>708</v>
-      </c>
-      <c r="E194" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="G194" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I194" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="J194" s="31"/>
-      <c r="K194" s="47"/>
-      <c r="L194" s="47"/>
-      <c r="M194" s="47"/>
-      <c r="N194" s="47"/>
-      <c r="P194" s="47"/>
+      <c r="F194" s="48"/>
+      <c r="H194" s="55"/>
+      <c r="I194" s="55"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B195" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D195" s="31" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G195" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I195" s="47" t="s">
-        <v>972</v>
+        <v>62</v>
+      </c>
+      <c r="I195" s="31" t="s">
+        <v>754</v>
       </c>
       <c r="J195" s="31"/>
-      <c r="K195" s="47"/>
-      <c r="L195" s="47"/>
-      <c r="M195" s="47"/>
-      <c r="N195" s="47"/>
-      <c r="P195" s="47"/>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D196" s="31" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E196" s="31" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G196" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I196" s="47" t="s">
-        <v>972</v>
+        <v>62</v>
+      </c>
+      <c r="I196" s="31" t="s">
+        <v>755</v>
       </c>
       <c r="J196" s="31"/>
-      <c r="K196" s="47"/>
-      <c r="L196" s="47"/>
-      <c r="M196" s="47"/>
-      <c r="N196" s="47"/>
-      <c r="P196" s="47"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B197" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D197" s="31" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E197" s="31" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G197" s="31" t="s">
         <v>64</v>
@@ -11866,52 +11970,62 @@
         <v>21</v>
       </c>
       <c r="D198" s="31" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G198" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I198" s="51" t="s">
-        <v>726</v>
+      <c r="I198" s="47" t="s">
+        <v>972</v>
       </c>
       <c r="J198" s="31"/>
+      <c r="K198" s="47"/>
+      <c r="L198" s="47"/>
+      <c r="M198" s="47"/>
+      <c r="N198" s="47"/>
+      <c r="P198" s="47"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B199" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D199" s="31" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E199" s="31" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G199" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I199" s="51" t="s">
-        <v>727</v>
+      <c r="I199" s="47" t="s">
+        <v>972</v>
       </c>
       <c r="J199" s="31"/>
+      <c r="K199" s="47"/>
+      <c r="L199" s="47"/>
+      <c r="M199" s="47"/>
+      <c r="N199" s="47"/>
+      <c r="P199" s="47"/>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B200" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D200" s="31" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E200" s="31" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G200" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I200" s="47" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J200" s="31"/>
       <c r="K200" s="47"/>
@@ -11925,106 +12039,117 @@
         <v>21</v>
       </c>
       <c r="D201" s="31" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E201" s="31" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="G201" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I201" s="47" t="s">
-        <v>974</v>
+      <c r="I201" s="51" t="s">
+        <v>726</v>
       </c>
       <c r="J201" s="31"/>
-      <c r="K201" s="47"/>
-      <c r="L201" s="47"/>
-      <c r="M201" s="47"/>
-      <c r="N201" s="47"/>
-      <c r="P201" s="47"/>
-    </row>
-    <row r="202" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B202" s="48" t="s">
-        <v>733</v>
-      </c>
-      <c r="C202" s="48" t="s">
-        <v>733</v>
-      </c>
-      <c r="D202" s="48" t="s">
-        <v>733</v>
-      </c>
-      <c r="E202" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H202" s="50"/>
-      <c r="I202" s="50"/>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B202" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D202" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="E202" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="G202" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I202" s="51" t="s">
+        <v>727</v>
+      </c>
+      <c r="J202" s="31"/>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B203" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D203" s="31" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="E203" s="31" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G203" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I203" s="4" t="s">
-        <v>754</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I203" s="47" t="s">
+        <v>973</v>
+      </c>
+      <c r="J203" s="31"/>
+      <c r="K203" s="47"/>
+      <c r="L203" s="47"/>
+      <c r="M203" s="47"/>
+      <c r="N203" s="47"/>
+      <c r="P203" s="47"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B204" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D204" s="31" t="s">
-        <v>959</v>
+        <v>716</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>960</v>
+        <v>717</v>
       </c>
       <c r="G204" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B205" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D205" s="31" t="s">
-        <v>889</v>
-      </c>
-      <c r="E205" s="31" t="s">
-        <v>891</v>
-      </c>
-      <c r="G205" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I205" s="4">
-        <v>0.5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I204" s="47" t="s">
+        <v>974</v>
+      </c>
+      <c r="J204" s="31"/>
+      <c r="K204" s="47"/>
+      <c r="L204" s="47"/>
+      <c r="M204" s="47"/>
+      <c r="N204" s="47"/>
+      <c r="P204" s="47"/>
+    </row>
+    <row r="205" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B205" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="C205" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="D205" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="E205" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H205" s="50"/>
+      <c r="I205" s="50"/>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B206" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D206" s="31" t="s">
-        <v>890</v>
+        <v>706</v>
       </c>
       <c r="E206" s="31" t="s">
-        <v>892</v>
+        <v>718</v>
       </c>
       <c r="G206" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I206" s="4">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
@@ -12032,16 +12157,13 @@
         <v>21</v>
       </c>
       <c r="D207" s="31" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E207" s="31" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="G207" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I207" s="4">
-        <v>0.625</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
@@ -12049,16 +12171,16 @@
         <v>21</v>
       </c>
       <c r="D208" s="31" t="s">
-        <v>962</v>
+        <v>889</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>964</v>
+        <v>891</v>
       </c>
       <c r="G208" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I208" s="4">
-        <v>0.8004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -12066,16 +12188,16 @@
         <v>21</v>
       </c>
       <c r="D209" s="31" t="s">
-        <v>965</v>
+        <v>890</v>
       </c>
       <c r="E209" s="31" t="s">
-        <v>967</v>
+        <v>892</v>
       </c>
       <c r="G209" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I209" s="4">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -12083,16 +12205,16 @@
         <v>21</v>
       </c>
       <c r="D210" s="31" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G210" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I210" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -12100,16 +12222,16 @@
         <v>21</v>
       </c>
       <c r="D211" s="31" t="s">
-        <v>712</v>
+        <v>962</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>724</v>
+        <v>964</v>
       </c>
       <c r="G211" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I211" s="4">
-        <v>2.08</v>
+        <v>0.8004</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -12117,245 +12239,245 @@
         <v>21</v>
       </c>
       <c r="D212" s="31" t="s">
-        <v>713</v>
+        <v>965</v>
       </c>
       <c r="E212" s="31" t="s">
-        <v>725</v>
+        <v>967</v>
       </c>
       <c r="G212" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I212" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B213" s="48" t="s">
-        <v>736</v>
-      </c>
-      <c r="C213" s="48" t="s">
-        <v>736</v>
-      </c>
-      <c r="D213" s="48" t="s">
-        <v>736</v>
-      </c>
-      <c r="E213" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I213" s="50"/>
-      <c r="J213" s="50"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D213" s="31" t="s">
+        <v>966</v>
+      </c>
+      <c r="E213" s="31" t="s">
+        <v>968</v>
+      </c>
+      <c r="G213" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I213" s="4">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B214" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D214" s="31" t="s">
-        <v>948</v>
+        <v>712</v>
       </c>
       <c r="E214" s="31" t="s">
-        <v>949</v>
+        <v>724</v>
       </c>
       <c r="G214" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I214" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="48" t="b">
+        <v>64</v>
+      </c>
+      <c r="I214" s="4">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D215" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="G215" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I215" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B215" s="48" t="s">
-        <v>737</v>
-      </c>
-      <c r="C215" s="48" t="s">
-        <v>737</v>
-      </c>
-      <c r="D215" s="48" t="s">
-        <v>737</v>
-      </c>
-      <c r="E215" s="49" t="s">
+      <c r="B216" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="C216" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="D216" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="E216" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I215" s="50"/>
-      <c r="J215" s="50"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B216" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D216" s="31" t="s">
-        <v>975</v>
-      </c>
-      <c r="E216" s="31" t="s">
-        <v>979</v>
-      </c>
-      <c r="G216" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I216" s="4">
-        <v>0.38</v>
-      </c>
+      <c r="I216" s="50"/>
+      <c r="J216" s="50"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B217" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D217" s="31" t="s">
-        <v>976</v>
+        <v>948</v>
       </c>
       <c r="E217" s="31" t="s">
-        <v>980</v>
+        <v>949</v>
       </c>
       <c r="G217" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I217" s="4">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B218" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D218" s="31" t="s">
-        <v>977</v>
-      </c>
-      <c r="E218" s="31" t="s">
-        <v>981</v>
-      </c>
-      <c r="G218" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I218" s="4">
-        <v>0.7</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B218" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="C218" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="D218" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="E218" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I218" s="50"/>
+      <c r="J218" s="50"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B219" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D219" s="31" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="G219" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I219" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B220" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D220" s="31" t="s">
+        <v>976</v>
+      </c>
+      <c r="E220" s="31" t="s">
+        <v>980</v>
+      </c>
+      <c r="G220" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I220" s="4">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D221" s="31" t="s">
+        <v>977</v>
+      </c>
+      <c r="E221" s="31" t="s">
+        <v>981</v>
+      </c>
+      <c r="G221" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I221" s="4">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B220" s="48" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C220" s="48" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D220" s="48" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E220" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="I220" s="50"/>
-      <c r="J220" s="50"/>
-    </row>
-    <row r="221" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B221" s="48" t="s">
-        <v>745</v>
-      </c>
-      <c r="C221" s="48" t="s">
-        <v>745</v>
-      </c>
-      <c r="D221" s="48" t="s">
-        <v>745</v>
-      </c>
-      <c r="E221" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="I221" s="50"/>
-      <c r="J221" s="50"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B222" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D222" s="31" t="s">
-        <v>1000</v>
+        <v>978</v>
       </c>
       <c r="E222" s="31" t="s">
-        <v>718</v>
+        <v>982</v>
       </c>
       <c r="G222" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I222" s="4" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B223" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D223" s="31" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E223" s="31" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G223" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I223" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B224" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D224" s="31" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E224" s="31" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G224" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I224" s="4">
-        <v>0</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I222" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B223" s="48" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C223" s="48" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D223" s="48" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E223" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I223" s="50"/>
+      <c r="J223" s="50"/>
+    </row>
+    <row r="224" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B224" s="48" t="s">
+        <v>745</v>
+      </c>
+      <c r="C224" s="48" t="s">
+        <v>745</v>
+      </c>
+      <c r="D224" s="48" t="s">
+        <v>745</v>
+      </c>
+      <c r="E224" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I224" s="50"/>
+      <c r="J224" s="50"/>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D225" s="31" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
       <c r="E225" s="31" t="s">
-        <v>1023</v>
+        <v>718</v>
       </c>
       <c r="G225" s="31" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>1025</v>
+        <v>883</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -12363,16 +12485,16 @@
         <v>21</v>
       </c>
       <c r="D226" s="31" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E226" s="31" t="s">
-        <v>949</v>
+        <v>1021</v>
       </c>
       <c r="G226" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I226" s="4" t="s">
-        <v>1184</v>
+        <v>64</v>
+      </c>
+      <c r="I226" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -12380,16 +12502,16 @@
         <v>21</v>
       </c>
       <c r="D227" s="31" t="s">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="E227" s="31" t="s">
-        <v>960</v>
+        <v>1022</v>
       </c>
       <c r="G227" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I227" s="4" t="s">
-        <v>1026</v>
+        <v>64</v>
+      </c>
+      <c r="I227" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
@@ -12397,16 +12519,16 @@
         <v>21</v>
       </c>
       <c r="D228" s="31" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E228" s="31" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G228" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I228" s="4">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
@@ -12414,16 +12536,16 @@
         <v>21</v>
       </c>
       <c r="D229" s="31" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="E229" s="31" t="s">
-        <v>990</v>
+        <v>949</v>
       </c>
       <c r="G229" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>1026</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
@@ -12431,16 +12553,16 @@
         <v>21</v>
       </c>
       <c r="D230" s="31" t="s">
-        <v>1028</v>
+        <v>1001</v>
       </c>
       <c r="E230" s="31" t="s">
-        <v>1033</v>
+        <v>960</v>
       </c>
       <c r="G230" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I230" s="4">
-        <v>0.1</v>
+        <v>62</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
@@ -12448,16 +12570,16 @@
         <v>21</v>
       </c>
       <c r="D231" s="31" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="E231" s="31" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="G231" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I231" s="4" t="s">
-        <v>1026</v>
+        <v>64</v>
+      </c>
+      <c r="I231" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
@@ -12465,16 +12587,16 @@
         <v>21</v>
       </c>
       <c r="D232" s="31" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E232" s="31" t="s">
-        <v>1035</v>
+        <v>990</v>
       </c>
       <c r="G232" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I232" s="4">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
@@ -12482,16 +12604,16 @@
         <v>21</v>
       </c>
       <c r="D233" s="31" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E233" s="31" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="G233" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I233" s="4" t="s">
-        <v>1185</v>
+        <v>64</v>
+      </c>
+      <c r="I233" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
@@ -12499,16 +12621,16 @@
         <v>21</v>
       </c>
       <c r="D234" s="31" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E234" s="31" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="G234" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I234" s="4">
-        <v>3.3300000000000001E-3</v>
+        <v>62</v>
+      </c>
+      <c r="I234" s="4" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -12516,16 +12638,16 @@
         <v>21</v>
       </c>
       <c r="D235" s="31" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="E235" s="31" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="G235" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I235" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -12533,16 +12655,16 @@
         <v>21</v>
       </c>
       <c r="D236" s="31" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="E236" s="31" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="G236" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I236" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I236" s="4" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
@@ -12550,16 +12672,16 @@
         <v>21</v>
       </c>
       <c r="D237" s="31" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="E237" s="31" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="G237" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I237" s="4" t="s">
-        <v>1044</v>
+        <v>64</v>
+      </c>
+      <c r="I237" s="4">
+        <v>3.3300000000000001E-3</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -12567,16 +12689,16 @@
         <v>21</v>
       </c>
       <c r="D238" s="31" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="E238" s="31" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="G238" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I238" s="4" t="s">
-        <v>1186</v>
+        <v>64</v>
+      </c>
+      <c r="I238" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -12584,16 +12706,16 @@
         <v>21</v>
       </c>
       <c r="D239" s="31" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="E239" s="31" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="G239" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I239" s="4" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="I239" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
@@ -12601,16 +12723,16 @@
         <v>21</v>
       </c>
       <c r="D240" s="31" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E240" s="31" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="G240" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I240" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.25">
@@ -12618,16 +12740,16 @@
         <v>21</v>
       </c>
       <c r="D241" s="31" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E241" s="31" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="G241" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I241" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.25">
@@ -12635,16 +12757,16 @@
         <v>21</v>
       </c>
       <c r="D242" s="31" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E242" s="31" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G242" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I242" s="4">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="I242" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="2:9" x14ac:dyDescent="0.25">
@@ -12652,10 +12774,10 @@
         <v>21</v>
       </c>
       <c r="D243" s="31" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E243" s="31" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="G243" s="31" t="s">
         <v>64</v>
@@ -12669,16 +12791,16 @@
         <v>21</v>
       </c>
       <c r="D244" s="31" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E244" s="31" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="G244" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I244" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.25">
@@ -12686,16 +12808,16 @@
         <v>21</v>
       </c>
       <c r="D245" s="31" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="E245" s="31" t="s">
-        <v>1096</v>
+        <v>1056</v>
       </c>
       <c r="G245" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I245" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.25">
@@ -12703,16 +12825,16 @@
         <v>21</v>
       </c>
       <c r="D246" s="31" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="E246" s="31" t="s">
-        <v>1097</v>
+        <v>1057</v>
       </c>
       <c r="G246" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I246" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.25">
@@ -12720,16 +12842,16 @@
         <v>21</v>
       </c>
       <c r="D247" s="31" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="E247" s="31" t="s">
-        <v>1098</v>
+        <v>1058</v>
       </c>
       <c r="G247" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I247" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.25">
@@ -12737,15 +12859,15 @@
         <v>21</v>
       </c>
       <c r="D248" s="31" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="E248" s="31" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G248" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I248" s="4" t="b">
+        <v>64</v>
+      </c>
+      <c r="I248" s="4">
         <v>1</v>
       </c>
     </row>
@@ -12754,15 +12876,15 @@
         <v>21</v>
       </c>
       <c r="D249" s="31" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E249" s="31" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G249" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I249" s="4" t="b">
+        <v>64</v>
+      </c>
+      <c r="I249" s="4">
         <v>1</v>
       </c>
     </row>
@@ -12771,15 +12893,15 @@
         <v>21</v>
       </c>
       <c r="D250" s="31" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E250" s="31" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G250" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I250" s="4" t="b">
+        <v>64</v>
+      </c>
+      <c r="I250" s="4">
         <v>1</v>
       </c>
     </row>
@@ -12788,16 +12910,16 @@
         <v>21</v>
       </c>
       <c r="D251" s="31" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E251" s="31" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="G251" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I251" s="4">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="I251" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.25">
@@ -12805,16 +12927,16 @@
         <v>21</v>
       </c>
       <c r="D252" s="31" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E252" s="31" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="G252" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I252" s="4">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="I252" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.25">
@@ -12822,16 +12944,16 @@
         <v>21</v>
       </c>
       <c r="D253" s="31" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E253" s="31" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G253" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I253" s="4">
-        <v>0.33</v>
+        <v>63</v>
+      </c>
+      <c r="I253" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.25">
@@ -12839,16 +12961,16 @@
         <v>21</v>
       </c>
       <c r="D254" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E254" s="31" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G254" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I254" s="4">
-        <v>0.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.25">
@@ -12856,16 +12978,16 @@
         <v>21</v>
       </c>
       <c r="D255" s="31" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E255" s="31" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="G255" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I255" s="4">
-        <v>1.15E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.25">
@@ -12873,16 +12995,16 @@
         <v>21</v>
       </c>
       <c r="D256" s="31" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E256" s="31" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G256" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I256" s="4">
-        <v>0.7</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
@@ -12890,16 +13012,16 @@
         <v>21</v>
       </c>
       <c r="D257" s="31" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E257" s="31" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="G257" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I257" s="4">
-        <v>3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.25">
@@ -12907,16 +13029,16 @@
         <v>21</v>
       </c>
       <c r="D258" s="31" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E258" s="31" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="G258" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I258" s="4">
-        <v>2</v>
+        <v>1.15E-2</v>
       </c>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.25">
@@ -12924,16 +13046,16 @@
         <v>21</v>
       </c>
       <c r="D259" s="31" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E259" s="31" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G259" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I259" s="4">
-        <v>2700</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
@@ -12941,16 +13063,16 @@
         <v>21</v>
       </c>
       <c r="D260" s="31" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E260" s="31" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G260" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I260" s="4">
-        <v>2700</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
@@ -12958,16 +13080,16 @@
         <v>21</v>
       </c>
       <c r="D261" s="31" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E261" s="31" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="G261" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I261" s="4">
-        <v>24.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.25">
@@ -12975,16 +13097,16 @@
         <v>21</v>
       </c>
       <c r="D262" s="31" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E262" s="31" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="G262" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I262" s="4">
-        <v>2</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.25">
@@ -12992,16 +13114,16 @@
         <v>21</v>
       </c>
       <c r="D263" s="31" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E263" s="31" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G263" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I263" s="4">
-        <v>348</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
@@ -13009,16 +13131,16 @@
         <v>21</v>
       </c>
       <c r="D264" s="31" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E264" s="31" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="G264" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I264" s="4">
-        <v>21600</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
@@ -13026,16 +13148,16 @@
         <v>21</v>
       </c>
       <c r="D265" s="31" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E265" s="31" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="G265" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I265" s="4">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.25">
@@ -13043,16 +13165,16 @@
         <v>21</v>
       </c>
       <c r="D266" s="31" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E266" s="31" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="G266" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I266" s="4">
-        <v>2700</v>
+        <v>348</v>
       </c>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.25">
@@ -13060,16 +13182,16 @@
         <v>21</v>
       </c>
       <c r="D267" s="31" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E267" s="31" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G267" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I267" s="4">
-        <v>5250</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
@@ -13077,16 +13199,16 @@
         <v>21</v>
       </c>
       <c r="D268" s="31" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E268" s="31" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="G268" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I268" s="4">
-        <v>8.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
@@ -13094,16 +13216,16 @@
         <v>21</v>
       </c>
       <c r="D269" s="31" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E269" s="31" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G269" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I269" s="4">
-        <v>1500</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.25">
@@ -13111,16 +13233,16 @@
         <v>21</v>
       </c>
       <c r="D270" s="31" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E270" s="31" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G270" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I270" s="4">
-        <v>4800</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.25">
@@ -13128,16 +13250,16 @@
         <v>21</v>
       </c>
       <c r="D271" s="31" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E271" s="31" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G271" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I271" s="4">
-        <v>4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
@@ -13145,16 +13267,16 @@
         <v>21</v>
       </c>
       <c r="D272" s="31" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E272" s="31" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G272" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I272" s="4">
-        <v>1200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -13162,16 +13284,16 @@
         <v>21</v>
       </c>
       <c r="D273" s="31" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E273" s="31" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G273" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I273" s="4">
-        <v>2400</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -13179,16 +13301,16 @@
         <v>21</v>
       </c>
       <c r="D274" s="31" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E274" s="31" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G274" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I274" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -13196,16 +13318,16 @@
         <v>21</v>
       </c>
       <c r="D275" s="31" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E275" s="31" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G275" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I275" s="4">
-        <v>300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -13213,16 +13335,16 @@
         <v>21</v>
       </c>
       <c r="D276" s="31" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E276" s="31" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G276" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I276" s="4">
-        <v>9600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -13230,10 +13352,10 @@
         <v>21</v>
       </c>
       <c r="D277" s="31" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E277" s="31" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G277" s="31" t="s">
         <v>64</v>
@@ -13247,16 +13369,16 @@
         <v>21</v>
       </c>
       <c r="D278" s="31" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E278" s="31" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="G278" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I278" s="4">
-        <v>1200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -13264,10 +13386,10 @@
         <v>21</v>
       </c>
       <c r="D279" s="31" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E279" s="31" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G279" s="31" t="s">
         <v>64</v>
@@ -13281,10 +13403,10 @@
         <v>21</v>
       </c>
       <c r="D280" s="31" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E280" s="31" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="G280" s="31" t="s">
         <v>64</v>
@@ -13298,10 +13420,10 @@
         <v>21</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E281" s="31" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G281" s="31" t="s">
         <v>64</v>
@@ -13310,40 +13432,38 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="282" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="B282" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="C282" s="48" t="s">
-        <v>862</v>
-      </c>
-      <c r="D282" s="48" t="s">
-        <v>862</v>
-      </c>
-      <c r="E282" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I282" s="50"/>
-      <c r="J282" s="50"/>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B282" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D282" s="31" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E282" s="31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G282" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I282" s="4">
+        <v>9600</v>
+      </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B283" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D283" s="31" t="s">
-        <v>816</v>
+        <v>1094</v>
       </c>
       <c r="E283" s="31" t="s">
-        <v>836</v>
+        <v>1131</v>
       </c>
       <c r="G283" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I283" s="4" t="s">
-        <v>856</v>
+        <v>64</v>
+      </c>
+      <c r="I283" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -13351,50 +13471,52 @@
         <v>21</v>
       </c>
       <c r="D284" s="31" t="s">
-        <v>817</v>
+        <v>1095</v>
       </c>
       <c r="E284" s="31" t="s">
-        <v>837</v>
+        <v>1132</v>
       </c>
       <c r="G284" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I284" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B285" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D285" s="31" t="s">
-        <v>818</v>
-      </c>
-      <c r="E285" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="G285" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I285" s="4">
-        <v>3</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I284" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B285" s="48" t="s">
+        <v>750</v>
+      </c>
+      <c r="C285" s="48" t="s">
+        <v>862</v>
+      </c>
+      <c r="D285" s="48" t="s">
+        <v>862</v>
+      </c>
+      <c r="E285" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I285" s="50"/>
+      <c r="J285" s="50"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B286" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D286" s="31" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E286" s="31" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="G286" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I286" s="4">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="I286" s="4" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -13402,16 +13524,16 @@
         <v>21</v>
       </c>
       <c r="D287" s="31" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E287" s="31" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G287" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I287" s="4">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="I287" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -13419,16 +13541,16 @@
         <v>21</v>
       </c>
       <c r="D288" s="31" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E288" s="31" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G288" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I288" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.25">
@@ -13436,16 +13558,16 @@
         <v>21</v>
       </c>
       <c r="D289" s="31" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E289" s="31" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G289" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I289" s="4" t="s">
-        <v>857</v>
+        <v>64</v>
+      </c>
+      <c r="I289" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.25">
@@ -13453,16 +13575,16 @@
         <v>21</v>
       </c>
       <c r="D290" s="31" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E290" s="31" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="G290" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I290" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.25">
@@ -13470,16 +13592,16 @@
         <v>21</v>
       </c>
       <c r="D291" s="31" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E291" s="31" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G291" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I291" s="4" t="s">
-        <v>857</v>
+        <v>64</v>
+      </c>
+      <c r="I291" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.25">
@@ -13487,16 +13609,16 @@
         <v>21</v>
       </c>
       <c r="D292" s="31" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E292" s="31" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G292" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I292" s="4">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="I292" s="4" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.25">
@@ -13504,16 +13626,16 @@
         <v>21</v>
       </c>
       <c r="D293" s="31" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E293" s="31" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G293" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I293" s="4" t="s">
-        <v>857</v>
+        <v>64</v>
+      </c>
+      <c r="I293" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.25">
@@ -13521,16 +13643,16 @@
         <v>21</v>
       </c>
       <c r="D294" s="31" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E294" s="31" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="G294" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I294" s="4">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="I294" s="4" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.25">
@@ -13538,16 +13660,16 @@
         <v>21</v>
       </c>
       <c r="D295" s="31" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E295" s="31" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G295" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I295" s="4">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.25">
@@ -13555,16 +13677,16 @@
         <v>21</v>
       </c>
       <c r="D296" s="31" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E296" s="31" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="G296" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I296" s="4">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="I296" s="4" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.25">
@@ -13572,16 +13694,16 @@
         <v>21</v>
       </c>
       <c r="D297" s="31" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E297" s="31" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G297" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I297" s="4" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="I297" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.25">
@@ -13589,16 +13711,16 @@
         <v>21</v>
       </c>
       <c r="D298" s="31" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E298" s="31" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="G298" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I298" s="4" t="s">
-        <v>858</v>
+        <v>64</v>
+      </c>
+      <c r="I298" s="4">
+        <v>35</v>
       </c>
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.25">
@@ -13606,16 +13728,16 @@
         <v>21</v>
       </c>
       <c r="D299" s="31" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E299" s="31" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G299" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I299" s="4" t="s">
-        <v>859</v>
+        <v>64</v>
+      </c>
+      <c r="I299" s="4">
+        <v>65</v>
       </c>
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.25">
@@ -13623,16 +13745,16 @@
         <v>21</v>
       </c>
       <c r="D300" s="31" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E300" s="31" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G300" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I300" s="4" t="s">
-        <v>860</v>
+        <v>63</v>
+      </c>
+      <c r="I300" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.25">
@@ -13640,16 +13762,16 @@
         <v>21</v>
       </c>
       <c r="D301" s="31" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E301" s="31" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G301" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I301" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.25">
@@ -13657,27 +13779,78 @@
         <v>21</v>
       </c>
       <c r="D302" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="E302" s="31" t="s">
+        <v>854</v>
+      </c>
+      <c r="G302" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I302" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B303" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="E303" s="31" t="s">
+        <v>852</v>
+      </c>
+      <c r="G303" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I303" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B304" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D304" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="E304" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="G304" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I304" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B305" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="E302" s="31" t="s">
+      <c r="E305" s="31" t="s">
         <v>855</v>
       </c>
-      <c r="G302" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I302" s="4">
+      <c r="G305" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I305" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA62"/>
+  <autoFilter ref="A2:AA65"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I194:I201" numberStoredAsText="1"/>
+    <ignoredError sqref="I197:I204" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/OpenStudio-analysis-spreadsheet/projects/slab.xlsx
+++ b/OpenStudio-analysis-spreadsheet/projects/slab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="10290" windowHeight="2370" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="10290" windowHeight="2370" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$AA$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$AA$114</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="1206">
   <si>
     <t>type</t>
   </si>
@@ -2311,15 +2311,9 @@
     <t>Uninsulated</t>
   </si>
   <si>
-    <t>Cooking Range Energy Consumption Option</t>
-  </si>
-  <si>
     <t>Cooking Range Fuel</t>
   </si>
   <si>
-    <t>Simple Range Annual Consumption (kWh/yr or therms/yr)</t>
-  </si>
-  <si>
     <t>Building America Benchmark Multiplier</t>
   </si>
   <si>
@@ -2332,21 +2326,12 @@
     <t>Cooktop Energy Factor</t>
   </si>
   <si>
-    <t>Has glo bar ignition</t>
-  </si>
-  <si>
     <t>Select the space where the cooking range is located</t>
   </si>
   <si>
-    <t>selected_range</t>
-  </si>
-  <si>
     <t>range_fuel</t>
   </si>
   <si>
-    <t>range_E</t>
-  </si>
-  <si>
     <t>BAB_mult</t>
   </si>
   <si>
@@ -2359,9 +2344,6 @@
     <t>C_ef</t>
   </si>
   <si>
-    <t>Glo_Bar</t>
-  </si>
-  <si>
     <t>Benchmark</t>
   </si>
   <si>
@@ -2473,18 +2455,9 @@
     <t>dw_E</t>
   </si>
   <si>
-    <t>Refrigerator Energy Consumption Option</t>
-  </si>
-  <si>
-    <t>User Defined Refrigerator Annual Energy Consumption (kWh/yr)</t>
-  </si>
-  <si>
     <t>Select the space where the refrigerator is located</t>
   </si>
   <si>
-    <t>selected_fridge</t>
-  </si>
-  <si>
     <t>fridge_E</t>
   </si>
   <si>
@@ -2611,9 +2584,6 @@
     <t>insulation_nominal_r_value</t>
   </si>
   <si>
-    <t>New Plant Loop</t>
-  </si>
-  <si>
     <t>first floor living</t>
   </si>
   <si>
@@ -3622,18 +3592,6 @@
     <t>[1, 2]</t>
   </si>
   <si>
-    <t>SetDRWeatherFIle</t>
-  </si>
-  <si>
-    <t>beopt_weather_dir</t>
-  </si>
-  <si>
-    <t>Directory</t>
-  </si>
-  <si>
-    <t>Weather Directory Name</t>
-  </si>
-  <si>
     <t>Weather File Name</t>
   </si>
   <si>
@@ -3646,7 +3604,61 @@
     <t>USA_CO_Denver.Intl.AP.725650_TMY3.epw</t>
   </si>
   <si>
-    <t>../weather/*.epw</t>
+    <t>SetDRWeatherFile</t>
+  </si>
+  <si>
+    <t>Weather Directory</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>Has Electronic Ignition</t>
+  </si>
+  <si>
+    <t>e_ignition</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Occupancy Energy Multiplier</t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>Weekday schedule</t>
+  </si>
+  <si>
+    <t>weekday_sch</t>
+  </si>
+  <si>
+    <t>Weekend schedule</t>
+  </si>
+  <si>
+    <t>weekend_sch</t>
+  </si>
+  <si>
+    <t>0.007, 0.007, 0.004, 0.004, 0.007, 0.011, 0.025, 0.042, 0.046, 0.048, 0.042, 0.050, 0.057, 0.046, 0.057, 0.044, 0.092, 0.150, 0.117, 0.060, 0.035, 0.025, 0.016, 0.011</t>
+  </si>
+  <si>
+    <t>Month schedule</t>
+  </si>
+  <si>
+    <t>monthly_sch</t>
+  </si>
+  <si>
+    <t>1.097, 1.097, 0.991, 0.987, 0.991, 0.890, 0.896, 0.896, 0.890, 1.085, 1.085, 1.097</t>
+  </si>
+  <si>
+    <t>Rated Annual Consumption</t>
+  </si>
+  <si>
+    <t>0.040, 0.039, 0.038, 0.037, 0.036, 0.036, 0.038, 0.040, 0.041, 0.041, 0.040, 0.040, 0.042, 0.042, 0.042, 0.041, 0.044, 0.048, 0.050, 0.048, 0.047, 0.046, 0.044, 0.041</t>
+  </si>
+  <si>
+    <t>0.837, 0.835, 1.084, 1.084, 1.084, 1.096, 1.096, 1.096, 1.096, 0.931, 0.925, 0.837</t>
   </si>
 </sst>
 </file>
@@ -5730,7 +5742,6 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5756,9 +5767,6 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5794,6 +5802,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1801">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -7897,8 +7909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7931,8 +7943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8335,15 +8347,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>1201</v>
-      </c>
+      <c r="A43" s="31"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="26"/>
@@ -8373,9 +8378,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z305"/>
+  <dimension ref="A1:Z308"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -8433,14 +8438,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -8455,7 +8460,7 @@
       <c r="D2" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="42"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -8475,7 +8480,7 @@
       <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>689</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -8536,121 +8541,121 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="b">
+    <row r="4" spans="1:26" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+    </row>
+    <row r="5" spans="1:26" s="57" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J5" s="67"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+    </row>
+    <row r="6" spans="1:26" s="57" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+    </row>
+    <row r="7" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E4" s="65" t="s">
+      <c r="B7" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-    </row>
-    <row r="5" spans="1:26" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="63" t="s">
-        <v>1194</v>
-      </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-    </row>
-    <row r="6" spans="1:26" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60" t="s">
-        <v>1200</v>
-      </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-    </row>
-    <row r="7" spans="1:26" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>752</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>752</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>752</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
@@ -8669,80 +8674,80 @@
         <v>754</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+    <row r="9" spans="1:26" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="56" t="s">
-        <v>889</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>891</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="57">
+      <c r="D9" s="55" t="s">
+        <v>879</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>881</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="56">
         <v>0.5</v>
       </c>
-      <c r="J9" s="56" t="s">
-        <v>1189</v>
-      </c>
-      <c r="K9" s="56">
+      <c r="J9" s="55" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K9" s="55">
         <v>0.5</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="55">
         <v>0.51</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="55">
         <v>0.5</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="55">
         <v>1</v>
       </c>
-      <c r="P9" s="56" t="s">
-        <v>1191</v>
-      </c>
-      <c r="R9" s="56" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
+      <c r="P9" s="55" t="s">
+        <v>1181</v>
+      </c>
+      <c r="R9" s="55" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>890</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>892</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="57">
+      <c r="D10" s="55" t="s">
+        <v>880</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>882</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="56">
         <v>1</v>
       </c>
-      <c r="J10" s="56" t="s">
-        <v>1190</v>
-      </c>
-      <c r="K10" s="56">
+      <c r="J10" s="55" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K10" s="55">
         <v>1</v>
       </c>
-      <c r="L10" s="56">
-        <v>2</v>
-      </c>
-      <c r="M10" s="56">
+      <c r="L10" s="55">
+        <v>2</v>
+      </c>
+      <c r="M10" s="55">
         <v>1</v>
       </c>
-      <c r="N10" s="56">
+      <c r="N10" s="55">
         <v>1</v>
       </c>
-      <c r="P10" s="56" t="s">
-        <v>1192</v>
-      </c>
-      <c r="R10" s="56" t="s">
-        <v>1187</v>
+      <c r="P10" s="55" t="s">
+        <v>1182</v>
+      </c>
+      <c r="R10" s="55" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -8750,16 +8755,16 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -8767,16 +8772,16 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -8784,10 +8789,10 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>64</v>
@@ -8801,16 +8806,16 @@
         <v>21</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -8818,10 +8823,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>63</v>
@@ -8835,10 +8840,10 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>64</v>
@@ -8852,10 +8857,10 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>64</v>
@@ -8869,10 +8874,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>63</v>
@@ -8886,10 +8891,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>64</v>
@@ -8903,10 +8908,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>64</v>
@@ -8920,10 +8925,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>64</v>
@@ -8937,10 +8942,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="G22" s="31" t="s">
         <v>64</v>
@@ -8954,10 +8959,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="G23" s="31" t="s">
         <v>64</v>
@@ -8971,10 +8976,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="G24" s="31" t="s">
         <v>64</v>
@@ -8983,46 +8988,46 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="b">
+    <row r="25" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>735</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>735</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="47" t="s">
         <v>735</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="54"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="53"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>718</v>
+        <v>915</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>754</v>
+        <v>916</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -9030,36 +9035,36 @@
         <v>21</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="b">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>753</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47" t="s">
         <v>753</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="47" t="s">
         <v>753</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
@@ -9083,16 +9088,16 @@
         <v>21</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -9100,10 +9105,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="G31" s="31" t="s">
         <v>62</v>
@@ -9117,10 +9122,10 @@
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>64</v>
@@ -9134,10 +9139,10 @@
         <v>21</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>64</v>
@@ -9151,10 +9156,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="G34" s="31" t="s">
         <v>62</v>
@@ -9168,10 +9173,10 @@
         <v>21</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="G35" s="31" t="s">
         <v>64</v>
@@ -9185,10 +9190,10 @@
         <v>21</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>62</v>
@@ -9202,10 +9207,10 @@
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>64</v>
@@ -9219,10 +9224,10 @@
         <v>21</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>64</v>
@@ -9236,10 +9241,10 @@
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>64</v>
@@ -9253,10 +9258,10 @@
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>63</v>
@@ -9270,10 +9275,10 @@
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>64</v>
@@ -9287,10 +9292,10 @@
         <v>21</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>64</v>
@@ -9304,10 +9309,10 @@
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>64</v>
@@ -9321,10 +9326,10 @@
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>64</v>
@@ -9333,24 +9338,24 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="b">
+    <row r="45" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="47" t="s">
         <v>732</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="47" t="s">
         <v>732</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="47" t="s">
         <v>732</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
@@ -9374,16 +9379,16 @@
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -9391,10 +9396,10 @@
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>64</v>
@@ -9408,10 +9413,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="G49" s="31" t="s">
         <v>64</v>
@@ -9425,10 +9430,10 @@
         <v>21</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>64</v>
@@ -9442,10 +9447,10 @@
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>64</v>
@@ -9459,16 +9464,16 @@
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -9476,16 +9481,16 @@
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -9493,10 +9498,10 @@
         <v>21</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>64</v>
@@ -9510,16 +9515,16 @@
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -9527,10 +9532,10 @@
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>63</v>
@@ -9544,10 +9549,10 @@
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>64</v>
@@ -9561,10 +9566,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>64</v>
@@ -9573,24 +9578,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="b">
+    <row r="59" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="47" t="s">
         <v>738</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="47" t="s">
         <v>738</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="47" t="s">
         <v>738</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
@@ -9614,36 +9619,36 @@
         <v>21</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="b">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="47" t="s">
         <v>740</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="47" t="s">
         <v>740</v>
       </c>
-      <c r="D62" s="48" t="s">
+      <c r="D62" s="47" t="s">
         <v>740</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" s="31" t="s">
@@ -9667,10 +9672,10 @@
         <v>21</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="G64" s="31" t="s">
         <v>62</v>
@@ -9681,10 +9686,10 @@
         <v>21</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>62</v>
@@ -9695,52 +9700,52 @@
         <v>21</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="G66" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48" t="b">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="47" t="s">
         <v>731</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="47" t="s">
         <v>731</v>
       </c>
-      <c r="D67" s="48" t="s">
+      <c r="D67" s="47" t="s">
         <v>731</v>
       </c>
-      <c r="E67" s="49" t="s">
+      <c r="E67" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G68" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -9748,16 +9753,16 @@
         <v>21</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G69" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -9765,10 +9770,10 @@
         <v>21</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G70" s="31" t="s">
         <v>64</v>
@@ -9782,10 +9787,10 @@
         <v>21</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G71" s="31" t="s">
         <v>65</v>
@@ -9799,10 +9804,10 @@
         <v>21</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G72" s="31" t="s">
         <v>64</v>
@@ -9816,16 +9821,16 @@
         <v>21</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G73" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -9833,10 +9838,10 @@
         <v>21</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G74" s="31" t="s">
         <v>64</v>
@@ -9850,10 +9855,10 @@
         <v>21</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="G75" s="31" t="s">
         <v>64</v>
@@ -9867,10 +9872,10 @@
         <v>21</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="G76" s="31" t="s">
         <v>64</v>
@@ -9884,10 +9889,10 @@
         <v>21</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G77" s="31" t="s">
         <v>65</v>
@@ -9901,7 +9906,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E78" s="31" t="s">
         <v>45</v>
@@ -9913,40 +9918,40 @@
         <v>754</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B79" s="48" t="s">
+    <row r="79" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B79" s="47" t="s">
         <v>730</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="47" t="s">
         <v>730</v>
       </c>
-      <c r="D79" s="48" t="s">
+      <c r="D79" s="47" t="s">
         <v>730</v>
       </c>
-      <c r="E79" s="49" t="s">
+      <c r="E79" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>756</v>
-      </c>
-      <c r="E80" s="42" t="s">
-        <v>765</v>
+        <v>758</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>764</v>
       </c>
       <c r="G80" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>773</v>
+      <c r="I80" s="70">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -9954,16 +9959,16 @@
         <v>21</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G81" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>1179</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -9971,16 +9976,16 @@
         <v>21</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G82" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I82" s="4">
-        <v>0</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -9991,13 +9996,13 @@
         <v>759</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G83" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I83" s="4">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -10005,16 +10010,16 @@
         <v>21</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>760</v>
+        <v>1190</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>769</v>
+        <v>1191</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I84" s="4">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="I84" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -10022,16 +10027,16 @@
         <v>21</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>761</v>
+        <v>1193</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>770</v>
+        <v>1194</v>
       </c>
       <c r="G85" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I85" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -10039,16 +10044,16 @@
         <v>21</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>771</v>
+        <v>45</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I86" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -10056,16 +10061,16 @@
         <v>21</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>763</v>
+        <v>1195</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>772</v>
+        <v>1196</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I87" s="4" t="b">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -10073,69 +10078,69 @@
         <v>21</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>764</v>
+        <v>1197</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>45</v>
+        <v>1198</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="b">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I89" s="31" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B89" s="48" t="s">
+      <c r="B90" s="47" t="s">
         <v>748</v>
       </c>
-      <c r="C89" s="48" t="s">
+      <c r="C90" s="47" t="s">
         <v>748</v>
       </c>
-      <c r="D89" s="48" t="s">
+      <c r="D90" s="47" t="s">
         <v>748</v>
       </c>
-      <c r="E89" s="49" t="s">
+      <c r="E90" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I89" s="50"/>
-      <c r="J89" s="50"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>808</v>
-      </c>
-      <c r="G90" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>773</v>
-      </c>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I91" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -10143,16 +10148,16 @@
         <v>21</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>759</v>
+        <v>800</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="G92" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I92" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -10160,16 +10165,16 @@
         <v>21</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I93" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -10177,69 +10182,69 @@
         <v>21</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>807</v>
+        <v>758</v>
       </c>
       <c r="E94" s="31" t="s">
+        <v>764</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I94" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="E95" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G94" s="31" t="s">
+      <c r="G95" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="48" t="b">
+    <row r="96" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B96" s="47" t="s">
         <v>746</v>
       </c>
-      <c r="C95" s="48" t="s">
+      <c r="C96" s="47" t="s">
         <v>746</v>
       </c>
-      <c r="D95" s="48" t="s">
+      <c r="D96" s="47" t="s">
         <v>746</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E96" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I95" s="50"/>
-      <c r="J95" s="50"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="E96" s="31" t="s">
-        <v>797</v>
-      </c>
-      <c r="G96" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>773</v>
-      </c>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B97" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I97" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -10247,16 +10252,16 @@
         <v>21</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G98" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I98" s="4">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -10264,16 +10269,16 @@
         <v>21</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>759</v>
+        <v>789</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>768</v>
+        <v>793</v>
       </c>
       <c r="G99" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I99" s="4">
-        <v>1</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -10281,16 +10286,16 @@
         <v>21</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I100" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -10298,69 +10303,69 @@
         <v>21</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
       <c r="E101" s="31" t="s">
+        <v>764</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I101" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="E102" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G101" s="31" t="s">
+      <c r="G102" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I102" s="4" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B102" s="48" t="s">
+    <row r="103" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>806</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>806</v>
+      </c>
+      <c r="D103" s="47" t="s">
         <v>749</v>
       </c>
-      <c r="C102" s="48" t="s">
-        <v>815</v>
-      </c>
-      <c r="D102" s="48" t="s">
-        <v>749</v>
-      </c>
-      <c r="E102" s="49" t="s">
+      <c r="E103" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I102" s="50"/>
-      <c r="J102" s="50"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>810</v>
-      </c>
-      <c r="E103" s="31" t="s">
-        <v>813</v>
-      </c>
-      <c r="G103" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>773</v>
-      </c>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B104" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>811</v>
+        <v>1203</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="G104" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I104" s="4">
-        <v>0</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -10368,10 +10373,10 @@
         <v>21</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>759</v>
+        <v>1193</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>768</v>
+        <v>1194</v>
       </c>
       <c r="G105" s="31" t="s">
         <v>64</v>
@@ -10385,7 +10390,7 @@
         <v>21</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E106" s="31" t="s">
         <v>45</v>
@@ -10397,40 +10402,38 @@
         <v>754</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B107" s="48" t="s">
-        <v>747</v>
-      </c>
-      <c r="C107" s="48" t="s">
-        <v>747</v>
-      </c>
-      <c r="D107" s="48" t="s">
-        <v>747</v>
-      </c>
-      <c r="E107" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I107" s="50"/>
-      <c r="J107" s="50"/>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>800</v>
+        <v>1197</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>803</v>
+        <v>1198</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>773</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -10438,50 +10441,52 @@
         <v>21</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>801</v>
+        <v>1200</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>804</v>
+        <v>1201</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="E110" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="G110" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I110" s="4">
-        <v>2700</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B110" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="E110" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I110" s="49"/>
+      <c r="J110" s="49"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B111" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>759</v>
+        <v>794</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="G111" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -10489,16 +10494,16 @@
         <v>21</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>760</v>
+        <v>795</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="G112" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I112" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -10506,46 +10511,44 @@
         <v>21</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>45</v>
+        <v>793</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="48" t="b">
+        <v>64</v>
+      </c>
+      <c r="I113" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I114" s="4">
         <v>1</v>
       </c>
-      <c r="B114" s="48" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C114" s="48" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D114" s="48" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E114" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I114" s="50"/>
-      <c r="J114" s="50"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>1136</v>
+        <v>764</v>
       </c>
       <c r="G115" s="31" t="s">
         <v>65</v>
@@ -10559,7 +10562,7 @@
         <v>21</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>1135</v>
+        <v>796</v>
       </c>
       <c r="E116" s="31" t="s">
         <v>45</v>
@@ -10571,40 +10574,40 @@
         <v>754</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="48" t="b">
+    <row r="117" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B117" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="C117" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="D117" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="E117" s="49" t="s">
+      <c r="B117" s="47" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D117" s="47" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E117" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I117" s="50"/>
-      <c r="J117" s="50"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B118" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>863</v>
+        <v>758</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>874</v>
+        <v>1126</v>
       </c>
       <c r="G118" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>1180</v>
+        <v>65</v>
+      </c>
+      <c r="I118" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -10612,50 +10615,52 @@
         <v>21</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>864</v>
+        <v>1125</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>838</v>
+        <v>45</v>
       </c>
       <c r="G119" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I119" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="31" t="s">
-        <v>865</v>
-      </c>
-      <c r="E120" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="G120" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I120" s="4">
-        <v>2</v>
-      </c>
+      <c r="I119" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B120" s="47" t="s">
+        <v>751</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>751</v>
+      </c>
+      <c r="D120" s="47" t="s">
+        <v>751</v>
+      </c>
+      <c r="E120" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I120" s="49"/>
+      <c r="J120" s="49"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B121" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>836</v>
+        <v>864</v>
       </c>
       <c r="G121" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -10663,16 +10668,16 @@
         <v>21</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>876</v>
+        <v>829</v>
       </c>
       <c r="G122" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I122" s="4">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -10680,16 +10685,16 @@
         <v>21</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="G123" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I123" s="4">
-        <v>125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -10697,16 +10702,16 @@
         <v>21</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>878</v>
+        <v>827</v>
       </c>
       <c r="G124" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>883</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -10714,10 +10719,10 @@
         <v>21</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="G125" s="31" t="s">
         <v>64</v>
@@ -10731,16 +10736,16 @@
         <v>21</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="G126" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I126" s="4">
-        <v>0.59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -10748,16 +10753,16 @@
         <v>21</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="G127" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I127" s="4">
-        <v>0.78</v>
+        <v>62</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -10765,52 +10770,50 @@
         <v>21</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="G128" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B129" s="48" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C129" s="48" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E129" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I129" s="50"/>
-      <c r="J129" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="I128" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>861</v>
+      </c>
+      <c r="E129" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="G129" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I129" s="4">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B130" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="G130" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I130" s="4">
-        <v>49.57</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -10818,122 +10821,124 @@
         <v>21</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="G131" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I131" s="4">
-        <v>41.06</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="48" t="b">
+        <v>62</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B132" s="48" t="s">
-        <v>741</v>
-      </c>
-      <c r="C132" s="48" t="s">
-        <v>741</v>
-      </c>
-      <c r="D132" s="48" t="s">
-        <v>741</v>
-      </c>
-      <c r="E132" s="49" t="s">
+      <c r="B132" s="47" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C132" s="47" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D132" s="47" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E132" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I132" s="50"/>
-      <c r="J132" s="50"/>
-    </row>
-    <row r="133" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B133" s="48" t="s">
-        <v>742</v>
-      </c>
-      <c r="C133" s="48" t="s">
-        <v>742</v>
-      </c>
-      <c r="D133" s="48" t="s">
-        <v>742</v>
-      </c>
-      <c r="E133" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I133" s="50"/>
-      <c r="J133" s="50"/>
+      <c r="I132" s="49"/>
+      <c r="J132" s="49"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="E133" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="G133" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I133" s="4">
+        <v>49.57</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B134" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>991</v>
+        <v>876</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>718</v>
+        <v>878</v>
       </c>
       <c r="G134" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B135" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D135" s="31" t="s">
-        <v>992</v>
-      </c>
-      <c r="E135" s="31" t="s">
-        <v>996</v>
-      </c>
-      <c r="G135" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I135" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B136" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D136" s="31" t="s">
-        <v>993</v>
-      </c>
-      <c r="E136" s="31" t="s">
-        <v>997</v>
-      </c>
-      <c r="G136" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I136" s="4">
-        <v>76</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I134" s="4">
+        <v>41.06</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B135" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="C135" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="D135" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="E135" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I135" s="49"/>
+      <c r="J135" s="49"/>
+    </row>
+    <row r="136" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="C136" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="D136" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="E136" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I136" s="49"/>
+      <c r="J136" s="49"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B137" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>998</v>
+        <v>718</v>
       </c>
       <c r="G137" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I137" s="4" t="b">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -10941,52 +10946,50 @@
         <v>21</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="G138" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I138" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B139" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="C139" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="D139" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="E139" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I139" s="50"/>
-      <c r="J139" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="I138" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="31" t="s">
+        <v>983</v>
+      </c>
+      <c r="E139" s="31" t="s">
+        <v>987</v>
+      </c>
+      <c r="G139" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I139" s="4">
+        <v>76</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B140" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>718</v>
+        <v>988</v>
       </c>
       <c r="G140" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>883</v>
+        <v>63</v>
+      </c>
+      <c r="I140" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -10994,337 +10997,341 @@
         <v>21</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
       <c r="G141" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B142" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D142" s="31" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E142" s="31" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G142" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>1011</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I141" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B142" s="47" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C142" s="47" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D142" s="47" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E142" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I142" s="49"/>
+      <c r="J142" s="49"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B143" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>1008</v>
+        <v>1128</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>1010</v>
+        <v>1149</v>
       </c>
       <c r="G143" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="48" t="b">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E144" s="31" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G144" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E145" s="31" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G145" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I145" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="B144" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="C144" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="D144" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="E144" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I144" s="50"/>
-      <c r="J144" s="50"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B145" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D145" s="31" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E145" s="31" t="s">
-        <v>718</v>
-      </c>
-      <c r="G145" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>1001</v>
+        <v>1131</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>960</v>
+        <v>1152</v>
       </c>
       <c r="G146" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="I146" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>1002</v>
+        <v>1132</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>1012</v>
+        <v>1153</v>
       </c>
       <c r="G147" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I147" s="4">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="I147" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>1003</v>
+        <v>1133</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>1013</v>
+        <v>1154</v>
       </c>
       <c r="G148" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I148" s="4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>1004</v>
+        <v>1134</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>1014</v>
+        <v>1155</v>
       </c>
       <c r="G149" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I149" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>1005</v>
+        <v>1135</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>1015</v>
+        <v>1156</v>
       </c>
       <c r="G150" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B151" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="I150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E151" s="31" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G151" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="31" t="s">
         <v>1137</v>
       </c>
-      <c r="C151" s="48" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D151" s="48" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E151" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I151" s="50"/>
-      <c r="J151" s="50"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="31" t="s">
+      <c r="E152" s="31" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G152" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" s="31" t="s">
         <v>1138</v>
       </c>
-      <c r="E152" s="31" t="s">
+      <c r="E153" s="31" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G153" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E154" s="31" t="s">
         <v>1159</v>
       </c>
-      <c r="G152" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="31" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E153" s="31" t="s">
+      <c r="G154" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E155" s="31" t="s">
         <v>1160</v>
       </c>
-      <c r="G153" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I153" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B154" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D154" s="31" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E154" s="31" t="s">
+      <c r="G155" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E156" s="31" t="s">
         <v>1161</v>
       </c>
-      <c r="G154" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I154" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B155" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D155" s="31" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E155" s="31" t="s">
+      <c r="G156" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" s="31" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E157" s="31" t="s">
         <v>1162</v>
       </c>
-      <c r="G155" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I155" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B156" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D156" s="31" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E156" s="31" t="s">
+      <c r="G157" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I157" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" s="31" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E158" s="31" t="s">
         <v>1163</v>
       </c>
-      <c r="G156" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I156" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B157" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D157" s="31" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E157" s="31" t="s">
+      <c r="G158" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I158" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="31" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E159" s="31" t="s">
         <v>1164</v>
       </c>
-      <c r="G157" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I157" s="4">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B158" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D158" s="31" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E158" s="31" t="s">
+      <c r="G159" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I159" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" s="31" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E160" s="31" t="s">
         <v>1165</v>
       </c>
-      <c r="G158" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I158" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B159" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D159" s="31" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E159" s="31" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G159" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I159" s="4">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D160" s="31" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E160" s="31" t="s">
-        <v>1167</v>
-      </c>
       <c r="G160" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I160" s="4">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -11332,16 +11339,16 @@
         <v>21</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>1178</v>
+        <v>45</v>
       </c>
       <c r="G161" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I161" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -11349,16 +11356,16 @@
         <v>21</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="G162" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I162" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -11366,50 +11373,49 @@
         <v>21</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="G163" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I163" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D164" s="31" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E164" s="31" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G164" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I164" s="4">
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B164" s="47" t="s">
+        <v>739</v>
+      </c>
+      <c r="C164" s="47" t="s">
+        <v>739</v>
+      </c>
+      <c r="D164" s="47" t="s">
+        <v>739</v>
+      </c>
+      <c r="E164" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I164" s="49"/>
+      <c r="J164" s="49"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B165" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>1151</v>
+        <v>706</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>1171</v>
+        <v>718</v>
       </c>
       <c r="G165" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I165" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -11417,16 +11423,13 @@
         <v>21</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>1152</v>
+        <v>949</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>1172</v>
+        <v>950</v>
       </c>
       <c r="G166" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I166" s="4">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -11434,16 +11437,16 @@
         <v>21</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>1153</v>
+        <v>941</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>1173</v>
+        <v>942</v>
       </c>
       <c r="G167" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I167" s="4">
-        <v>55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -11451,16 +11454,16 @@
         <v>21</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>1154</v>
+        <v>943</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>1174</v>
+        <v>944</v>
       </c>
       <c r="G168" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I168" s="4">
-        <v>50</v>
+        <v>1.1112</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -11468,16 +11471,16 @@
         <v>21</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>1155</v>
+        <v>945</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>1175</v>
+        <v>946</v>
       </c>
       <c r="G169" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I169" s="4">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -11485,16 +11488,16 @@
         <v>21</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>1156</v>
+        <v>947</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>45</v>
+        <v>948</v>
       </c>
       <c r="G170" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>754</v>
+        <v>64</v>
+      </c>
+      <c r="I170" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -11502,16 +11505,16 @@
         <v>21</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>1157</v>
+        <v>973</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>1176</v>
+        <v>976</v>
       </c>
       <c r="G171" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I171" s="4" t="s">
-        <v>950</v>
+        <v>64</v>
+      </c>
+      <c r="I171" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -11519,340 +11522,373 @@
         <v>21</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>1158</v>
+        <v>974</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>1177</v>
+        <v>977</v>
       </c>
       <c r="G172" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="48" t="b">
+        <v>64</v>
+      </c>
+      <c r="I172" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173" s="31" t="s">
+        <v>975</v>
+      </c>
+      <c r="E173" s="31" t="s">
+        <v>978</v>
+      </c>
+      <c r="G173" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B173" s="48" t="s">
-        <v>739</v>
-      </c>
-      <c r="C173" s="48" t="s">
-        <v>739</v>
-      </c>
-      <c r="D173" s="48" t="s">
-        <v>739</v>
-      </c>
-      <c r="E173" s="49" t="s">
+      <c r="B174" s="47" t="s">
+        <v>734</v>
+      </c>
+      <c r="C174" s="47" t="s">
+        <v>734</v>
+      </c>
+      <c r="D174" s="47" t="s">
+        <v>734</v>
+      </c>
+      <c r="E174" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I173" s="50"/>
-      <c r="J173" s="50"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B174" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D174" s="31" t="s">
-        <v>706</v>
-      </c>
-      <c r="E174" s="31" t="s">
-        <v>718</v>
-      </c>
-      <c r="G174" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I174" s="4" t="s">
-        <v>754</v>
-      </c>
+      <c r="H174" s="49"/>
+      <c r="I174" s="49"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D175" s="31" t="s">
-        <v>959</v>
+        <v>706</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>960</v>
+        <v>718</v>
       </c>
       <c r="G175" s="31" t="s">
         <v>62</v>
       </c>
+      <c r="I175" s="4" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B176" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D176" s="31" t="s">
+        <v>938</v>
+      </c>
+      <c r="E176" s="31" t="s">
+        <v>939</v>
+      </c>
+      <c r="G176" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B177" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" s="31" t="s">
+        <v>959</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>888</v>
+      </c>
+      <c r="G177" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I177" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B178" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>961</v>
+      </c>
+      <c r="G178" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I178" s="31">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B179" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="31" t="s">
         <v>951</v>
       </c>
-      <c r="E176" s="31" t="s">
+      <c r="E179" s="31" t="s">
+        <v>953</v>
+      </c>
+      <c r="G179" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I179" s="4">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B180" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D180" s="31" t="s">
         <v>952</v>
       </c>
-      <c r="G176" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I176" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D177" s="31" t="s">
-        <v>953</v>
-      </c>
-      <c r="E177" s="31" t="s">
+      <c r="E180" s="31" t="s">
         <v>954</v>
       </c>
-      <c r="G177" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I177" s="4">
-        <v>1.1112</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D178" s="31" t="s">
+      <c r="G180" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I180" s="4">
+        <v>0.8004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B181" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="31" t="s">
         <v>955</v>
       </c>
-      <c r="E178" s="31" t="s">
+      <c r="E181" s="31" t="s">
+        <v>957</v>
+      </c>
+      <c r="G181" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I181" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B182" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="G178" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I178" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B179" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D179" s="31" t="s">
-        <v>957</v>
-      </c>
-      <c r="E179" s="31" t="s">
+      <c r="E182" s="31" t="s">
         <v>958</v>
       </c>
-      <c r="G179" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I179" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D180" s="31" t="s">
-        <v>983</v>
-      </c>
-      <c r="E180" s="31" t="s">
-        <v>986</v>
-      </c>
-      <c r="G180" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I180" s="4">
+      <c r="G182" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I182" s="31">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B183" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E183" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="G183" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I183" s="4">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B184" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="E184" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="G184" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I184" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D181" s="31" t="s">
-        <v>984</v>
-      </c>
-      <c r="E181" s="31" t="s">
-        <v>987</v>
-      </c>
-      <c r="G181" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I181" s="4">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D182" s="31" t="s">
-        <v>985</v>
-      </c>
-      <c r="E182" s="31" t="s">
-        <v>988</v>
-      </c>
-      <c r="G182" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B183" s="48" t="s">
-        <v>734</v>
-      </c>
-      <c r="C183" s="48" t="s">
-        <v>734</v>
-      </c>
-      <c r="D183" s="48" t="s">
-        <v>734</v>
-      </c>
-      <c r="E183" s="49" t="s">
+      <c r="B185" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="C185" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="D185" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="E185" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H183" s="50"/>
-      <c r="I183" s="50"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D184" s="31" t="s">
+      <c r="F185" s="47"/>
+      <c r="H185" s="54"/>
+      <c r="I185" s="54"/>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B186" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="31" t="s">
         <v>706</v>
       </c>
-      <c r="E184" s="31" t="s">
+      <c r="E186" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="G184" s="31" t="s">
+      <c r="G186" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I184" s="4" t="s">
+      <c r="I186" s="31" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D185" s="31" t="s">
-        <v>948</v>
-      </c>
-      <c r="E185" s="31" t="s">
-        <v>949</v>
-      </c>
-      <c r="G185" s="31" t="s">
+      <c r="J186" s="31"/>
+    </row>
+    <row r="187" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="E187" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="G187" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I185" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B186" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D186" s="31" t="s">
-        <v>969</v>
-      </c>
-      <c r="E186" s="31" t="s">
-        <v>898</v>
-      </c>
-      <c r="G186" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I186" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D187" s="31" t="s">
-        <v>970</v>
-      </c>
-      <c r="E187" s="31" t="s">
-        <v>971</v>
-      </c>
-      <c r="G187" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I187" s="31">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I187" s="31" t="s">
+        <v>755</v>
+      </c>
+      <c r="J187" s="31"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B188" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D188" s="31" t="s">
-        <v>961</v>
+        <v>708</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>963</v>
+        <v>720</v>
       </c>
       <c r="G188" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I188" s="4">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I188" s="46" t="s">
+        <v>962</v>
+      </c>
+      <c r="J188" s="31"/>
+      <c r="K188" s="46"/>
+      <c r="L188" s="46"/>
+      <c r="M188" s="46"/>
+      <c r="N188" s="46"/>
+      <c r="P188" s="46"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B189" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D189" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="E189" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="G189" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I189" s="46" t="s">
         <v>962</v>
       </c>
-      <c r="E189" s="31" t="s">
-        <v>964</v>
-      </c>
-      <c r="G189" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I189" s="4">
-        <v>0.8004</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="31"/>
+      <c r="K189" s="46"/>
+      <c r="L189" s="46"/>
+      <c r="M189" s="46"/>
+      <c r="N189" s="46"/>
+      <c r="P189" s="46"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B190" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D190" s="31" t="s">
-        <v>965</v>
+        <v>710</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="G190" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I190" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I190" s="46" t="s">
+        <v>962</v>
+      </c>
+      <c r="J190" s="31"/>
+      <c r="K190" s="46"/>
+      <c r="L190" s="46"/>
+      <c r="M190" s="46"/>
+      <c r="N190" s="46"/>
+      <c r="P190" s="46"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B191" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D191" s="31" t="s">
-        <v>966</v>
+        <v>711</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>968</v>
+        <v>723</v>
       </c>
       <c r="G191" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I191" s="31">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I191" s="46" t="s">
+        <v>962</v>
+      </c>
+      <c r="J191" s="31"/>
+      <c r="K191" s="46"/>
+      <c r="L191" s="46"/>
+      <c r="M191" s="46"/>
+      <c r="N191" s="46"/>
+      <c r="P191" s="46"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B192" s="31" t="s">
         <v>21</v>
       </c>
@@ -11865,9 +11901,10 @@
       <c r="G192" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I192" s="4">
-        <v>2.08</v>
-      </c>
+      <c r="I192" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="J192" s="31"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B193" s="31" t="s">
@@ -11882,339 +11919,313 @@
       <c r="G193" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I193" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B194" s="49" t="s">
-        <v>705</v>
-      </c>
-      <c r="C194" s="49" t="s">
-        <v>705</v>
-      </c>
-      <c r="D194" s="49" t="s">
-        <v>705</v>
-      </c>
-      <c r="E194" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F194" s="48"/>
-      <c r="H194" s="55"/>
-      <c r="I194" s="55"/>
+      <c r="I193" s="50" t="s">
+        <v>727</v>
+      </c>
+      <c r="J193" s="31"/>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B194" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194" s="31" t="s">
+        <v>714</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="G194" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I194" s="46" t="s">
+        <v>963</v>
+      </c>
+      <c r="J194" s="31"/>
+      <c r="K194" s="46"/>
+      <c r="L194" s="46"/>
+      <c r="M194" s="46"/>
+      <c r="N194" s="46"/>
+      <c r="P194" s="46"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B195" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D195" s="31" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G195" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I195" s="31" t="s">
-        <v>754</v>
+        <v>64</v>
+      </c>
+      <c r="I195" s="46" t="s">
+        <v>964</v>
       </c>
       <c r="J195" s="31"/>
-    </row>
-    <row r="196" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D196" s="31" t="s">
-        <v>707</v>
-      </c>
-      <c r="E196" s="31" t="s">
-        <v>719</v>
-      </c>
-      <c r="G196" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I196" s="31" t="s">
-        <v>755</v>
-      </c>
-      <c r="J196" s="31"/>
+      <c r="K195" s="46"/>
+      <c r="L195" s="46"/>
+      <c r="M195" s="46"/>
+      <c r="N195" s="46"/>
+      <c r="P195" s="46"/>
+    </row>
+    <row r="196" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B196" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="C196" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="D196" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E196" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H196" s="49"/>
+      <c r="I196" s="49"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B197" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D197" s="31" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E197" s="31" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G197" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I197" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="J197" s="31"/>
-      <c r="K197" s="47"/>
-      <c r="L197" s="47"/>
-      <c r="M197" s="47"/>
-      <c r="N197" s="47"/>
-      <c r="P197" s="47"/>
+        <v>62</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B198" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D198" s="31" t="s">
-        <v>709</v>
+        <v>949</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>721</v>
+        <v>950</v>
       </c>
       <c r="G198" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I198" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="J198" s="31"/>
-      <c r="K198" s="47"/>
-      <c r="L198" s="47"/>
-      <c r="M198" s="47"/>
-      <c r="N198" s="47"/>
-      <c r="P198" s="47"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B199" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D199" s="31" t="s">
-        <v>710</v>
+        <v>879</v>
       </c>
       <c r="E199" s="31" t="s">
-        <v>722</v>
+        <v>881</v>
       </c>
       <c r="G199" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I199" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="J199" s="31"/>
-      <c r="K199" s="47"/>
-      <c r="L199" s="47"/>
-      <c r="M199" s="47"/>
-      <c r="N199" s="47"/>
-      <c r="P199" s="47"/>
+      <c r="I199" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B200" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D200" s="31" t="s">
-        <v>711</v>
+        <v>880</v>
       </c>
       <c r="E200" s="31" t="s">
-        <v>723</v>
+        <v>882</v>
       </c>
       <c r="G200" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I200" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="J200" s="31"/>
-      <c r="K200" s="47"/>
-      <c r="L200" s="47"/>
-      <c r="M200" s="47"/>
-      <c r="N200" s="47"/>
-      <c r="P200" s="47"/>
+      <c r="I200" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B201" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D201" s="31" t="s">
-        <v>712</v>
+        <v>951</v>
       </c>
       <c r="E201" s="31" t="s">
-        <v>724</v>
+        <v>953</v>
       </c>
       <c r="G201" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I201" s="51" t="s">
-        <v>726</v>
-      </c>
-      <c r="J201" s="31"/>
+      <c r="I201" s="4">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B202" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D202" s="31" t="s">
-        <v>713</v>
+        <v>952</v>
       </c>
       <c r="E202" s="31" t="s">
-        <v>725</v>
+        <v>954</v>
       </c>
       <c r="G202" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I202" s="51" t="s">
-        <v>727</v>
-      </c>
-      <c r="J202" s="31"/>
+      <c r="I202" s="4">
+        <v>0.8004</v>
+      </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B203" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D203" s="31" t="s">
-        <v>714</v>
+        <v>955</v>
       </c>
       <c r="E203" s="31" t="s">
-        <v>715</v>
+        <v>957</v>
       </c>
       <c r="G203" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I203" s="47" t="s">
-        <v>973</v>
-      </c>
-      <c r="J203" s="31"/>
-      <c r="K203" s="47"/>
-      <c r="L203" s="47"/>
-      <c r="M203" s="47"/>
-      <c r="N203" s="47"/>
-      <c r="P203" s="47"/>
+      <c r="I203" s="4">
+        <v>34</v>
+      </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B204" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D204" s="31" t="s">
-        <v>716</v>
+        <v>956</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>717</v>
+        <v>958</v>
       </c>
       <c r="G204" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I204" s="47" t="s">
-        <v>974</v>
-      </c>
-      <c r="J204" s="31"/>
-      <c r="K204" s="47"/>
-      <c r="L204" s="47"/>
-      <c r="M204" s="47"/>
-      <c r="N204" s="47"/>
-      <c r="P204" s="47"/>
-    </row>
-    <row r="205" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B205" s="48" t="s">
-        <v>733</v>
-      </c>
-      <c r="C205" s="48" t="s">
-        <v>733</v>
-      </c>
-      <c r="D205" s="48" t="s">
-        <v>733</v>
-      </c>
-      <c r="E205" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H205" s="50"/>
-      <c r="I205" s="50"/>
+      <c r="I204" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B205" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D205" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E205" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="G205" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I205" s="4">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B206" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D206" s="31" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="E206" s="31" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="G206" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I206" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B207" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D207" s="31" t="s">
-        <v>959</v>
-      </c>
-      <c r="E207" s="31" t="s">
-        <v>960</v>
-      </c>
-      <c r="G207" s="31" t="s">
-        <v>62</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I206" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B207" s="47" t="s">
+        <v>736</v>
+      </c>
+      <c r="C207" s="47" t="s">
+        <v>736</v>
+      </c>
+      <c r="D207" s="47" t="s">
+        <v>736</v>
+      </c>
+      <c r="E207" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I207" s="49"/>
+      <c r="J207" s="49"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B208" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D208" s="31" t="s">
-        <v>889</v>
+        <v>938</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>891</v>
+        <v>939</v>
       </c>
       <c r="G208" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I208" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B209" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D209" s="31" t="s">
-        <v>890</v>
-      </c>
-      <c r="E209" s="31" t="s">
-        <v>892</v>
-      </c>
-      <c r="G209" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I209" s="4">
+        <v>62</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="47" t="b">
         <v>1</v>
       </c>
+      <c r="B209" s="47" t="s">
+        <v>737</v>
+      </c>
+      <c r="C209" s="47" t="s">
+        <v>737</v>
+      </c>
+      <c r="D209" s="47" t="s">
+        <v>737</v>
+      </c>
+      <c r="E209" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I209" s="49"/>
+      <c r="J209" s="49"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B210" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D210" s="31" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="G210" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I210" s="4">
-        <v>0.625</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -12222,16 +12233,16 @@
         <v>21</v>
       </c>
       <c r="D211" s="31" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="G211" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I211" s="4">
-        <v>0.8004</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -12239,16 +12250,16 @@
         <v>21</v>
       </c>
       <c r="D212" s="31" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E212" s="31" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="G212" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I212" s="4">
-        <v>34</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -12256,122 +12267,122 @@
         <v>21</v>
       </c>
       <c r="D213" s="31" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E213" s="31" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="G213" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I213" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B214" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D214" s="31" t="s">
-        <v>712</v>
-      </c>
-      <c r="E214" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="G214" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I214" s="4">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B215" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D215" s="31" t="s">
-        <v>713</v>
-      </c>
-      <c r="E215" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="G215" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I215" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="48" t="b">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B216" s="48" t="s">
-        <v>736</v>
-      </c>
-      <c r="C216" s="48" t="s">
-        <v>736</v>
-      </c>
-      <c r="D216" s="48" t="s">
-        <v>736</v>
-      </c>
-      <c r="E216" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I216" s="50"/>
-      <c r="J216" s="50"/>
+      <c r="B214" s="47" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C214" s="47" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D214" s="47" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E214" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="I214" s="49"/>
+      <c r="J214" s="49"/>
+    </row>
+    <row r="215" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B215" s="47" t="s">
+        <v>745</v>
+      </c>
+      <c r="C215" s="47" t="s">
+        <v>745</v>
+      </c>
+      <c r="D215" s="47" t="s">
+        <v>745</v>
+      </c>
+      <c r="E215" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="I215" s="49"/>
+      <c r="J215" s="49"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D216" s="31" t="s">
+        <v>990</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G216" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I216" s="4" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B217" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D217" s="31" t="s">
-        <v>948</v>
+        <v>1006</v>
       </c>
       <c r="E217" s="31" t="s">
-        <v>949</v>
+        <v>1011</v>
       </c>
       <c r="G217" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I217" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B218" s="48" t="s">
-        <v>737</v>
-      </c>
-      <c r="C218" s="48" t="s">
-        <v>737</v>
-      </c>
-      <c r="D218" s="48" t="s">
-        <v>737</v>
-      </c>
-      <c r="E218" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I218" s="50"/>
-      <c r="J218" s="50"/>
+        <v>64</v>
+      </c>
+      <c r="I217" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218" s="31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G218" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I218" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B219" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D219" s="31" t="s">
-        <v>975</v>
+        <v>1008</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>979</v>
+        <v>1013</v>
       </c>
       <c r="G219" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I219" s="4">
-        <v>0.38</v>
+        <v>104</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -12379,16 +12390,16 @@
         <v>21</v>
       </c>
       <c r="D220" s="31" t="s">
-        <v>976</v>
+        <v>1009</v>
       </c>
       <c r="E220" s="31" t="s">
-        <v>980</v>
+        <v>939</v>
       </c>
       <c r="G220" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I220" s="4">
-        <v>0.44</v>
+        <v>62</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -12396,16 +12407,16 @@
         <v>21</v>
       </c>
       <c r="D221" s="31" t="s">
-        <v>977</v>
+        <v>991</v>
       </c>
       <c r="E221" s="31" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="G221" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I221" s="4">
-        <v>0.7</v>
+        <v>62</v>
+      </c>
+      <c r="I221" s="4" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -12413,71 +12424,67 @@
         <v>21</v>
       </c>
       <c r="D222" s="31" t="s">
-        <v>978</v>
+        <v>1010</v>
       </c>
       <c r="E222" s="31" t="s">
-        <v>982</v>
+        <v>1014</v>
       </c>
       <c r="G222" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I222" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B223" s="48" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C223" s="48" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D223" s="48" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E223" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="I223" s="50"/>
-      <c r="J223" s="50"/>
-    </row>
-    <row r="224" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B224" s="48" t="s">
-        <v>745</v>
-      </c>
-      <c r="C224" s="48" t="s">
-        <v>745</v>
-      </c>
-      <c r="D224" s="48" t="s">
-        <v>745</v>
-      </c>
-      <c r="E224" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="I224" s="50"/>
-      <c r="J224" s="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D223" s="31" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E223" s="31" t="s">
+        <v>980</v>
+      </c>
+      <c r="G223" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D224" s="31" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E224" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G224" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I224" s="4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D225" s="31" t="s">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="E225" s="31" t="s">
-        <v>718</v>
+        <v>1024</v>
       </c>
       <c r="G225" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>883</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -12485,16 +12492,16 @@
         <v>21</v>
       </c>
       <c r="D226" s="31" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="E226" s="31" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="G226" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I226" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -12502,16 +12509,16 @@
         <v>21</v>
       </c>
       <c r="D227" s="31" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="E227" s="31" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="G227" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I227" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
@@ -12519,16 +12526,16 @@
         <v>21</v>
       </c>
       <c r="D228" s="31" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="E228" s="31" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="G228" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="I228" s="4" t="s">
-        <v>1025</v>
+        <v>64</v>
+      </c>
+      <c r="I228" s="4">
+        <v>3.3300000000000001E-3</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
@@ -12536,16 +12543,16 @@
         <v>21</v>
       </c>
       <c r="D229" s="31" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="E229" s="31" t="s">
-        <v>949</v>
+        <v>1030</v>
       </c>
       <c r="G229" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I229" s="4" t="s">
-        <v>1184</v>
+        <v>64</v>
+      </c>
+      <c r="I229" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
@@ -12553,16 +12560,16 @@
         <v>21</v>
       </c>
       <c r="D230" s="31" t="s">
-        <v>1001</v>
+        <v>1029</v>
       </c>
       <c r="E230" s="31" t="s">
-        <v>960</v>
+        <v>1031</v>
       </c>
       <c r="G230" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I230" s="4" t="s">
-        <v>1026</v>
+        <v>64</v>
+      </c>
+      <c r="I230" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
@@ -12570,16 +12577,16 @@
         <v>21</v>
       </c>
       <c r="D231" s="31" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="E231" s="31" t="s">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="G231" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I231" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I231" s="4" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
@@ -12587,16 +12594,16 @@
         <v>21</v>
       </c>
       <c r="D232" s="31" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="E232" s="31" t="s">
-        <v>990</v>
+        <v>1042</v>
       </c>
       <c r="G232" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>1026</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
@@ -12604,16 +12611,16 @@
         <v>21</v>
       </c>
       <c r="D233" s="31" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="E233" s="31" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="G233" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I233" s="4">
-        <v>0.1</v>
+        <v>63</v>
+      </c>
+      <c r="I233" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
@@ -12621,16 +12628,16 @@
         <v>21</v>
       </c>
       <c r="D234" s="31" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="E234" s="31" t="s">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="G234" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I234" s="4" t="s">
-        <v>1026</v>
+        <v>64</v>
+      </c>
+      <c r="I234" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -12638,16 +12645,16 @@
         <v>21</v>
       </c>
       <c r="D235" s="31" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="E235" s="31" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="G235" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I235" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -12655,16 +12662,16 @@
         <v>21</v>
       </c>
       <c r="D236" s="31" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="E236" s="31" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="G236" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I236" s="4" t="s">
-        <v>1185</v>
+        <v>64</v>
+      </c>
+      <c r="I236" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
@@ -12672,16 +12679,16 @@
         <v>21</v>
       </c>
       <c r="D237" s="31" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="E237" s="31" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="G237" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I237" s="4">
-        <v>3.3300000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -12689,16 +12696,16 @@
         <v>21</v>
       </c>
       <c r="D238" s="31" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="E238" s="31" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="G238" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I238" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -12706,16 +12713,16 @@
         <v>21</v>
       </c>
       <c r="D239" s="31" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E239" s="31" t="s">
-        <v>1041</v>
+        <v>1086</v>
       </c>
       <c r="G239" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I239" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
@@ -12723,16 +12730,16 @@
         <v>21</v>
       </c>
       <c r="D240" s="31" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="E240" s="31" t="s">
-        <v>1043</v>
+        <v>1087</v>
       </c>
       <c r="G240" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I240" s="4" t="s">
-        <v>1044</v>
+        <v>64</v>
+      </c>
+      <c r="I240" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.25">
@@ -12740,16 +12747,16 @@
         <v>21</v>
       </c>
       <c r="D241" s="31" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="E241" s="31" t="s">
-        <v>1052</v>
+        <v>1088</v>
       </c>
       <c r="G241" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I241" s="4" t="s">
-        <v>1186</v>
+        <v>64</v>
+      </c>
+      <c r="I241" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.25">
@@ -12757,10 +12764,10 @@
         <v>21</v>
       </c>
       <c r="D242" s="31" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="E242" s="31" t="s">
-        <v>1053</v>
+        <v>1089</v>
       </c>
       <c r="G242" s="31" t="s">
         <v>63</v>
@@ -12774,16 +12781,16 @@
         <v>21</v>
       </c>
       <c r="D243" s="31" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="E243" s="31" t="s">
-        <v>1054</v>
+        <v>1090</v>
       </c>
       <c r="G243" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I243" s="4">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="I243" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.25">
@@ -12791,16 +12798,16 @@
         <v>21</v>
       </c>
       <c r="D244" s="31" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="E244" s="31" t="s">
-        <v>1055</v>
+        <v>1091</v>
       </c>
       <c r="G244" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I244" s="4">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="I244" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.25">
@@ -12808,16 +12815,16 @@
         <v>21</v>
       </c>
       <c r="D245" s="31" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="E245" s="31" t="s">
-        <v>1056</v>
+        <v>1092</v>
       </c>
       <c r="G245" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I245" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.25">
@@ -12825,10 +12832,10 @@
         <v>21</v>
       </c>
       <c r="D246" s="31" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="E246" s="31" t="s">
-        <v>1057</v>
+        <v>1093</v>
       </c>
       <c r="G246" s="31" t="s">
         <v>64</v>
@@ -12842,16 +12849,16 @@
         <v>21</v>
       </c>
       <c r="D247" s="31" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="E247" s="31" t="s">
-        <v>1058</v>
+        <v>1094</v>
       </c>
       <c r="G247" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I247" s="4">
-        <v>100</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.25">
@@ -12859,16 +12866,16 @@
         <v>21</v>
       </c>
       <c r="D248" s="31" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E248" s="31" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G248" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I248" s="4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.25">
@@ -12876,16 +12883,16 @@
         <v>21</v>
       </c>
       <c r="D249" s="31" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E249" s="31" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G249" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I249" s="4">
-        <v>1</v>
+        <v>1.15E-2</v>
       </c>
     </row>
     <row r="250" spans="2:9" x14ac:dyDescent="0.25">
@@ -12893,16 +12900,16 @@
         <v>21</v>
       </c>
       <c r="D250" s="31" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E250" s="31" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G250" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I250" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.25">
@@ -12910,16 +12917,16 @@
         <v>21</v>
       </c>
       <c r="D251" s="31" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E251" s="31" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G251" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I251" s="4" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="I251" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.25">
@@ -12927,16 +12934,16 @@
         <v>21</v>
       </c>
       <c r="D252" s="31" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E252" s="31" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G252" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I252" s="4" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="I252" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.25">
@@ -12944,16 +12951,16 @@
         <v>21</v>
       </c>
       <c r="D253" s="31" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E253" s="31" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G253" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I253" s="4" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="I253" s="4">
+        <v>2700</v>
       </c>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.25">
@@ -12961,16 +12968,16 @@
         <v>21</v>
       </c>
       <c r="D254" s="31" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E254" s="31" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G254" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I254" s="4">
-        <v>3</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.25">
@@ -12978,16 +12985,16 @@
         <v>21</v>
       </c>
       <c r="D255" s="31" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E255" s="31" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G255" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I255" s="4">
-        <v>0</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.25">
@@ -12998,13 +13005,13 @@
         <v>1066</v>
       </c>
       <c r="E256" s="31" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G256" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I256" s="4">
-        <v>0.33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
@@ -13012,16 +13019,16 @@
         <v>21</v>
       </c>
       <c r="D257" s="31" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E257" s="31" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G257" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I257" s="4">
-        <v>0.2</v>
+        <v>348</v>
       </c>
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.25">
@@ -13029,16 +13036,16 @@
         <v>21</v>
       </c>
       <c r="D258" s="31" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E258" s="31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G258" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I258" s="4">
-        <v>1.15E-2</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.25">
@@ -13046,16 +13053,16 @@
         <v>21</v>
       </c>
       <c r="D259" s="31" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E259" s="31" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G259" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I259" s="4">
-        <v>0.7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
@@ -13063,16 +13070,16 @@
         <v>21</v>
       </c>
       <c r="D260" s="31" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E260" s="31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G260" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I260" s="4">
-        <v>3</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
@@ -13080,16 +13087,16 @@
         <v>21</v>
       </c>
       <c r="D261" s="31" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E261" s="31" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G261" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I261" s="4">
-        <v>2</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.25">
@@ -13097,16 +13104,16 @@
         <v>21</v>
       </c>
       <c r="D262" s="31" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E262" s="31" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G262" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I262" s="4">
-        <v>2700</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.25">
@@ -13114,16 +13121,16 @@
         <v>21</v>
       </c>
       <c r="D263" s="31" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E263" s="31" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G263" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I263" s="4">
-        <v>2700</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
@@ -13131,16 +13138,16 @@
         <v>21</v>
       </c>
       <c r="D264" s="31" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E264" s="31" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G264" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I264" s="4">
-        <v>24.5</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
@@ -13148,16 +13155,16 @@
         <v>21</v>
       </c>
       <c r="D265" s="31" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E265" s="31" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G265" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I265" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.25">
@@ -13165,16 +13172,16 @@
         <v>21</v>
       </c>
       <c r="D266" s="31" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E266" s="31" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G266" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I266" s="4">
-        <v>348</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.25">
@@ -13182,16 +13189,16 @@
         <v>21</v>
       </c>
       <c r="D267" s="31" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E267" s="31" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G267" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I267" s="4">
-        <v>21600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
@@ -13199,16 +13206,16 @@
         <v>21</v>
       </c>
       <c r="D268" s="31" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E268" s="31" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G268" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I268" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
@@ -13216,16 +13223,16 @@
         <v>21</v>
       </c>
       <c r="D269" s="31" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E269" s="31" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G269" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I269" s="4">
-        <v>2700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.25">
@@ -13233,16 +13240,16 @@
         <v>21</v>
       </c>
       <c r="D270" s="31" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E270" s="31" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G270" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I270" s="4">
-        <v>5250</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.25">
@@ -13250,16 +13257,16 @@
         <v>21</v>
       </c>
       <c r="D271" s="31" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E271" s="31" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G271" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I271" s="4">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
@@ -13267,16 +13274,16 @@
         <v>21</v>
       </c>
       <c r="D272" s="31" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E272" s="31" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G272" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I272" s="4">
-        <v>1500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -13284,16 +13291,16 @@
         <v>21</v>
       </c>
       <c r="D273" s="31" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E273" s="31" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G273" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I273" s="4">
-        <v>4800</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -13301,16 +13308,16 @@
         <v>21</v>
       </c>
       <c r="D274" s="31" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E274" s="31" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G274" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I274" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -13318,10 +13325,10 @@
         <v>21</v>
       </c>
       <c r="D275" s="31" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E275" s="31" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G275" s="31" t="s">
         <v>64</v>
@@ -13330,38 +13337,40 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B276" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D276" s="31" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E276" s="31" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G276" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I276" s="4">
-        <v>2400</v>
-      </c>
+    <row r="276" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B276" s="47" t="s">
+        <v>743</v>
+      </c>
+      <c r="C276" s="47" t="s">
+        <v>743</v>
+      </c>
+      <c r="D276" s="47" t="s">
+        <v>743</v>
+      </c>
+      <c r="E276" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I276" s="49"/>
+      <c r="J276" s="49"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B277" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D277" s="31" t="s">
-        <v>1088</v>
+        <v>990</v>
       </c>
       <c r="E277" s="31" t="s">
-        <v>1125</v>
+        <v>718</v>
       </c>
       <c r="G277" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I277" s="4">
-        <v>8</v>
+        <v>62</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -13369,16 +13378,13 @@
         <v>21</v>
       </c>
       <c r="D278" s="31" t="s">
-        <v>1089</v>
+        <v>991</v>
       </c>
       <c r="E278" s="31" t="s">
-        <v>1126</v>
+        <v>950</v>
       </c>
       <c r="G278" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I278" s="4">
-        <v>300</v>
+        <v>62</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -13386,16 +13392,16 @@
         <v>21</v>
       </c>
       <c r="D279" s="31" t="s">
-        <v>1090</v>
+        <v>992</v>
       </c>
       <c r="E279" s="31" t="s">
-        <v>1127</v>
+        <v>1002</v>
       </c>
       <c r="G279" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I279" s="4">
-        <v>9600</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -13403,16 +13409,16 @@
         <v>21</v>
       </c>
       <c r="D280" s="31" t="s">
-        <v>1091</v>
+        <v>993</v>
       </c>
       <c r="E280" s="31" t="s">
-        <v>1128</v>
+        <v>1003</v>
       </c>
       <c r="G280" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I280" s="4">
-        <v>8</v>
+        <v>62</v>
+      </c>
+      <c r="I280" s="4" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -13420,16 +13426,16 @@
         <v>21</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>1092</v>
+        <v>994</v>
       </c>
       <c r="E281" s="31" t="s">
-        <v>1129</v>
+        <v>1004</v>
       </c>
       <c r="G281" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I281" s="4">
-        <v>1200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -13437,86 +13443,83 @@
         <v>21</v>
       </c>
       <c r="D282" s="31" t="s">
-        <v>1093</v>
+        <v>995</v>
       </c>
       <c r="E282" s="31" t="s">
-        <v>1130</v>
+        <v>1005</v>
       </c>
       <c r="G282" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I282" s="4">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B283" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D283" s="31" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E283" s="31" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G283" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I283" s="4">
-        <v>8</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I282" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B283" s="47" t="s">
+        <v>744</v>
+      </c>
+      <c r="C283" s="47" t="s">
+        <v>744</v>
+      </c>
+      <c r="D283" s="47" t="s">
+        <v>744</v>
+      </c>
+      <c r="E283" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I283" s="49"/>
+      <c r="J283" s="49"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B284" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D284" s="31" t="s">
-        <v>1095</v>
+        <v>990</v>
       </c>
       <c r="E284" s="31" t="s">
-        <v>1132</v>
+        <v>718</v>
       </c>
       <c r="G284" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I284" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="B285" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="C285" s="48" t="s">
-        <v>862</v>
-      </c>
-      <c r="D285" s="48" t="s">
-        <v>862</v>
-      </c>
-      <c r="E285" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="I285" s="50"/>
-      <c r="J285" s="50"/>
+        <v>62</v>
+      </c>
+      <c r="I284" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B285" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285" s="31" t="s">
+        <v>991</v>
+      </c>
+      <c r="E285" s="31" t="s">
+        <v>950</v>
+      </c>
+      <c r="G285" s="31" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B286" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D286" s="31" t="s">
-        <v>816</v>
+        <v>997</v>
       </c>
       <c r="E286" s="31" t="s">
-        <v>836</v>
+        <v>999</v>
       </c>
       <c r="G286" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I286" s="4" t="s">
-        <v>856</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -13524,50 +13527,52 @@
         <v>21</v>
       </c>
       <c r="D287" s="31" t="s">
-        <v>817</v>
+        <v>998</v>
       </c>
       <c r="E287" s="31" t="s">
-        <v>837</v>
+        <v>1000</v>
       </c>
       <c r="G287" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I287" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B288" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D288" s="31" t="s">
-        <v>818</v>
-      </c>
-      <c r="E288" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="G288" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I288" s="4">
-        <v>3</v>
-      </c>
+      <c r="I287" s="4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B288" s="47" t="s">
+        <v>750</v>
+      </c>
+      <c r="C288" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="D288" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="E288" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I288" s="49"/>
+      <c r="J288" s="49"/>
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B289" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D289" s="31" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="E289" s="31" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="G289" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I289" s="4">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="I289" s="4" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.25">
@@ -13575,16 +13580,16 @@
         <v>21</v>
       </c>
       <c r="D290" s="31" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="E290" s="31" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="G290" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I290" s="4">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="I290" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.25">
@@ -13592,16 +13597,16 @@
         <v>21</v>
       </c>
       <c r="D291" s="31" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="E291" s="31" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="G291" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I291" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.25">
@@ -13609,16 +13614,16 @@
         <v>21</v>
       </c>
       <c r="D292" s="31" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="E292" s="31" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="G292" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I292" s="4" t="s">
-        <v>857</v>
+        <v>64</v>
+      </c>
+      <c r="I292" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.25">
@@ -13626,16 +13631,16 @@
         <v>21</v>
       </c>
       <c r="D293" s="31" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="E293" s="31" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="G293" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I293" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.25">
@@ -13643,16 +13648,16 @@
         <v>21</v>
       </c>
       <c r="D294" s="31" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="E294" s="31" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="G294" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I294" s="4" t="s">
-        <v>857</v>
+        <v>64</v>
+      </c>
+      <c r="I294" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.25">
@@ -13660,16 +13665,16 @@
         <v>21</v>
       </c>
       <c r="D295" s="31" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="E295" s="31" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="G295" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I295" s="4">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="I295" s="4" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.25">
@@ -13677,16 +13682,16 @@
         <v>21</v>
       </c>
       <c r="D296" s="31" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="E296" s="31" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="G296" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I296" s="4" t="s">
-        <v>857</v>
+        <v>64</v>
+      </c>
+      <c r="I296" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.25">
@@ -13694,16 +13699,16 @@
         <v>21</v>
       </c>
       <c r="D297" s="31" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="E297" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="G297" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I297" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="G297" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I297" s="4">
-        <v>50</v>
       </c>
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.25">
@@ -13711,16 +13716,16 @@
         <v>21</v>
       </c>
       <c r="D298" s="31" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="E298" s="31" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="G298" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I298" s="4">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.25">
@@ -13728,16 +13733,16 @@
         <v>21</v>
       </c>
       <c r="D299" s="31" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="E299" s="31" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="G299" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I299" s="4">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="I299" s="4" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.25">
@@ -13745,16 +13750,16 @@
         <v>21</v>
       </c>
       <c r="D300" s="31" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="E300" s="31" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="G300" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I300" s="4" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="I300" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.25">
@@ -13762,16 +13767,16 @@
         <v>21</v>
       </c>
       <c r="D301" s="31" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="E301" s="31" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="G301" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I301" s="4" t="s">
-        <v>858</v>
+        <v>64</v>
+      </c>
+      <c r="I301" s="4">
+        <v>35</v>
       </c>
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.25">
@@ -13779,16 +13784,16 @@
         <v>21</v>
       </c>
       <c r="D302" s="31" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="E302" s="31" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="G302" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I302" s="4" t="s">
-        <v>859</v>
+        <v>64</v>
+      </c>
+      <c r="I302" s="4">
+        <v>65</v>
       </c>
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.25">
@@ -13796,16 +13801,16 @@
         <v>21</v>
       </c>
       <c r="D303" s="31" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="E303" s="31" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="G303" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I303" s="4" t="s">
-        <v>860</v>
+        <v>63</v>
+      </c>
+      <c r="I303" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.25">
@@ -13813,16 +13818,16 @@
         <v>21</v>
       </c>
       <c r="D304" s="31" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="E304" s="31" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="G304" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I304" s="4" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.25">
@@ -13830,15 +13835,66 @@
         <v>21</v>
       </c>
       <c r="D305" s="31" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="E305" s="31" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="G305" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I305" s="4">
+        <v>62</v>
+      </c>
+      <c r="I305" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B306" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="E306" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="G306" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I306" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="307" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B307" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307" s="31" t="s">
+        <v>825</v>
+      </c>
+      <c r="E307" s="31" t="s">
+        <v>844</v>
+      </c>
+      <c r="G307" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I307" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B308" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D308" s="31" t="s">
+        <v>826</v>
+      </c>
+      <c r="E308" s="31" t="s">
+        <v>846</v>
+      </c>
+      <c r="G308" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I308" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13850,7 +13906,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I197:I204" numberStoredAsText="1"/>
+    <ignoredError sqref="I188:I195" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -13905,7 +13961,7 @@
       <c r="A2" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>690</v>
       </c>
       <c r="C2" s="40" t="s">
@@ -13944,7 +14000,7 @@
       <c r="A3" s="40" t="s">
         <v>624</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>691</v>
       </c>
       <c r="C3" s="40" t="s">
@@ -14046,70 +14102,70 @@
       <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>641</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>694</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>636</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="45" t="s">
         <v>628</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>468</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="46" t="b">
+      <c r="F6" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
+      <c r="I6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>642</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>695</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>635</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>629</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>468</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="46" t="b">
+      <c r="F7" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
+      <c r="I7" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">

--- a/OpenStudio-analysis-spreadsheet/projects/slab.xlsx
+++ b/OpenStudio-analysis-spreadsheet/projects/slab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="10290" windowHeight="2370" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="10290" windowHeight="2370" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="1237">
   <si>
     <t>type</t>
   </si>
@@ -2230,9 +2230,6 @@
     <t>../weather/USA_CO_Denver.Intl.AP.725650_TMY3.epw</t>
   </si>
   <si>
-    <t>../../geometries/Res_Garage_IZFloor_slab_windows_fix2.osm</t>
-  </si>
-  <si>
     <t>ResidentialCookingRange</t>
   </si>
   <si>
@@ -2266,9 +2263,6 @@
     <t>ProcessThermalMassFurniture</t>
   </si>
   <si>
-    <t>ProcessHeatingandCoolingSeasons</t>
-  </si>
-  <si>
     <t>ProcessHeatingandCoolingSetpoints</t>
   </si>
   <si>
@@ -2734,45 +2728,24 @@
     <t>userdefinedrigidinsr</t>
   </si>
   <si>
-    <t>Wood stud wall has OSB sheathing?</t>
-  </si>
-  <si>
     <t>userdefinedhasosb</t>
   </si>
   <si>
-    <t>Exterior finish thickness of wall cavity [in].</t>
-  </si>
-  <si>
     <t>userdefinedextfinthickness</t>
   </si>
   <si>
-    <t>Exterior finish R-value of wall cavity [hr-ft^2-R/Btu].</t>
-  </si>
-  <si>
     <t>userdefinedextfinr</t>
   </si>
   <si>
-    <t>Exterior finish density of wall cavity [lb/ft^3].</t>
-  </si>
-  <si>
     <t>userdefinedextfindensity</t>
   </si>
   <si>
-    <t>Exterior finish specific heat of wall cavity [Btu/lb-R].</t>
-  </si>
-  <si>
     <t>userdefinedextfinspecheat</t>
   </si>
   <si>
-    <t>Exterior finish emissivity of wall cavity.</t>
-  </si>
-  <si>
     <t>userdefinedextfinthermalabs</t>
   </si>
   <si>
-    <t>Exterior finish absorptance of wall cavity.</t>
-  </si>
-  <si>
     <t>userdefinedextfinabs</t>
   </si>
   <si>
@@ -2989,18 +2962,6 @@
     <t>Select the living zone.</t>
   </si>
   <si>
-    <t>Enter the constant heating setpoint [F].</t>
-  </si>
-  <si>
-    <t>Enter the constant cooling setpoint [F].</t>
-  </si>
-  <si>
-    <t>The house has heating equipment.</t>
-  </si>
-  <si>
-    <t>The house has cooling equipment.</t>
-  </si>
-  <si>
     <t>userdefinedhsp</t>
   </si>
   <si>
@@ -3019,27 +2980,9 @@
     <t>Which is the finished basement zone?</t>
   </si>
   <si>
-    <t>The installed Annual Fuel Utilization Efficiency (AFUE) of the furnace, which can be used to account for performance derating or degradation relative to the rated value. [Btu/Btu].</t>
-  </si>
-  <si>
-    <t>Heating Output Capacity.</t>
-  </si>
-  <si>
-    <t>Maximum supply air temperature [F].</t>
-  </si>
-  <si>
-    <t>Type of fuel used for heating.</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
-    <t>Central air conditioner option.</t>
-  </si>
-  <si>
-    <t>Cooling Output Capacity.</t>
-  </si>
-  <si>
     <t>selectedac</t>
   </si>
   <si>
@@ -3659,6 +3602,156 @@
   </si>
   <si>
     <t>0.837, 0.835, 1.084, 1.084, 1.084, 1.096, 1.096, 1.096, 1.096, 0.931, 0.925, 0.837</t>
+  </si>
+  <si>
+    <t>Max Supply Temp [F]</t>
+  </si>
+  <si>
+    <t>Heating Output Capacity</t>
+  </si>
+  <si>
+    <t>Installed AFUE [Btu/Btu]</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>Installed Supply Fan Power [W/cfm]</t>
+  </si>
+  <si>
+    <t>Cooling Output Capacity</t>
+  </si>
+  <si>
+    <t>Installed SEER [Btu/W-h]</t>
+  </si>
+  <si>
+    <t>Exterior Wall Mass: Thickness [in]</t>
+  </si>
+  <si>
+    <t>Exterior Wall Mass: Num Layers [#]</t>
+  </si>
+  <si>
+    <t>Wood Stud: Cavity Depth [in]</t>
+  </si>
+  <si>
+    <t>Wood Stud: Framing Factor [frac]</t>
+  </si>
+  <si>
+    <t>Wood Stud: Cavity Insulation Installed R-value [hr-ft^2-R/Btu]</t>
+  </si>
+  <si>
+    <t>Wood Stud: Install Grade</t>
+  </si>
+  <si>
+    <t>Wood Stud: Insulation Fills Cavity</t>
+  </si>
+  <si>
+    <t>Wall Sheathing: Has OSB</t>
+  </si>
+  <si>
+    <t>Wall Sheathing: Continuous Insulation Thickness [in]</t>
+  </si>
+  <si>
+    <t>Wall Sheathing: Continuous Insulation Nominal R-value [hr-ft^2-R/Btu]</t>
+  </si>
+  <si>
+    <t>Exterior Finish: Thickness [in]</t>
+  </si>
+  <si>
+    <t>Exterior Finish: R-value [hr-ft^2-R/Btu]</t>
+  </si>
+  <si>
+    <t>Exterior Finish: Density [lb/ft^3]</t>
+  </si>
+  <si>
+    <t>Exterior Finish: Specific Heat [Btu/lb-R]</t>
+  </si>
+  <si>
+    <t>Exterior Finish: Emissivity</t>
+  </si>
+  <si>
+    <t>Exterior Finish: Solar Absorptivity</t>
+  </si>
+  <si>
+    <t>Heating Set Point: Constant Setpoint [degrees F]</t>
+  </si>
+  <si>
+    <t>Cooling Set Point: Constant Setpoint [degrees F]</t>
+  </si>
+  <si>
+    <t>Has Heating Equipment</t>
+  </si>
+  <si>
+    <t>Has Cooling Equipment</t>
+  </si>
+  <si>
+    <t>ProcessElectricBaseboard</t>
+  </si>
+  <si>
+    <t>userdefinedeff</t>
+  </si>
+  <si>
+    <t>selectedbaseboardcap</t>
+  </si>
+  <si>
+    <t>Efficiency [Btu/Btu]</t>
+  </si>
+  <si>
+    <t>ProcessAirSourceHeatPump</t>
+  </si>
+  <si>
+    <t>ProcessSystemCrankcaseHeater</t>
+  </si>
+  <si>
+    <t>selectedhp</t>
+  </si>
+  <si>
+    <t>selectedhpcap</t>
+  </si>
+  <si>
+    <t>selectedsupcap</t>
+  </si>
+  <si>
+    <t>SEER 13, 7.7 HSPF</t>
+  </si>
+  <si>
+    <t>userdefinedcrankcase</t>
+  </si>
+  <si>
+    <t>userdefinedcrankcasemaxt</t>
+  </si>
+  <si>
+    <t>selectedheatpump</t>
+  </si>
+  <si>
+    <t>userdefinedspeeds</t>
+  </si>
+  <si>
+    <t>Air Source Heat Pump: Installed SEER [Btu/W-h], Installed HSPF [Btu/W-h]</t>
+  </si>
+  <si>
+    <t>Cooling/Heating Output Capacity</t>
+  </si>
+  <si>
+    <t>Supplemental Heating Output Capacity</t>
+  </si>
+  <si>
+    <t>Crankcase [kW]</t>
+  </si>
+  <si>
+    <t>Crankcase Max Temp [degrees F]</t>
+  </si>
+  <si>
+    <t>Has Heat Pump</t>
+  </si>
+  <si>
+    <t>Autosize</t>
+  </si>
+  <si>
+    <t>Num Speeds [#]</t>
+  </si>
+  <si>
+    <t>../../geometries/Res_Garage_IZFloor_slab_windows_fix_OS_v19.osm</t>
   </si>
 </sst>
 </file>
@@ -7943,8 +8036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8325,7 +8418,7 @@
         <v>643</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>729</v>
+        <v>1236</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>687</v>
@@ -8378,11 +8471,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z308"/>
+  <dimension ref="A1:Z325"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N297" sqref="N297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8546,13 +8639,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>1187</v>
+        <v>1168</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>1187</v>
+        <v>1168</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>1187</v>
+        <v>1168</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>68</v>
@@ -8580,10 +8673,10 @@
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="58" t="s">
-        <v>1188</v>
+        <v>1169</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>1184</v>
+        <v>1165</v>
       </c>
       <c r="F5" s="59"/>
       <c r="G5" s="60" t="s">
@@ -8591,7 +8684,7 @@
       </c>
       <c r="H5" s="58"/>
       <c r="I5" s="61" t="s">
-        <v>1189</v>
+        <v>1170</v>
       </c>
       <c r="J5" s="67"/>
       <c r="K5" s="61"/>
@@ -8612,10 +8705,10 @@
       </c>
       <c r="C6" s="58"/>
       <c r="D6" s="58" t="s">
-        <v>1183</v>
+        <v>1164</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>1185</v>
+        <v>1166</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="60" t="s">
@@ -8623,7 +8716,7 @@
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="58" t="s">
-        <v>1186</v>
+        <v>1167</v>
       </c>
       <c r="J6" s="67"/>
       <c r="K6" s="61"/>
@@ -8643,13 +8736,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E7" s="48" t="s">
         <v>68</v>
@@ -8671,7 +8764,7 @@
         <v>62</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="55" customFormat="1" x14ac:dyDescent="0.25">
@@ -8679,10 +8772,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="55" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>879</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>881</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>64</v>
@@ -8691,7 +8784,7 @@
         <v>0.5</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>1179</v>
+        <v>1160</v>
       </c>
       <c r="K9" s="55">
         <v>0.5</v>
@@ -8706,10 +8799,10 @@
         <v>1</v>
       </c>
       <c r="P9" s="55" t="s">
-        <v>1181</v>
+        <v>1162</v>
       </c>
       <c r="R9" s="55" t="s">
-        <v>1177</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="55" customFormat="1" x14ac:dyDescent="0.25">
@@ -8717,10 +8810,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="55" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E10" s="55" t="s">
         <v>880</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>882</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>64</v>
@@ -8729,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>1180</v>
+        <v>1161</v>
       </c>
       <c r="K10" s="55">
         <v>1</v>
@@ -8744,10 +8837,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
       <c r="R10" s="55" t="s">
-        <v>1177</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -8755,16 +8848,16 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>883</v>
+        <v>1196</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -8772,16 +8865,16 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>885</v>
+        <v>1197</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -8789,10 +8882,10 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>887</v>
+        <v>1198</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>64</v>
@@ -8806,16 +8899,16 @@
         <v>21</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>889</v>
+        <v>1199</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -8823,16 +8916,16 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>891</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -8840,16 +8933,16 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>893</v>
+        <v>1201</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="I16" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -8857,10 +8950,10 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>895</v>
+        <v>1202</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>64</v>
@@ -8874,16 +8967,16 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>897</v>
+        <v>1203</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="4" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -8891,10 +8984,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>899</v>
+        <v>1204</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>64</v>
@@ -8908,10 +9001,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>901</v>
+        <v>1205</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>64</v>
@@ -8925,10 +9018,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>903</v>
+        <v>1206</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>64</v>
@@ -8942,10 +9035,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>905</v>
+        <v>1207</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="G22" s="31" t="s">
         <v>64</v>
@@ -8959,10 +9052,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>907</v>
+        <v>1208</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="G23" s="31" t="s">
         <v>64</v>
@@ -8976,10 +9069,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>909</v>
+        <v>1209</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="G24" s="31" t="s">
         <v>64</v>
@@ -8993,13 +9086,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>68</v>
@@ -9018,16 +9111,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -9035,16 +9128,16 @@
         <v>21</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -9052,13 +9145,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>68</v>
@@ -9080,7 +9173,7 @@
         <v>62</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -9088,16 +9181,16 @@
         <v>21</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -9105,16 +9198,16 @@
         <v>21</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="G31" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -9122,10 +9215,10 @@
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>64</v>
@@ -9139,10 +9232,10 @@
         <v>21</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>64</v>
@@ -9156,10 +9249,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="G34" s="31" t="s">
         <v>62</v>
@@ -9173,10 +9266,10 @@
         <v>21</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="G35" s="31" t="s">
         <v>64</v>
@@ -9190,10 +9283,10 @@
         <v>21</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>62</v>
@@ -9207,10 +9300,10 @@
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>64</v>
@@ -9224,10 +9317,10 @@
         <v>21</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>64</v>
@@ -9241,10 +9334,10 @@
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>64</v>
@@ -9258,10 +9351,10 @@
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>63</v>
@@ -9275,10 +9368,10 @@
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="E41" s="31" t="s">
         <v>879</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>881</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>64</v>
@@ -9292,10 +9385,10 @@
         <v>21</v>
       </c>
       <c r="D42" s="31" t="s">
+        <v>878</v>
+      </c>
+      <c r="E42" s="31" t="s">
         <v>880</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>882</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>64</v>
@@ -9309,10 +9402,10 @@
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>64</v>
@@ -9326,10 +9419,10 @@
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>64</v>
@@ -9343,13 +9436,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E45" s="48" t="s">
         <v>68</v>
@@ -9371,7 +9464,7 @@
         <v>62</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -9379,16 +9472,16 @@
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -9396,10 +9489,10 @@
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>64</v>
@@ -9413,10 +9506,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="G49" s="31" t="s">
         <v>64</v>
@@ -9430,10 +9523,10 @@
         <v>21</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>64</v>
@@ -9447,10 +9540,10 @@
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>64</v>
@@ -9464,16 +9557,16 @@
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -9481,16 +9574,16 @@
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -9498,10 +9591,10 @@
         <v>21</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>64</v>
@@ -9515,16 +9608,16 @@
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -9532,10 +9625,10 @@
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>63</v>
@@ -9549,10 +9642,10 @@
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>64</v>
@@ -9566,10 +9659,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>64</v>
@@ -9583,13 +9676,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E59" s="48" t="s">
         <v>68</v>
@@ -9611,7 +9704,7 @@
         <v>62</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -9619,16 +9712,16 @@
         <v>21</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -9636,13 +9729,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E62" s="48" t="s">
         <v>68</v>
@@ -9664,7 +9757,7 @@
         <v>62</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -9672,10 +9765,10 @@
         <v>21</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="G64" s="31" t="s">
         <v>62</v>
@@ -9686,10 +9779,10 @@
         <v>21</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>62</v>
@@ -9700,16 +9793,16 @@
         <v>21</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="G66" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -9717,13 +9810,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E67" s="48" t="s">
         <v>68</v>
@@ -9736,16 +9829,16 @@
         <v>21</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G68" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -9753,16 +9846,16 @@
         <v>21</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G69" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>1169</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -9770,10 +9863,10 @@
         <v>21</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G70" s="31" t="s">
         <v>64</v>
@@ -9787,10 +9880,10 @@
         <v>21</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G71" s="31" t="s">
         <v>65</v>
@@ -9804,10 +9897,10 @@
         <v>21</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G72" s="31" t="s">
         <v>64</v>
@@ -9821,16 +9914,16 @@
         <v>21</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G73" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -9838,10 +9931,10 @@
         <v>21</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G74" s="31" t="s">
         <v>64</v>
@@ -9855,10 +9948,10 @@
         <v>21</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G75" s="31" t="s">
         <v>64</v>
@@ -9872,10 +9965,10 @@
         <v>21</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G76" s="31" t="s">
         <v>64</v>
@@ -9889,10 +9982,10 @@
         <v>21</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G77" s="31" t="s">
         <v>65</v>
@@ -9906,7 +9999,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E78" s="31" t="s">
         <v>45</v>
@@ -9915,7 +10008,7 @@
         <v>62</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -9923,13 +10016,13 @@
         <v>0</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D79" s="47" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E79" s="48" t="s">
         <v>68</v>
@@ -9942,10 +10035,10 @@
         <v>21</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G80" s="31" t="s">
         <v>62</v>
@@ -9959,16 +10052,16 @@
         <v>21</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G81" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>1192</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -9976,10 +10069,10 @@
         <v>21</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G82" s="31" t="s">
         <v>64</v>
@@ -9993,10 +10086,10 @@
         <v>21</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G83" s="31" t="s">
         <v>64</v>
@@ -10010,10 +10103,10 @@
         <v>21</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>1190</v>
+        <v>1171</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>1191</v>
+        <v>1172</v>
       </c>
       <c r="G84" s="31" t="s">
         <v>64</v>
@@ -10027,10 +10120,10 @@
         <v>21</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>1193</v>
+        <v>1174</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>1194</v>
+        <v>1175</v>
       </c>
       <c r="G85" s="31" t="s">
         <v>64</v>
@@ -10044,7 +10137,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E86" s="31" t="s">
         <v>45</v>
@@ -10053,7 +10146,7 @@
         <v>62</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -10061,16 +10154,16 @@
         <v>21</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>1195</v>
+        <v>1176</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>1196</v>
+        <v>1177</v>
       </c>
       <c r="G87" s="31" t="s">
         <v>104</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>1199</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -10078,16 +10171,16 @@
         <v>21</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>1197</v>
+        <v>1178</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>1198</v>
+        <v>1179</v>
       </c>
       <c r="G88" s="31" t="s">
         <v>104</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>1199</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -10095,16 +10188,16 @@
         <v>21</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>1200</v>
+        <v>1181</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="G89" s="31" t="s">
         <v>104</v>
       </c>
       <c r="I89" s="31" t="s">
-        <v>1202</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -10112,13 +10205,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E90" s="48" t="s">
         <v>68</v>
@@ -10131,16 +10224,16 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G91" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -10148,10 +10241,10 @@
         <v>21</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G92" s="31" t="s">
         <v>64</v>
@@ -10165,10 +10258,10 @@
         <v>21</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G93" s="31" t="s">
         <v>64</v>
@@ -10182,10 +10275,10 @@
         <v>21</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G94" s="31" t="s">
         <v>65</v>
@@ -10199,7 +10292,7 @@
         <v>21</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E95" s="31" t="s">
         <v>45</v>
@@ -10208,7 +10301,7 @@
         <v>62</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -10216,13 +10309,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C96" s="47" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D96" s="47" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E96" s="48" t="s">
         <v>68</v>
@@ -10235,16 +10328,16 @@
         <v>21</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G97" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -10252,10 +10345,10 @@
         <v>21</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G98" s="31" t="s">
         <v>64</v>
@@ -10269,10 +10362,10 @@
         <v>21</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G99" s="31" t="s">
         <v>64</v>
@@ -10286,10 +10379,10 @@
         <v>21</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G100" s="31" t="s">
         <v>64</v>
@@ -10303,10 +10396,10 @@
         <v>21</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G101" s="31" t="s">
         <v>65</v>
@@ -10320,7 +10413,7 @@
         <v>21</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E102" s="31" t="s">
         <v>45</v>
@@ -10329,7 +10422,7 @@
         <v>62</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -10337,13 +10430,13 @@
         <v>0</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D103" s="47" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E103" s="48" t="s">
         <v>68</v>
@@ -10356,10 +10449,10 @@
         <v>21</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>1203</v>
+        <v>1184</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G104" s="31" t="s">
         <v>64</v>
@@ -10373,10 +10466,10 @@
         <v>21</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>1193</v>
+        <v>1174</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>1194</v>
+        <v>1175</v>
       </c>
       <c r="G105" s="31" t="s">
         <v>64</v>
@@ -10390,7 +10483,7 @@
         <v>21</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E106" s="31" t="s">
         <v>45</v>
@@ -10399,7 +10492,7 @@
         <v>62</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -10407,16 +10500,16 @@
         <v>21</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>1195</v>
+        <v>1176</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>1196</v>
+        <v>1177</v>
       </c>
       <c r="G107" s="31" t="s">
         <v>104</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>1204</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -10424,16 +10517,16 @@
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>1197</v>
+        <v>1178</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>1198</v>
+        <v>1179</v>
       </c>
       <c r="G108" s="31" t="s">
         <v>104</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>1204</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -10441,16 +10534,16 @@
         <v>21</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>1200</v>
+        <v>1181</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="G109" s="31" t="s">
         <v>104</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>1205</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -10458,13 +10551,13 @@
         <v>1</v>
       </c>
       <c r="B110" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D110" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E110" s="48" t="s">
         <v>68</v>
@@ -10477,16 +10570,16 @@
         <v>21</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G111" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -10494,10 +10587,10 @@
         <v>21</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G112" s="31" t="s">
         <v>64</v>
@@ -10511,10 +10604,10 @@
         <v>21</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G113" s="31" t="s">
         <v>64</v>
@@ -10528,10 +10621,10 @@
         <v>21</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G114" s="31" t="s">
         <v>64</v>
@@ -10545,10 +10638,10 @@
         <v>21</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G115" s="31" t="s">
         <v>65</v>
@@ -10562,7 +10655,7 @@
         <v>21</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E116" s="31" t="s">
         <v>45</v>
@@ -10571,7 +10664,7 @@
         <v>62</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -10579,13 +10672,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="47" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="D117" s="47" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="E117" s="48" t="s">
         <v>68</v>
@@ -10598,10 +10691,10 @@
         <v>21</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>1126</v>
+        <v>1107</v>
       </c>
       <c r="G118" s="31" t="s">
         <v>65</v>
@@ -10615,7 +10708,7 @@
         <v>21</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>1125</v>
+        <v>1106</v>
       </c>
       <c r="E119" s="31" t="s">
         <v>45</v>
@@ -10624,7 +10717,7 @@
         <v>62</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -10632,13 +10725,13 @@
         <v>0</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C120" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D120" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E120" s="48" t="s">
         <v>68</v>
@@ -10651,16 +10744,16 @@
         <v>21</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G121" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>1170</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -10668,10 +10761,10 @@
         <v>21</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G122" s="31" t="s">
         <v>62</v>
@@ -10685,10 +10778,10 @@
         <v>21</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G123" s="31" t="s">
         <v>62</v>
@@ -10702,16 +10795,16 @@
         <v>21</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G124" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>1171</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -10719,10 +10812,10 @@
         <v>21</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G125" s="31" t="s">
         <v>64</v>
@@ -10736,10 +10829,10 @@
         <v>21</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G126" s="31" t="s">
         <v>64</v>
@@ -10753,16 +10846,16 @@
         <v>21</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G127" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -10770,10 +10863,10 @@
         <v>21</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G128" s="31" t="s">
         <v>64</v>
@@ -10787,10 +10880,10 @@
         <v>21</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G129" s="31" t="s">
         <v>64</v>
@@ -10804,10 +10897,10 @@
         <v>21</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G130" s="31" t="s">
         <v>64</v>
@@ -10821,16 +10914,16 @@
         <v>21</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G131" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -10838,13 +10931,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>1178</v>
+        <v>1159</v>
       </c>
       <c r="C132" s="47" t="s">
-        <v>1178</v>
+        <v>1159</v>
       </c>
       <c r="D132" s="47" t="s">
-        <v>1178</v>
+        <v>1159</v>
       </c>
       <c r="E132" s="48" t="s">
         <v>68</v>
@@ -10857,10 +10950,10 @@
         <v>21</v>
       </c>
       <c r="D133" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="E133" s="31" t="s">
         <v>875</v>
-      </c>
-      <c r="E133" s="31" t="s">
-        <v>877</v>
       </c>
       <c r="G133" s="31" t="s">
         <v>64</v>
@@ -10874,10 +10967,10 @@
         <v>21</v>
       </c>
       <c r="D134" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="E134" s="31" t="s">
         <v>876</v>
-      </c>
-      <c r="E134" s="31" t="s">
-        <v>878</v>
       </c>
       <c r="G134" s="31" t="s">
         <v>64</v>
@@ -10891,13 +10984,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C135" s="47" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D135" s="47" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E135" s="48" t="s">
         <v>68</v>
@@ -10905,40 +10998,38 @@
       <c r="I135" s="49"/>
       <c r="J135" s="49"/>
     </row>
-    <row r="136" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="C136" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="D136" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="E136" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="I136" s="49"/>
-      <c r="J136" s="49"/>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>972</v>
+      </c>
+      <c r="E136" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G136" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B137" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>981</v>
+        <v>1210</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>718</v>
+        <v>973</v>
       </c>
       <c r="G137" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>873</v>
+        <v>64</v>
+      </c>
+      <c r="I137" s="4">
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -10946,16 +11037,16 @@
         <v>21</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>982</v>
+        <v>1211</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="G138" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I138" s="4">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -10963,16 +11054,16 @@
         <v>21</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>983</v>
+        <v>1212</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="G139" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I139" s="4">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="I139" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -10980,10 +11071,10 @@
         <v>21</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>984</v>
+        <v>1213</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="G140" s="31" t="s">
         <v>63</v>
@@ -10992,57 +11083,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B141" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D141" s="31" t="s">
-        <v>985</v>
-      </c>
-      <c r="E141" s="31" t="s">
-        <v>989</v>
-      </c>
-      <c r="G141" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I141" s="4" t="b">
+    <row r="141" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B142" s="47" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C142" s="47" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D142" s="47" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E142" s="48" t="s">
+      <c r="B141" s="47" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C141" s="47" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D141" s="47" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E141" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I142" s="49"/>
-      <c r="J142" s="49"/>
+      <c r="I141" s="49"/>
+      <c r="J141" s="49"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E142" s="31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G142" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B143" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>1128</v>
+        <v>1110</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
       <c r="G143" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>767</v>
+        <v>64</v>
+      </c>
+      <c r="I143" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -11050,16 +11141,16 @@
         <v>21</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>1129</v>
+        <v>1111</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
       <c r="G144" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I144" s="4">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="I144" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
@@ -11067,10 +11158,10 @@
         <v>21</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>1130</v>
+        <v>1112</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>1151</v>
+        <v>1133</v>
       </c>
       <c r="G145" s="31" t="s">
         <v>63</v>
@@ -11084,16 +11175,16 @@
         <v>21</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>1131</v>
+        <v>1113</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>1152</v>
+        <v>1134</v>
       </c>
       <c r="G146" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I146" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
@@ -11101,16 +11192,16 @@
         <v>21</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>1132</v>
+        <v>1114</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>1153</v>
+        <v>1135</v>
       </c>
       <c r="G147" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I147" s="4" t="b">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="I147" s="4">
+        <v>1800</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
@@ -11118,16 +11209,16 @@
         <v>21</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>1133</v>
+        <v>1115</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>1154</v>
+        <v>1136</v>
       </c>
       <c r="G148" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I148" s="4">
-        <v>1800</v>
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
@@ -11135,16 +11226,16 @@
         <v>21</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>1155</v>
+        <v>1137</v>
       </c>
       <c r="G149" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I149" s="4">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
@@ -11152,10 +11243,10 @@
         <v>21</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>1156</v>
+        <v>1138</v>
       </c>
       <c r="G150" s="31" t="s">
         <v>64</v>
@@ -11169,10 +11260,10 @@
         <v>21</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>1136</v>
+        <v>1118</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G151" s="31" t="s">
         <v>64</v>
@@ -11186,10 +11277,10 @@
         <v>21</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>1137</v>
+        <v>1119</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>1168</v>
+        <v>1139</v>
       </c>
       <c r="G152" s="31" t="s">
         <v>64</v>
@@ -11203,10 +11294,10 @@
         <v>21</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>1138</v>
+        <v>1120</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
       <c r="G153" s="31" t="s">
         <v>64</v>
@@ -11220,10 +11311,10 @@
         <v>21</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>1139</v>
+        <v>1121</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>1159</v>
+        <v>1141</v>
       </c>
       <c r="G154" s="31" t="s">
         <v>64</v>
@@ -11237,10 +11328,10 @@
         <v>21</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>1140</v>
+        <v>1122</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="G155" s="31" t="s">
         <v>64</v>
@@ -11254,16 +11345,16 @@
         <v>21</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>1141</v>
+        <v>1123</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
       <c r="G156" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I156" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
@@ -11271,16 +11362,16 @@
         <v>21</v>
       </c>
       <c r="D157" s="31" t="s">
-        <v>1142</v>
+        <v>1124</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="G157" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I157" s="4">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
@@ -11288,16 +11379,16 @@
         <v>21</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>1163</v>
+        <v>1145</v>
       </c>
       <c r="G158" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I158" s="4">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
@@ -11305,16 +11396,16 @@
         <v>21</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>1144</v>
+        <v>1126</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>1164</v>
+        <v>1146</v>
       </c>
       <c r="G159" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I159" s="4">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
@@ -11322,16 +11413,16 @@
         <v>21</v>
       </c>
       <c r="D160" s="31" t="s">
-        <v>1145</v>
+        <v>1127</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>1165</v>
+        <v>45</v>
       </c>
       <c r="G160" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I160" s="4">
-        <v>88</v>
+        <v>62</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -11339,16 +11430,16 @@
         <v>21</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>1146</v>
+        <v>1128</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>45</v>
+        <v>1147</v>
       </c>
       <c r="G161" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>754</v>
+        <v>931</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -11356,80 +11447,80 @@
         <v>21</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="G162" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I162" s="4" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B163" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D163" s="31" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E163" s="31" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G163" s="31" t="s">
+    </row>
+    <row r="163" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B163" s="47" t="s">
+        <v>738</v>
+      </c>
+      <c r="C163" s="47" t="s">
+        <v>738</v>
+      </c>
+      <c r="D163" s="47" t="s">
+        <v>738</v>
+      </c>
+      <c r="E163" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I163" s="49"/>
+      <c r="J163" s="49"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E164" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G164" s="31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B164" s="47" t="s">
-        <v>739</v>
-      </c>
-      <c r="C164" s="47" t="s">
-        <v>739</v>
-      </c>
-      <c r="D164" s="47" t="s">
-        <v>739</v>
-      </c>
-      <c r="E164" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="I164" s="49"/>
-      <c r="J164" s="49"/>
+      <c r="I164" s="4" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B165" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>706</v>
+        <v>940</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>718</v>
+        <v>941</v>
       </c>
       <c r="G165" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I165" s="4" t="s">
-        <v>754</v>
-      </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B166" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="G166" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="I166" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -11437,16 +11528,16 @@
         <v>21</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="G167" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I167" s="4">
-        <v>0.5</v>
+        <v>1.1112</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -11454,16 +11545,16 @@
         <v>21</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="G168" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I168" s="4">
-        <v>1.1112</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -11471,16 +11562,16 @@
         <v>21</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="G169" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I169" s="4">
-        <v>50</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -11488,16 +11579,16 @@
         <v>21</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>947</v>
+        <v>964</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>948</v>
+        <v>967</v>
       </c>
       <c r="G170" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I170" s="4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -11505,16 +11596,16 @@
         <v>21</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="G171" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I171" s="4">
-        <v>1</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -11522,69 +11613,69 @@
         <v>21</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="G172" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I172" s="4">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B173" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D173" s="31" t="s">
-        <v>975</v>
-      </c>
-      <c r="E173" s="31" t="s">
-        <v>978</v>
-      </c>
-      <c r="G173" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I173" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B174" s="47" t="s">
-        <v>734</v>
-      </c>
-      <c r="C174" s="47" t="s">
-        <v>734</v>
-      </c>
-      <c r="D174" s="47" t="s">
-        <v>734</v>
-      </c>
-      <c r="E174" s="48" t="s">
+      <c r="B173" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="C173" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="D173" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E173" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H174" s="49"/>
-      <c r="I174" s="49"/>
+      <c r="H173" s="49"/>
+      <c r="I173" s="49"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G174" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D175" s="31" t="s">
-        <v>706</v>
+        <v>929</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>718</v>
+        <v>930</v>
       </c>
       <c r="G175" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>754</v>
+        <v>931</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -11592,16 +11683,16 @@
         <v>21</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>939</v>
+        <v>886</v>
       </c>
       <c r="G176" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>940</v>
+        <v>64</v>
+      </c>
+      <c r="I176" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
@@ -11609,16 +11700,16 @@
         <v>21</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>888</v>
+        <v>952</v>
       </c>
       <c r="G177" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I177" s="31">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
@@ -11626,16 +11717,16 @@
         <v>21</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>960</v>
+        <v>942</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="G178" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I178" s="31">
-        <v>0.13</v>
+      <c r="I178" s="4">
+        <v>0.625</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
@@ -11643,16 +11734,16 @@
         <v>21</v>
       </c>
       <c r="D179" s="31" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="G179" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I179" s="4">
-        <v>0.625</v>
+        <v>0.8004</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
@@ -11660,16 +11751,16 @@
         <v>21</v>
       </c>
       <c r="D180" s="31" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="G180" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I180" s="4">
-        <v>0.8004</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
@@ -11677,16 +11768,16 @@
         <v>21</v>
       </c>
       <c r="D181" s="31" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="G181" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I181" s="4">
-        <v>34</v>
+      <c r="I181" s="31">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
@@ -11694,16 +11785,16 @@
         <v>21</v>
       </c>
       <c r="D182" s="31" t="s">
-        <v>956</v>
+        <v>712</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>958</v>
+        <v>724</v>
       </c>
       <c r="G182" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I182" s="31">
-        <v>0.28999999999999998</v>
+      <c r="I182" s="4">
+        <v>2.08</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
@@ -11711,106 +11802,112 @@
         <v>21</v>
       </c>
       <c r="D183" s="31" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G183" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I183" s="4">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B184" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D184" s="31" t="s">
-        <v>713</v>
-      </c>
-      <c r="E184" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="G184" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I184" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="185" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="47" t="b">
+    <row r="184" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B185" s="48" t="s">
+      <c r="B184" s="48" t="s">
         <v>705</v>
       </c>
-      <c r="C185" s="48" t="s">
+      <c r="C184" s="48" t="s">
         <v>705</v>
       </c>
-      <c r="D185" s="48" t="s">
+      <c r="D184" s="48" t="s">
         <v>705</v>
       </c>
-      <c r="E185" s="48" t="s">
+      <c r="E184" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F185" s="47"/>
-      <c r="H185" s="54"/>
-      <c r="I185" s="54"/>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F184" s="47"/>
+      <c r="H184" s="54"/>
+      <c r="I184" s="54"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B185" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E185" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G185" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I185" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="J185" s="31"/>
+    </row>
+    <row r="186" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D186" s="31" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G186" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I186" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J186" s="31"/>
     </row>
-    <row r="187" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B187" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D187" s="31" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G187" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I187" s="31" t="s">
-        <v>755</v>
+        <v>64</v>
+      </c>
+      <c r="I187" s="46" t="s">
+        <v>953</v>
       </c>
       <c r="J187" s="31"/>
+      <c r="K187" s="46"/>
+      <c r="L187" s="46"/>
+      <c r="M187" s="46"/>
+      <c r="N187" s="46"/>
+      <c r="P187" s="46"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B188" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D188" s="31" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G188" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I188" s="46" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="J188" s="31"/>
       <c r="K188" s="46"/>
@@ -11824,16 +11921,16 @@
         <v>21</v>
       </c>
       <c r="D189" s="31" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G189" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I189" s="46" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="J189" s="31"/>
       <c r="K189" s="46"/>
@@ -11847,16 +11944,16 @@
         <v>21</v>
       </c>
       <c r="D190" s="31" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G190" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I190" s="46" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="J190" s="31"/>
       <c r="K190" s="46"/>
@@ -11870,39 +11967,34 @@
         <v>21</v>
       </c>
       <c r="D191" s="31" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G191" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I191" s="46" t="s">
-        <v>962</v>
+      <c r="I191" s="50" t="s">
+        <v>726</v>
       </c>
       <c r="J191" s="31"/>
-      <c r="K191" s="46"/>
-      <c r="L191" s="46"/>
-      <c r="M191" s="46"/>
-      <c r="N191" s="46"/>
-      <c r="P191" s="46"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B192" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D192" s="31" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G192" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I192" s="50" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J192" s="31"/>
     </row>
@@ -11911,34 +12003,39 @@
         <v>21</v>
       </c>
       <c r="D193" s="31" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E193" s="31" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="G193" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I193" s="50" t="s">
-        <v>727</v>
+      <c r="I193" s="46" t="s">
+        <v>954</v>
       </c>
       <c r="J193" s="31"/>
+      <c r="K193" s="46"/>
+      <c r="L193" s="46"/>
+      <c r="M193" s="46"/>
+      <c r="N193" s="46"/>
+      <c r="P193" s="46"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B194" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D194" s="31" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E194" s="31" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G194" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I194" s="46" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="J194" s="31"/>
       <c r="K194" s="46"/>
@@ -11947,77 +12044,71 @@
       <c r="N194" s="46"/>
       <c r="P194" s="46"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B195" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D195" s="31" t="s">
-        <v>716</v>
-      </c>
-      <c r="E195" s="31" t="s">
-        <v>717</v>
-      </c>
-      <c r="G195" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I195" s="46" t="s">
-        <v>964</v>
-      </c>
-      <c r="J195" s="31"/>
-      <c r="K195" s="46"/>
-      <c r="L195" s="46"/>
-      <c r="M195" s="46"/>
-      <c r="N195" s="46"/>
-      <c r="P195" s="46"/>
-    </row>
-    <row r="196" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="47" t="b">
+    <row r="195" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B196" s="47" t="s">
-        <v>733</v>
-      </c>
-      <c r="C196" s="47" t="s">
-        <v>733</v>
-      </c>
-      <c r="D196" s="47" t="s">
-        <v>733</v>
-      </c>
-      <c r="E196" s="48" t="s">
+      <c r="B195" s="47" t="s">
+        <v>732</v>
+      </c>
+      <c r="C195" s="47" t="s">
+        <v>732</v>
+      </c>
+      <c r="D195" s="47" t="s">
+        <v>732</v>
+      </c>
+      <c r="E195" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H196" s="49"/>
-      <c r="I196" s="49"/>
+      <c r="H195" s="49"/>
+      <c r="I195" s="49"/>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B196" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D196" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G196" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B197" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D197" s="31" t="s">
-        <v>706</v>
+        <v>940</v>
       </c>
       <c r="E197" s="31" t="s">
-        <v>718</v>
+        <v>941</v>
       </c>
       <c r="G197" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I197" s="4" t="s">
-        <v>754</v>
-      </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B198" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D198" s="31" t="s">
-        <v>949</v>
+        <v>877</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>950</v>
+        <v>879</v>
       </c>
       <c r="G198" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="I198" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
@@ -12025,16 +12116,16 @@
         <v>21</v>
       </c>
       <c r="D199" s="31" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E199" s="31" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G199" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I199" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
@@ -12042,16 +12133,16 @@
         <v>21</v>
       </c>
       <c r="D200" s="31" t="s">
-        <v>880</v>
+        <v>942</v>
       </c>
       <c r="E200" s="31" t="s">
-        <v>882</v>
+        <v>944</v>
       </c>
       <c r="G200" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I200" s="4">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
@@ -12059,16 +12150,16 @@
         <v>21</v>
       </c>
       <c r="D201" s="31" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="E201" s="31" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="G201" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I201" s="4">
-        <v>0.625</v>
+        <v>0.8004</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
@@ -12076,16 +12167,16 @@
         <v>21</v>
       </c>
       <c r="D202" s="31" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="E202" s="31" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="G202" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I202" s="4">
-        <v>0.8004</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
@@ -12093,16 +12184,16 @@
         <v>21</v>
       </c>
       <c r="D203" s="31" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="E203" s="31" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="G203" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I203" s="4">
-        <v>34</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
@@ -12110,16 +12201,16 @@
         <v>21</v>
       </c>
       <c r="D204" s="31" t="s">
-        <v>956</v>
+        <v>712</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>958</v>
+        <v>724</v>
       </c>
       <c r="G204" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I204" s="4">
-        <v>0.28999999999999998</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
@@ -12127,105 +12218,105 @@
         <v>21</v>
       </c>
       <c r="D205" s="31" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E205" s="31" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G205" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I205" s="4">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B206" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D206" s="31" t="s">
-        <v>713</v>
-      </c>
-      <c r="E206" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="G206" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I206" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="207" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="47" t="b">
+    <row r="206" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B207" s="47" t="s">
+      <c r="B206" s="47" t="s">
+        <v>735</v>
+      </c>
+      <c r="C206" s="47" t="s">
+        <v>735</v>
+      </c>
+      <c r="D206" s="47" t="s">
+        <v>735</v>
+      </c>
+      <c r="E206" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I206" s="49"/>
+      <c r="J206" s="49"/>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B207" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D207" s="31" t="s">
+        <v>929</v>
+      </c>
+      <c r="E207" s="31" t="s">
+        <v>930</v>
+      </c>
+      <c r="G207" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I207" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B208" s="47" t="s">
         <v>736</v>
       </c>
-      <c r="C207" s="47" t="s">
+      <c r="C208" s="47" t="s">
         <v>736</v>
       </c>
-      <c r="D207" s="47" t="s">
+      <c r="D208" s="47" t="s">
         <v>736</v>
       </c>
-      <c r="E207" s="48" t="s">
+      <c r="E208" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I207" s="49"/>
-      <c r="J207" s="49"/>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B208" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D208" s="31" t="s">
-        <v>938</v>
-      </c>
-      <c r="E208" s="31" t="s">
-        <v>939</v>
-      </c>
-      <c r="G208" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I208" s="4" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B209" s="47" t="s">
-        <v>737</v>
-      </c>
-      <c r="C209" s="47" t="s">
-        <v>737</v>
-      </c>
-      <c r="D209" s="47" t="s">
-        <v>737</v>
-      </c>
-      <c r="E209" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="I209" s="49"/>
-      <c r="J209" s="49"/>
+      <c r="I208" s="49"/>
+      <c r="J208" s="49"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B209" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D209" s="31" t="s">
+        <v>956</v>
+      </c>
+      <c r="E209" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="G209" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I209" s="4">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B210" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D210" s="31" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="G210" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I210" s="4">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -12233,16 +12324,16 @@
         <v>21</v>
       </c>
       <c r="D211" s="31" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="G211" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I211" s="4">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -12250,10 +12341,10 @@
         <v>21</v>
       </c>
       <c r="D212" s="31" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="E212" s="31" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="G212" s="31" t="s">
         <v>64</v>
@@ -12262,35 +12353,37 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B213" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D213" s="31" t="s">
-        <v>968</v>
-      </c>
-      <c r="E213" s="31" t="s">
-        <v>972</v>
-      </c>
-      <c r="G213" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I213" s="4">
-        <v>0.7</v>
-      </c>
+    <row r="213" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B213" s="47" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C213" s="47" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D213" s="47" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E213" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="I213" s="49"/>
+      <c r="J213" s="49"/>
     </row>
     <row r="214" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="47" t="b">
         <v>1</v>
       </c>
       <c r="B214" s="47" t="s">
-        <v>1123</v>
+        <v>743</v>
       </c>
       <c r="C214" s="47" t="s">
-        <v>1123</v>
+        <v>743</v>
       </c>
       <c r="D214" s="47" t="s">
-        <v>1123</v>
+        <v>743</v>
       </c>
       <c r="E214" s="48" t="s">
         <v>160</v>
@@ -12298,40 +12391,38 @@
       <c r="I214" s="49"/>
       <c r="J214" s="49"/>
     </row>
-    <row r="215" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B215" s="47" t="s">
-        <v>745</v>
-      </c>
-      <c r="C215" s="47" t="s">
-        <v>745</v>
-      </c>
-      <c r="D215" s="47" t="s">
-        <v>745</v>
-      </c>
-      <c r="E215" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="I215" s="49"/>
-      <c r="J215" s="49"/>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D215" s="31" t="s">
+        <v>977</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G215" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B216" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D216" s="31" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E216" s="31" t="s">
-        <v>718</v>
+        <v>992</v>
       </c>
       <c r="G216" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I216" s="4" t="s">
-        <v>873</v>
+        <v>64</v>
+      </c>
+      <c r="I216" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -12339,16 +12430,16 @@
         <v>21</v>
       </c>
       <c r="D217" s="31" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
       <c r="E217" s="31" t="s">
-        <v>1011</v>
+        <v>993</v>
       </c>
       <c r="G217" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I217" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -12356,16 +12447,16 @@
         <v>21</v>
       </c>
       <c r="D218" s="31" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="E218" s="31" t="s">
-        <v>1012</v>
+        <v>994</v>
       </c>
       <c r="G218" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I218" s="4">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -12373,16 +12464,16 @@
         <v>21</v>
       </c>
       <c r="D219" s="31" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>1013</v>
+        <v>930</v>
       </c>
       <c r="G219" s="31" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>1015</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -12390,16 +12481,16 @@
         <v>21</v>
       </c>
       <c r="D220" s="31" t="s">
-        <v>1009</v>
+        <v>978</v>
       </c>
       <c r="E220" s="31" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="G220" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>1174</v>
+        <v>997</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -12410,13 +12501,13 @@
         <v>991</v>
       </c>
       <c r="E221" s="31" t="s">
-        <v>950</v>
+        <v>995</v>
       </c>
       <c r="G221" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I221" s="4" t="s">
-        <v>1016</v>
+        <v>64</v>
+      </c>
+      <c r="I221" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -12424,16 +12515,16 @@
         <v>21</v>
       </c>
       <c r="D222" s="31" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="E222" s="31" t="s">
-        <v>1014</v>
+        <v>971</v>
       </c>
       <c r="G222" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I222" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -12441,16 +12532,16 @@
         <v>21</v>
       </c>
       <c r="D223" s="31" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="E223" s="31" t="s">
-        <v>980</v>
+        <v>1004</v>
       </c>
       <c r="G223" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I223" s="4" t="s">
-        <v>1016</v>
+        <v>64</v>
+      </c>
+      <c r="I223" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -12458,16 +12549,16 @@
         <v>21</v>
       </c>
       <c r="D224" s="31" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
       <c r="E224" s="31" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="G224" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I224" s="4">
-        <v>0.1</v>
+        <v>62</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
@@ -12475,16 +12566,16 @@
         <v>21</v>
       </c>
       <c r="D225" s="31" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="E225" s="31" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="G225" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>1016</v>
+        <v>64</v>
+      </c>
+      <c r="I225" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -12492,16 +12583,16 @@
         <v>21</v>
       </c>
       <c r="D226" s="31" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="E226" s="31" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="G226" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I226" s="4">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -12509,16 +12600,16 @@
         <v>21</v>
       </c>
       <c r="D227" s="31" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="E227" s="31" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="G227" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I227" s="4" t="s">
-        <v>1175</v>
+        <v>64</v>
+      </c>
+      <c r="I227" s="4">
+        <v>3.3300000000000001E-3</v>
       </c>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
@@ -12526,16 +12617,16 @@
         <v>21</v>
       </c>
       <c r="D228" s="31" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="E228" s="31" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="G228" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I228" s="4">
-        <v>3.3300000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
@@ -12543,10 +12634,10 @@
         <v>21</v>
       </c>
       <c r="D229" s="31" t="s">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="E229" s="31" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="G229" s="31" t="s">
         <v>64</v>
@@ -12560,16 +12651,16 @@
         <v>21</v>
       </c>
       <c r="D230" s="31" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="E230" s="31" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="G230" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I230" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
@@ -12577,16 +12668,16 @@
         <v>21</v>
       </c>
       <c r="D231" s="31" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="E231" s="31" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="G231" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>1034</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
@@ -12594,16 +12685,16 @@
         <v>21</v>
       </c>
       <c r="D232" s="31" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="E232" s="31" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="G232" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I232" s="4" t="s">
-        <v>1176</v>
+        <v>63</v>
+      </c>
+      <c r="I232" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
@@ -12611,16 +12702,16 @@
         <v>21</v>
       </c>
       <c r="D233" s="31" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="E233" s="31" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="G233" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I233" s="4" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="I233" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
@@ -12628,10 +12719,10 @@
         <v>21</v>
       </c>
       <c r="D234" s="31" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="E234" s="31" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
       <c r="G234" s="31" t="s">
         <v>64</v>
@@ -12645,10 +12736,10 @@
         <v>21</v>
       </c>
       <c r="D235" s="31" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
       <c r="E235" s="31" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
       <c r="G235" s="31" t="s">
         <v>64</v>
@@ -12662,10 +12753,10 @@
         <v>21</v>
       </c>
       <c r="D236" s="31" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="E236" s="31" t="s">
-        <v>1046</v>
+        <v>1028</v>
       </c>
       <c r="G236" s="31" t="s">
         <v>64</v>
@@ -12679,16 +12770,16 @@
         <v>21</v>
       </c>
       <c r="D237" s="31" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="E237" s="31" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="G237" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I237" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -12696,16 +12787,16 @@
         <v>21</v>
       </c>
       <c r="D238" s="31" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="E238" s="31" t="s">
-        <v>1048</v>
+        <v>1067</v>
       </c>
       <c r="G238" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I238" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -12713,10 +12804,10 @@
         <v>21</v>
       </c>
       <c r="D239" s="31" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="E239" s="31" t="s">
-        <v>1086</v>
+        <v>1068</v>
       </c>
       <c r="G239" s="31" t="s">
         <v>64</v>
@@ -12730,10 +12821,10 @@
         <v>21</v>
       </c>
       <c r="D240" s="31" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="E240" s="31" t="s">
-        <v>1087</v>
+        <v>1069</v>
       </c>
       <c r="G240" s="31" t="s">
         <v>64</v>
@@ -12747,15 +12838,15 @@
         <v>21</v>
       </c>
       <c r="D241" s="31" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="E241" s="31" t="s">
-        <v>1088</v>
+        <v>1070</v>
       </c>
       <c r="G241" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I241" s="4">
+        <v>63</v>
+      </c>
+      <c r="I241" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12764,10 +12855,10 @@
         <v>21</v>
       </c>
       <c r="D242" s="31" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
       <c r="E242" s="31" t="s">
-        <v>1089</v>
+        <v>1071</v>
       </c>
       <c r="G242" s="31" t="s">
         <v>63</v>
@@ -12781,10 +12872,10 @@
         <v>21</v>
       </c>
       <c r="D243" s="31" t="s">
-        <v>1053</v>
+        <v>1035</v>
       </c>
       <c r="E243" s="31" t="s">
-        <v>1090</v>
+        <v>1072</v>
       </c>
       <c r="G243" s="31" t="s">
         <v>63</v>
@@ -12798,16 +12889,16 @@
         <v>21</v>
       </c>
       <c r="D244" s="31" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="E244" s="31" t="s">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="G244" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I244" s="4" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="I244" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.25">
@@ -12815,16 +12906,16 @@
         <v>21</v>
       </c>
       <c r="D245" s="31" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="E245" s="31" t="s">
-        <v>1092</v>
+        <v>1074</v>
       </c>
       <c r="G245" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I245" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.25">
@@ -12832,16 +12923,16 @@
         <v>21</v>
       </c>
       <c r="D246" s="31" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
       <c r="E246" s="31" t="s">
-        <v>1093</v>
+        <v>1075</v>
       </c>
       <c r="G246" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I246" s="4">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.25">
@@ -12849,16 +12940,16 @@
         <v>21</v>
       </c>
       <c r="D247" s="31" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="E247" s="31" t="s">
-        <v>1094</v>
+        <v>1076</v>
       </c>
       <c r="G247" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I247" s="4">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.25">
@@ -12866,16 +12957,16 @@
         <v>21</v>
       </c>
       <c r="D248" s="31" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="E248" s="31" t="s">
-        <v>1095</v>
+        <v>1077</v>
       </c>
       <c r="G248" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I248" s="4">
-        <v>0.2</v>
+        <v>1.15E-2</v>
       </c>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.25">
@@ -12883,16 +12974,16 @@
         <v>21</v>
       </c>
       <c r="D249" s="31" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="E249" s="31" t="s">
-        <v>1096</v>
+        <v>1078</v>
       </c>
       <c r="G249" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I249" s="4">
-        <v>1.15E-2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="250" spans="2:9" x14ac:dyDescent="0.25">
@@ -12900,16 +12991,16 @@
         <v>21</v>
       </c>
       <c r="D250" s="31" t="s">
-        <v>1060</v>
+        <v>1042</v>
       </c>
       <c r="E250" s="31" t="s">
-        <v>1097</v>
+        <v>1079</v>
       </c>
       <c r="G250" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I250" s="4">
-        <v>0.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.25">
@@ -12917,16 +13008,16 @@
         <v>21</v>
       </c>
       <c r="D251" s="31" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="E251" s="31" t="s">
-        <v>1098</v>
+        <v>1080</v>
       </c>
       <c r="G251" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I251" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.25">
@@ -12934,16 +13025,16 @@
         <v>21</v>
       </c>
       <c r="D252" s="31" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="E252" s="31" t="s">
-        <v>1099</v>
+        <v>1081</v>
       </c>
       <c r="G252" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I252" s="4">
-        <v>2</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.25">
@@ -12951,10 +13042,10 @@
         <v>21</v>
       </c>
       <c r="D253" s="31" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
       <c r="E253" s="31" t="s">
-        <v>1100</v>
+        <v>1082</v>
       </c>
       <c r="G253" s="31" t="s">
         <v>64</v>
@@ -12968,16 +13059,16 @@
         <v>21</v>
       </c>
       <c r="D254" s="31" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
       <c r="E254" s="31" t="s">
-        <v>1101</v>
+        <v>1083</v>
       </c>
       <c r="G254" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I254" s="4">
-        <v>2700</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.25">
@@ -12985,16 +13076,16 @@
         <v>21</v>
       </c>
       <c r="D255" s="31" t="s">
-        <v>1065</v>
+        <v>1047</v>
       </c>
       <c r="E255" s="31" t="s">
-        <v>1102</v>
+        <v>1084</v>
       </c>
       <c r="G255" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I255" s="4">
-        <v>24.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.25">
@@ -13002,16 +13093,16 @@
         <v>21</v>
       </c>
       <c r="D256" s="31" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
       <c r="E256" s="31" t="s">
-        <v>1103</v>
+        <v>1085</v>
       </c>
       <c r="G256" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I256" s="4">
-        <v>2</v>
+        <v>348</v>
       </c>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
@@ -13019,16 +13110,16 @@
         <v>21</v>
       </c>
       <c r="D257" s="31" t="s">
-        <v>1067</v>
+        <v>1049</v>
       </c>
       <c r="E257" s="31" t="s">
-        <v>1104</v>
+        <v>1086</v>
       </c>
       <c r="G257" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I257" s="4">
-        <v>348</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.25">
@@ -13036,16 +13127,16 @@
         <v>21</v>
       </c>
       <c r="D258" s="31" t="s">
-        <v>1068</v>
+        <v>1050</v>
       </c>
       <c r="E258" s="31" t="s">
-        <v>1105</v>
+        <v>1087</v>
       </c>
       <c r="G258" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I258" s="4">
-        <v>21600</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.25">
@@ -13053,16 +13144,16 @@
         <v>21</v>
       </c>
       <c r="D259" s="31" t="s">
-        <v>1069</v>
+        <v>1051</v>
       </c>
       <c r="E259" s="31" t="s">
-        <v>1106</v>
+        <v>1088</v>
       </c>
       <c r="G259" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I259" s="4">
-        <v>16</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
@@ -13070,16 +13161,16 @@
         <v>21</v>
       </c>
       <c r="D260" s="31" t="s">
-        <v>1070</v>
+        <v>1052</v>
       </c>
       <c r="E260" s="31" t="s">
-        <v>1107</v>
+        <v>1089</v>
       </c>
       <c r="G260" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I260" s="4">
-        <v>2700</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
@@ -13087,16 +13178,16 @@
         <v>21</v>
       </c>
       <c r="D261" s="31" t="s">
-        <v>1071</v>
+        <v>1053</v>
       </c>
       <c r="E261" s="31" t="s">
-        <v>1108</v>
+        <v>1090</v>
       </c>
       <c r="G261" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I261" s="4">
-        <v>5250</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.25">
@@ -13104,16 +13195,16 @@
         <v>21</v>
       </c>
       <c r="D262" s="31" t="s">
-        <v>1072</v>
+        <v>1054</v>
       </c>
       <c r="E262" s="31" t="s">
-        <v>1109</v>
+        <v>1091</v>
       </c>
       <c r="G262" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I262" s="4">
-        <v>8.5</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.25">
@@ -13121,16 +13212,16 @@
         <v>21</v>
       </c>
       <c r="D263" s="31" t="s">
-        <v>1073</v>
+        <v>1055</v>
       </c>
       <c r="E263" s="31" t="s">
-        <v>1110</v>
+        <v>1092</v>
       </c>
       <c r="G263" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I263" s="4">
-        <v>1500</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
@@ -13138,16 +13229,16 @@
         <v>21</v>
       </c>
       <c r="D264" s="31" t="s">
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="E264" s="31" t="s">
-        <v>1111</v>
+        <v>1093</v>
       </c>
       <c r="G264" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I264" s="4">
-        <v>4800</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
@@ -13155,16 +13246,16 @@
         <v>21</v>
       </c>
       <c r="D265" s="31" t="s">
-        <v>1075</v>
+        <v>1057</v>
       </c>
       <c r="E265" s="31" t="s">
-        <v>1112</v>
+        <v>1094</v>
       </c>
       <c r="G265" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I265" s="4">
-        <v>4</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.25">
@@ -13172,16 +13263,16 @@
         <v>21</v>
       </c>
       <c r="D266" s="31" t="s">
-        <v>1076</v>
+        <v>1058</v>
       </c>
       <c r="E266" s="31" t="s">
-        <v>1113</v>
+        <v>1095</v>
       </c>
       <c r="G266" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I266" s="4">
-        <v>1200</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.25">
@@ -13189,16 +13280,16 @@
         <v>21</v>
       </c>
       <c r="D267" s="31" t="s">
-        <v>1077</v>
+        <v>1059</v>
       </c>
       <c r="E267" s="31" t="s">
-        <v>1114</v>
+        <v>1096</v>
       </c>
       <c r="G267" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I267" s="4">
-        <v>2400</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
@@ -13206,16 +13297,16 @@
         <v>21</v>
       </c>
       <c r="D268" s="31" t="s">
-        <v>1078</v>
+        <v>1060</v>
       </c>
       <c r="E268" s="31" t="s">
-        <v>1115</v>
+        <v>1097</v>
       </c>
       <c r="G268" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I268" s="4">
-        <v>8</v>
+        <v>300</v>
       </c>
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
@@ -13223,16 +13314,16 @@
         <v>21</v>
       </c>
       <c r="D269" s="31" t="s">
-        <v>1079</v>
+        <v>1061</v>
       </c>
       <c r="E269" s="31" t="s">
-        <v>1116</v>
+        <v>1098</v>
       </c>
       <c r="G269" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I269" s="4">
-        <v>300</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.25">
@@ -13240,16 +13331,16 @@
         <v>21</v>
       </c>
       <c r="D270" s="31" t="s">
-        <v>1080</v>
+        <v>1062</v>
       </c>
       <c r="E270" s="31" t="s">
-        <v>1117</v>
+        <v>1099</v>
       </c>
       <c r="G270" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I270" s="4">
-        <v>9600</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.25">
@@ -13257,16 +13348,16 @@
         <v>21</v>
       </c>
       <c r="D271" s="31" t="s">
-        <v>1081</v>
+        <v>1063</v>
       </c>
       <c r="E271" s="31" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
       <c r="G271" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I271" s="4">
-        <v>8</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
@@ -13274,16 +13365,16 @@
         <v>21</v>
       </c>
       <c r="D272" s="31" t="s">
-        <v>1082</v>
+        <v>1064</v>
       </c>
       <c r="E272" s="31" t="s">
-        <v>1119</v>
+        <v>1101</v>
       </c>
       <c r="G272" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I272" s="4">
-        <v>1200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -13291,16 +13382,16 @@
         <v>21</v>
       </c>
       <c r="D273" s="31" t="s">
-        <v>1083</v>
+        <v>1065</v>
       </c>
       <c r="E273" s="31" t="s">
-        <v>1120</v>
+        <v>1102</v>
       </c>
       <c r="G273" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I273" s="4">
-        <v>9600</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -13308,94 +13399,94 @@
         <v>21</v>
       </c>
       <c r="D274" s="31" t="s">
-        <v>1084</v>
+        <v>1066</v>
       </c>
       <c r="E274" s="31" t="s">
-        <v>1121</v>
+        <v>1103</v>
       </c>
       <c r="G274" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I274" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B275" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D275" s="31" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E275" s="31" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G275" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I275" s="4">
         <v>1200</v>
       </c>
     </row>
-    <row r="276" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B276" s="47" t="s">
-        <v>743</v>
-      </c>
-      <c r="C276" s="47" t="s">
-        <v>743</v>
-      </c>
-      <c r="D276" s="47" t="s">
-        <v>743</v>
-      </c>
-      <c r="E276" s="48" t="s">
+    <row r="275" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B275" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="C275" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="D275" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="E275" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I276" s="49"/>
-      <c r="J276" s="49"/>
+      <c r="I275" s="49"/>
+      <c r="J275" s="49"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B276" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D276" s="31" t="s">
+        <v>977</v>
+      </c>
+      <c r="E276" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G276" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I276" s="4" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B277" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D277" s="31" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="E277" s="31" t="s">
-        <v>718</v>
+        <v>941</v>
       </c>
       <c r="G277" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I277" s="4" t="s">
-        <v>873</v>
-      </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B278" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D278" s="31" t="s">
-        <v>991</v>
+        <v>1190</v>
       </c>
       <c r="E278" s="31" t="s">
-        <v>950</v>
+        <v>986</v>
       </c>
       <c r="G278" s="31" t="s">
         <v>62</v>
       </c>
+      <c r="I278" s="4" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B279" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D279" s="31" t="s">
-        <v>992</v>
+        <v>1189</v>
       </c>
       <c r="E279" s="31" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
       <c r="G279" s="31" t="s">
         <v>64</v>
@@ -13409,16 +13500,16 @@
         <v>21</v>
       </c>
       <c r="D280" s="31" t="s">
-        <v>993</v>
+        <v>1188</v>
       </c>
       <c r="E280" s="31" t="s">
-        <v>1003</v>
+        <v>984</v>
       </c>
       <c r="G280" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I280" s="4" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -13426,10 +13517,10 @@
         <v>21</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>994</v>
+        <v>1187</v>
       </c>
       <c r="E281" s="31" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="G281" s="31" t="s">
         <v>64</v>
@@ -13443,30 +13534,30 @@
         <v>21</v>
       </c>
       <c r="D282" s="31" t="s">
-        <v>995</v>
+        <v>1191</v>
       </c>
       <c r="E282" s="31" t="s">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="G282" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I282" s="4" t="s">
-        <v>996</v>
+        <v>64</v>
+      </c>
+      <c r="I282" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="283" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B283" s="47" t="s">
-        <v>744</v>
+        <v>1214</v>
       </c>
       <c r="C283" s="47" t="s">
-        <v>744</v>
+        <v>1214</v>
       </c>
       <c r="D283" s="47" t="s">
-        <v>744</v>
+        <v>1214</v>
       </c>
       <c r="E283" s="48" t="s">
         <v>68</v>
@@ -13479,7 +13570,7 @@
         <v>21</v>
       </c>
       <c r="D284" s="31" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="E284" s="31" t="s">
         <v>718</v>
@@ -13488,7 +13579,7 @@
         <v>62</v>
       </c>
       <c r="I284" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -13496,10 +13587,10 @@
         <v>21</v>
       </c>
       <c r="D285" s="31" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="E285" s="31" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="G285" s="31" t="s">
         <v>62</v>
@@ -13510,16 +13601,16 @@
         <v>21</v>
       </c>
       <c r="D286" s="31" t="s">
-        <v>997</v>
+        <v>1217</v>
       </c>
       <c r="E286" s="31" t="s">
-        <v>999</v>
+        <v>1215</v>
       </c>
       <c r="G286" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I286" s="4" t="s">
-        <v>1001</v>
+        <v>64</v>
+      </c>
+      <c r="I286" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -13527,16 +13618,16 @@
         <v>21</v>
       </c>
       <c r="D287" s="31" t="s">
-        <v>998</v>
+        <v>1188</v>
       </c>
       <c r="E287" s="31" t="s">
-        <v>1000</v>
+        <v>1216</v>
       </c>
       <c r="G287" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I287" s="4" t="s">
-        <v>1172</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="288" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -13544,13 +13635,13 @@
         <v>0</v>
       </c>
       <c r="B288" s="47" t="s">
-        <v>750</v>
+        <v>1218</v>
       </c>
       <c r="C288" s="47" t="s">
-        <v>852</v>
+        <v>1218</v>
       </c>
       <c r="D288" s="47" t="s">
-        <v>852</v>
+        <v>1218</v>
       </c>
       <c r="E288" s="48" t="s">
         <v>68</v>
@@ -13558,343 +13649,632 @@
       <c r="I288" s="49"/>
       <c r="J288" s="49"/>
     </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B289" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D289" s="31" t="s">
-        <v>807</v>
+        <v>977</v>
       </c>
       <c r="E289" s="31" t="s">
-        <v>827</v>
+        <v>718</v>
       </c>
       <c r="G289" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I289" s="4" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B290" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D290" s="31" t="s">
-        <v>808</v>
+        <v>978</v>
       </c>
       <c r="E290" s="31" t="s">
-        <v>828</v>
+        <v>941</v>
       </c>
       <c r="G290" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I290" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B291" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D291" s="31" t="s">
-        <v>809</v>
+        <v>1228</v>
       </c>
       <c r="E291" s="31" t="s">
-        <v>829</v>
+        <v>1220</v>
       </c>
       <c r="G291" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I291" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I291" s="4" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B292" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D292" s="31" t="s">
-        <v>810</v>
+        <v>1229</v>
       </c>
       <c r="E292" s="31" t="s">
-        <v>830</v>
+        <v>1221</v>
       </c>
       <c r="G292" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I292" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="I292" s="4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B293" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D293" s="31" t="s">
-        <v>811</v>
+        <v>1230</v>
       </c>
       <c r="E293" s="31" t="s">
-        <v>831</v>
+        <v>1222</v>
       </c>
       <c r="G293" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I293" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B294" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D294" s="31" t="s">
-        <v>812</v>
-      </c>
-      <c r="E294" s="31" t="s">
-        <v>832</v>
-      </c>
-      <c r="G294" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I294" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="I293" s="4" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B294" s="47" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C294" s="47" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D294" s="47" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E294" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="I294" s="49"/>
+      <c r="J294" s="49"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B295" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D295" s="31" t="s">
-        <v>813</v>
+        <v>977</v>
       </c>
       <c r="E295" s="31" t="s">
-        <v>833</v>
+        <v>718</v>
       </c>
       <c r="G295" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I295" s="4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B296" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D296" s="31" t="s">
-        <v>814</v>
+        <v>1231</v>
       </c>
       <c r="E296" s="31" t="s">
-        <v>834</v>
+        <v>1224</v>
       </c>
       <c r="G296" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I296" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B297" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D297" s="31" t="s">
-        <v>815</v>
+        <v>1232</v>
       </c>
       <c r="E297" s="31" t="s">
-        <v>835</v>
+        <v>1225</v>
       </c>
       <c r="G297" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I297" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B298" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298" s="31" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E298" s="31" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G298" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I298" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B299" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="31" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E299" s="31" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G299" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I299" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B300" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="C300" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="D300" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="E300" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I300" s="49"/>
+      <c r="J300" s="49"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B301" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="31" t="s">
+        <v>977</v>
+      </c>
+      <c r="E301" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="G301" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I297" s="4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B298" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D298" s="31" t="s">
-        <v>816</v>
-      </c>
-      <c r="E298" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="G298" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I298" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B299" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D299" s="31" t="s">
-        <v>817</v>
-      </c>
-      <c r="E299" s="31" t="s">
-        <v>837</v>
-      </c>
-      <c r="G299" s="31" t="s">
+      <c r="I301" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B302" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302" s="31" t="s">
+        <v>978</v>
+      </c>
+      <c r="E302" s="31" t="s">
+        <v>941</v>
+      </c>
+      <c r="G302" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I299" s="4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B300" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D300" s="31" t="s">
-        <v>818</v>
-      </c>
-      <c r="E300" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="G300" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I300" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B301" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D301" s="31" t="s">
-        <v>819</v>
-      </c>
-      <c r="E301" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="G301" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I301" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B302" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D302" s="31" t="s">
-        <v>820</v>
-      </c>
-      <c r="E302" s="31" t="s">
-        <v>840</v>
-      </c>
-      <c r="G302" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I302" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B303" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D303" s="31" t="s">
-        <v>821</v>
+        <v>1193</v>
       </c>
       <c r="E303" s="31" t="s">
-        <v>841</v>
+        <v>980</v>
       </c>
       <c r="G303" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I303" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="I303" s="4" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B304" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D304" s="31" t="s">
-        <v>822</v>
+        <v>1192</v>
       </c>
       <c r="E304" s="31" t="s">
-        <v>842</v>
+        <v>981</v>
       </c>
       <c r="G304" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I304" s="4" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B305" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D305" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="E305" s="31" t="s">
-        <v>845</v>
-      </c>
-      <c r="G305" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I305" s="4" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B305" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="C305" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="D305" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="E305" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I305" s="49"/>
+      <c r="J305" s="49"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B306" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D306" s="31" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="E306" s="31" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="G306" s="31" t="s">
         <v>62</v>
       </c>
       <c r="I306" s="4" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B307" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D307" s="31" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E307" s="31" t="s">
+        <v>826</v>
+      </c>
+      <c r="G307" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I307" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B308" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D308" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E308" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="G308" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I308" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B309" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D309" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="E309" s="31" t="s">
+        <v>828</v>
+      </c>
+      <c r="G309" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I309" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B310" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D310" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="E310" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="G310" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I310" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B311" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D311" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E311" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="G311" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I311" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B312" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D312" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="E312" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="G312" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B313" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D313" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="E313" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="G313" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I313" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B314" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D314" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E314" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="G314" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I314" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B315" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D315" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="E315" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="G315" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I315" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B316" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D316" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="E316" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="G316" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I316" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B317" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D317" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="E317" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="G317" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I317" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B318" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D318" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E318" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="G318" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I318" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B319" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D319" s="31" t="s">
+        <v>818</v>
+      </c>
+      <c r="E319" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="G319" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I319" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B320" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D320" s="31" t="s">
+        <v>819</v>
+      </c>
+      <c r="E320" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="G320" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I320" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B321" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" s="31" t="s">
+        <v>820</v>
+      </c>
+      <c r="E321" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="G321" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I321" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="322" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B322" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D322" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="E322" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="G322" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I322" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="323" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B323" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D323" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="E323" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="G323" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I323" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="324" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B324" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D324" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="E324" s="31" t="s">
+        <v>842</v>
+      </c>
+      <c r="G324" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I324" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="325" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B325" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D325" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="E325" s="31" t="s">
         <v>844</v>
       </c>
-      <c r="G307" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I307" s="4" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B308" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D308" s="31" t="s">
-        <v>826</v>
-      </c>
-      <c r="E308" s="31" t="s">
-        <v>846</v>
-      </c>
-      <c r="G308" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I308" s="4">
+      <c r="G325" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I325" s="4">
         <v>0</v>
       </c>
     </row>
@@ -13906,7 +14286,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I188:I195" numberStoredAsText="1"/>
+    <ignoredError sqref="I187:I194" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
